--- a/perhitungan 3 parameter .xlsx
+++ b/perhitungan 3 parameter .xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\KULIAH\Semester 7\metpen\LSTM\LSTM Prediksi\Uji coba\persiapan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\KULIAH\Semester_7\metpen\LSTM\LSTM_Prediksi\Uji_coba\persiapan\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -937,7 +937,7 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -945,55 +945,55 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="26"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="24"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1816,6 +1816,132 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1845,132 +1971,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9039,8 +9039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BY291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H179" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="V185" sqref="V185"/>
+    <sheetView tabSelected="1" topLeftCell="A240" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J267" sqref="J267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -9092,24 +9092,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41">
-      <c r="A1" s="185"/>
-      <c r="H1" s="216" t="s">
+      <c r="A1" s="227"/>
+      <c r="H1" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="216"/>
-      <c r="J1" s="216"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="178"/>
       <c r="K1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="211" t="s">
+      <c r="O1" s="179" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="211"/>
-      <c r="Q1" s="211"/>
-      <c r="R1" s="211"/>
+      <c r="P1" s="179"/>
+      <c r="Q1" s="179"/>
+      <c r="R1" s="179"/>
       <c r="S1" t="s">
         <v>5</v>
       </c>
@@ -9119,7 +9119,7 @@
       <c r="AD1" s="82"/>
     </row>
     <row r="2" spans="1:41">
-      <c r="A2" s="185"/>
+      <c r="A2" s="227"/>
       <c r="H2" s="8" t="s">
         <v>7</v>
       </c>
@@ -9207,8 +9207,8 @@
       </c>
     </row>
     <row r="3" spans="1:41">
-      <c r="A3" s="185"/>
-      <c r="H3" s="186" t="s">
+      <c r="A3" s="227"/>
+      <c r="H3" s="228" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="14" t="s">
@@ -9303,8 +9303,8 @@
       </c>
     </row>
     <row r="4" spans="1:41">
-      <c r="A4" s="185"/>
-      <c r="H4" s="186"/>
+      <c r="A4" s="227"/>
+      <c r="H4" s="228"/>
       <c r="I4" s="16">
         <v>41047</v>
       </c>
@@ -9380,8 +9380,8 @@
       </c>
     </row>
     <row r="5" spans="1:41">
-      <c r="A5" s="185"/>
-      <c r="H5" s="186"/>
+      <c r="A5" s="227"/>
+      <c r="H5" s="228"/>
       <c r="I5" s="16">
         <v>41050</v>
       </c>
@@ -9474,9 +9474,9 @@
       </c>
     </row>
     <row r="6" spans="1:41">
-      <c r="A6" s="185"/>
+      <c r="A6" s="227"/>
       <c r="F6" s="9"/>
-      <c r="H6" s="186"/>
+      <c r="H6" s="228"/>
       <c r="I6" s="16">
         <v>41051</v>
       </c>
@@ -9567,9 +9567,9 @@
       </c>
     </row>
     <row r="7" spans="1:41">
-      <c r="A7" s="185"/>
+      <c r="A7" s="227"/>
       <c r="F7" s="9"/>
-      <c r="H7" s="186"/>
+      <c r="H7" s="228"/>
       <c r="I7" s="16">
         <v>41052</v>
       </c>
@@ -9642,7 +9642,7 @@
       </c>
     </row>
     <row r="8" spans="1:41">
-      <c r="A8" s="185"/>
+      <c r="A8" s="227"/>
       <c r="B8" s="10" t="s">
         <v>17</v>
       </c>
@@ -9661,7 +9661,7 @@
       <c r="G8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="186"/>
+      <c r="H8" s="228"/>
       <c r="I8" s="14" t="s">
         <v>9</v>
       </c>
@@ -9755,7 +9755,7 @@
       </c>
     </row>
     <row r="9" spans="1:41">
-      <c r="A9" s="185"/>
+      <c r="A9" s="227"/>
       <c r="B9" s="10" t="s">
         <v>20</v>
       </c>
@@ -9774,7 +9774,7 @@
       <c r="G9" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="186"/>
+      <c r="H9" s="228"/>
       <c r="I9" s="16">
         <v>41047</v>
       </c>
@@ -9872,8 +9872,8 @@
       </c>
     </row>
     <row r="10" spans="1:41">
-      <c r="A10" s="185"/>
-      <c r="H10" s="186"/>
+      <c r="A10" s="227"/>
+      <c r="H10" s="228"/>
       <c r="I10" s="16">
         <v>41050</v>
       </c>
@@ -9950,8 +9950,8 @@
       </c>
     </row>
     <row r="11" spans="1:41">
-      <c r="A11" s="185"/>
-      <c r="H11" s="186"/>
+      <c r="A11" s="227"/>
+      <c r="H11" s="228"/>
       <c r="I11" s="16">
         <v>41051</v>
       </c>
@@ -10031,8 +10031,8 @@
       </c>
     </row>
     <row r="12" spans="1:41">
-      <c r="A12" s="185"/>
-      <c r="H12" s="186"/>
+      <c r="A12" s="227"/>
+      <c r="H12" s="228"/>
       <c r="I12" s="16">
         <v>41052</v>
       </c>
@@ -10112,8 +10112,8 @@
       </c>
     </row>
     <row r="13" spans="1:41">
-      <c r="A13" s="185"/>
-      <c r="H13" s="186"/>
+      <c r="A13" s="227"/>
+      <c r="H13" s="228"/>
       <c r="I13" s="17" t="s">
         <v>23</v>
       </c>
@@ -10166,7 +10166,7 @@
       </c>
     </row>
     <row r="14" spans="1:41">
-      <c r="A14" s="185"/>
+      <c r="A14" s="227"/>
       <c r="H14" s="12"/>
       <c r="I14" s="18">
         <v>1</v>
@@ -10183,32 +10183,32 @@
       <c r="AA14" s="84"/>
     </row>
     <row r="15" spans="1:41">
-      <c r="A15" s="185"/>
+      <c r="A15" s="227"/>
       <c r="H15" s="12"/>
-      <c r="I15" s="217" t="s">
+      <c r="I15" s="180" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="218"/>
+      <c r="J15" s="181"/>
       <c r="M15" s="13"/>
-      <c r="O15" s="219" t="s">
+      <c r="O15" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="P15" s="220"/>
-      <c r="Q15" s="221"/>
-      <c r="R15" s="219" t="s">
+      <c r="P15" s="183"/>
+      <c r="Q15" s="184"/>
+      <c r="R15" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="S15" s="220"/>
-      <c r="T15" s="221"/>
-      <c r="U15" s="219" t="s">
+      <c r="S15" s="183"/>
+      <c r="T15" s="184"/>
+      <c r="U15" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="V15" s="220"/>
-      <c r="W15" s="221"/>
+      <c r="V15" s="183"/>
+      <c r="W15" s="184"/>
       <c r="AA15" s="84"/>
     </row>
     <row r="16" spans="1:41">
-      <c r="A16" s="185"/>
+      <c r="A16" s="227"/>
       <c r="H16" s="12"/>
       <c r="I16" s="18">
         <v>0</v>
@@ -10259,7 +10259,7 @@
       <c r="AA16" s="84"/>
     </row>
     <row r="17" spans="1:52">
-      <c r="A17" s="185"/>
+      <c r="A17" s="227"/>
       <c r="H17" s="12"/>
       <c r="I17" s="18">
         <v>0</v>
@@ -10298,7 +10298,7 @@
       <c r="AA17" s="84"/>
     </row>
     <row r="18" spans="1:52" ht="15" customHeight="1">
-      <c r="A18" s="185"/>
+      <c r="A18" s="227"/>
       <c r="H18" s="12"/>
       <c r="I18" s="18">
         <v>0</v>
@@ -10349,7 +10349,7 @@
       <c r="AA18" s="84"/>
     </row>
     <row r="19" spans="1:52">
-      <c r="A19" s="185"/>
+      <c r="A19" s="227"/>
       <c r="H19" s="12"/>
       <c r="I19" s="18">
         <v>0</v>
@@ -10383,7 +10383,7 @@
       <c r="AA19" s="84"/>
     </row>
     <row r="20" spans="1:52">
-      <c r="A20" s="185"/>
+      <c r="A20" s="227"/>
       <c r="H20" s="12"/>
       <c r="I20" s="24" t="s">
         <v>35</v>
@@ -10412,7 +10412,7 @@
       <c r="AA20" s="84"/>
     </row>
     <row r="21" spans="1:52" ht="15" customHeight="1">
-      <c r="A21" s="185"/>
+      <c r="A21" s="227"/>
       <c r="H21" s="12"/>
       <c r="I21" s="18">
         <v>0</v>
@@ -10424,149 +10424,149 @@
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
-      <c r="S21" s="184" t="s">
+      <c r="S21" s="226" t="s">
         <v>37</v>
       </c>
-      <c r="T21" s="184"/>
-      <c r="U21" s="184"/>
-      <c r="V21" s="184"/>
-      <c r="W21" s="184"/>
-      <c r="X21" s="184"/>
-      <c r="Y21" s="184"/>
-      <c r="Z21" s="184"/>
-      <c r="AA21" s="184"/>
-      <c r="AB21" s="184"/>
-      <c r="AC21" s="184"/>
-      <c r="AD21" s="184"/>
-      <c r="AE21" s="184"/>
-      <c r="AF21" s="184"/>
-      <c r="AG21" s="184"/>
-      <c r="AH21" s="184"/>
-      <c r="AI21" s="184"/>
-      <c r="AJ21" s="184"/>
-      <c r="AK21" s="184"/>
-      <c r="AL21" s="184"/>
-      <c r="AM21" s="184"/>
-      <c r="AN21" s="184"/>
-      <c r="AO21" s="184"/>
-      <c r="AP21" s="184"/>
-      <c r="AQ21" s="184"/>
-      <c r="AR21" s="184"/>
-      <c r="AS21" s="184"/>
-      <c r="AT21" s="184"/>
-      <c r="AU21" s="184"/>
-      <c r="AV21" s="184"/>
-      <c r="AW21" s="184"/>
-      <c r="AX21" s="184"/>
-      <c r="AY21" s="184"/>
-      <c r="AZ21" s="184"/>
+      <c r="T21" s="226"/>
+      <c r="U21" s="226"/>
+      <c r="V21" s="226"/>
+      <c r="W21" s="226"/>
+      <c r="X21" s="226"/>
+      <c r="Y21" s="226"/>
+      <c r="Z21" s="226"/>
+      <c r="AA21" s="226"/>
+      <c r="AB21" s="226"/>
+      <c r="AC21" s="226"/>
+      <c r="AD21" s="226"/>
+      <c r="AE21" s="226"/>
+      <c r="AF21" s="226"/>
+      <c r="AG21" s="226"/>
+      <c r="AH21" s="226"/>
+      <c r="AI21" s="226"/>
+      <c r="AJ21" s="226"/>
+      <c r="AK21" s="226"/>
+      <c r="AL21" s="226"/>
+      <c r="AM21" s="226"/>
+      <c r="AN21" s="226"/>
+      <c r="AO21" s="226"/>
+      <c r="AP21" s="226"/>
+      <c r="AQ21" s="226"/>
+      <c r="AR21" s="226"/>
+      <c r="AS21" s="226"/>
+      <c r="AT21" s="226"/>
+      <c r="AU21" s="226"/>
+      <c r="AV21" s="226"/>
+      <c r="AW21" s="226"/>
+      <c r="AX21" s="226"/>
+      <c r="AY21" s="226"/>
+      <c r="AZ21" s="226"/>
     </row>
     <row r="22" spans="1:52">
-      <c r="A22" s="185"/>
+      <c r="A22" s="227"/>
       <c r="H22" s="12"/>
-      <c r="I22" s="224" t="s">
+      <c r="I22" s="188" t="s">
         <v>38</v>
       </c>
-      <c r="S22" s="184"/>
-      <c r="T22" s="184"/>
-      <c r="U22" s="184"/>
-      <c r="V22" s="184"/>
-      <c r="W22" s="184"/>
-      <c r="X22" s="184"/>
-      <c r="Y22" s="184"/>
-      <c r="Z22" s="184"/>
-      <c r="AA22" s="184"/>
-      <c r="AB22" s="184"/>
-      <c r="AC22" s="184"/>
-      <c r="AD22" s="184"/>
-      <c r="AE22" s="184"/>
-      <c r="AF22" s="184"/>
-      <c r="AG22" s="184"/>
-      <c r="AH22" s="184"/>
-      <c r="AI22" s="184"/>
-      <c r="AJ22" s="184"/>
-      <c r="AK22" s="184"/>
-      <c r="AL22" s="184"/>
-      <c r="AM22" s="184"/>
-      <c r="AN22" s="184"/>
-      <c r="AO22" s="184"/>
-      <c r="AP22" s="184"/>
-      <c r="AQ22" s="184"/>
-      <c r="AR22" s="184"/>
-      <c r="AS22" s="184"/>
-      <c r="AT22" s="184"/>
-      <c r="AU22" s="184"/>
-      <c r="AV22" s="184"/>
-      <c r="AW22" s="184"/>
-      <c r="AX22" s="184"/>
-      <c r="AY22" s="184"/>
-      <c r="AZ22" s="184"/>
+      <c r="S22" s="226"/>
+      <c r="T22" s="226"/>
+      <c r="U22" s="226"/>
+      <c r="V22" s="226"/>
+      <c r="W22" s="226"/>
+      <c r="X22" s="226"/>
+      <c r="Y22" s="226"/>
+      <c r="Z22" s="226"/>
+      <c r="AA22" s="226"/>
+      <c r="AB22" s="226"/>
+      <c r="AC22" s="226"/>
+      <c r="AD22" s="226"/>
+      <c r="AE22" s="226"/>
+      <c r="AF22" s="226"/>
+      <c r="AG22" s="226"/>
+      <c r="AH22" s="226"/>
+      <c r="AI22" s="226"/>
+      <c r="AJ22" s="226"/>
+      <c r="AK22" s="226"/>
+      <c r="AL22" s="226"/>
+      <c r="AM22" s="226"/>
+      <c r="AN22" s="226"/>
+      <c r="AO22" s="226"/>
+      <c r="AP22" s="226"/>
+      <c r="AQ22" s="226"/>
+      <c r="AR22" s="226"/>
+      <c r="AS22" s="226"/>
+      <c r="AT22" s="226"/>
+      <c r="AU22" s="226"/>
+      <c r="AV22" s="226"/>
+      <c r="AW22" s="226"/>
+      <c r="AX22" s="226"/>
+      <c r="AY22" s="226"/>
+      <c r="AZ22" s="226"/>
     </row>
     <row r="23" spans="1:52">
-      <c r="A23" s="185"/>
+      <c r="A23" s="227"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="225"/>
+      <c r="I23" s="189"/>
     </row>
     <row r="24" spans="1:52">
-      <c r="A24" s="185"/>
+      <c r="A24" s="227"/>
       <c r="H24" s="12"/>
-      <c r="I24" s="225"/>
+      <c r="I24" s="189"/>
     </row>
     <row r="25" spans="1:52">
-      <c r="A25" s="185"/>
+      <c r="A25" s="227"/>
       <c r="H25" s="12"/>
-      <c r="I25" s="226" t="s">
+      <c r="I25" s="190" t="s">
         <v>39</v>
       </c>
-      <c r="J25" s="222" t="s">
+      <c r="J25" s="185" t="s">
         <v>40</v>
       </c>
-      <c r="K25" s="223"/>
-      <c r="L25" s="223"/>
+      <c r="K25" s="186"/>
+      <c r="L25" s="186"/>
       <c r="M25" t="s">
         <v>41</v>
       </c>
       <c r="R25" s="48"/>
-      <c r="S25" s="215" t="s">
+      <c r="S25" s="187" t="s">
         <v>42</v>
       </c>
-      <c r="T25" s="215"/>
-      <c r="U25" s="215"/>
-      <c r="V25" s="215"/>
-      <c r="W25" s="215"/>
-      <c r="Z25" s="215" t="s">
+      <c r="T25" s="187"/>
+      <c r="U25" s="187"/>
+      <c r="V25" s="187"/>
+      <c r="W25" s="187"/>
+      <c r="Z25" s="187" t="s">
         <v>43</v>
       </c>
-      <c r="AA25" s="215"/>
-      <c r="AB25" s="215"/>
-      <c r="AC25" s="215"/>
-      <c r="AD25" s="215"/>
-      <c r="AG25" s="215" t="s">
+      <c r="AA25" s="187"/>
+      <c r="AB25" s="187"/>
+      <c r="AC25" s="187"/>
+      <c r="AD25" s="187"/>
+      <c r="AG25" s="187" t="s">
         <v>44</v>
       </c>
-      <c r="AH25" s="215"/>
-      <c r="AI25" s="215"/>
-      <c r="AJ25" s="215"/>
-      <c r="AK25" s="215"/>
-      <c r="AN25" s="215" t="s">
+      <c r="AH25" s="187"/>
+      <c r="AI25" s="187"/>
+      <c r="AJ25" s="187"/>
+      <c r="AK25" s="187"/>
+      <c r="AN25" s="187" t="s">
         <v>45</v>
       </c>
-      <c r="AO25" s="215"/>
-      <c r="AP25" s="215"/>
-      <c r="AQ25" s="215"/>
-      <c r="AR25" s="215"/>
-      <c r="AU25" s="215" t="s">
+      <c r="AO25" s="187"/>
+      <c r="AP25" s="187"/>
+      <c r="AQ25" s="187"/>
+      <c r="AR25" s="187"/>
+      <c r="AU25" s="187" t="s">
         <v>46</v>
       </c>
-      <c r="AV25" s="215"/>
-      <c r="AW25" s="215"/>
-      <c r="AX25" s="215"/>
-      <c r="AY25" s="215"/>
+      <c r="AV25" s="187"/>
+      <c r="AW25" s="187"/>
+      <c r="AX25" s="187"/>
+      <c r="AY25" s="187"/>
     </row>
     <row r="26" spans="1:52">
-      <c r="A26" s="185"/>
+      <c r="A26" s="227"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="226"/>
+      <c r="I26" s="190"/>
       <c r="J26" s="25">
         <v>1</v>
       </c>
@@ -10686,9 +10686,9 @@
       </c>
     </row>
     <row r="27" spans="1:52">
-      <c r="A27" s="185"/>
+      <c r="A27" s="227"/>
       <c r="H27" s="12"/>
-      <c r="I27" s="226"/>
+      <c r="I27" s="190"/>
       <c r="J27" s="26">
         <v>1</v>
       </c>
@@ -10808,9 +10808,9 @@
       </c>
     </row>
     <row r="28" spans="1:52">
-      <c r="A28" s="185"/>
+      <c r="A28" s="227"/>
       <c r="H28" s="12"/>
-      <c r="I28" s="226"/>
+      <c r="I28" s="190"/>
       <c r="J28" s="28">
         <v>1</v>
       </c>
@@ -10840,9 +10840,9 @@
       </c>
     </row>
     <row r="29" spans="1:52">
-      <c r="A29" s="185"/>
+      <c r="A29" s="227"/>
       <c r="H29" s="12"/>
-      <c r="I29" s="226"/>
+      <c r="I29" s="190"/>
       <c r="J29" s="31">
         <v>1</v>
       </c>
@@ -10912,9 +10912,9 @@
       <c r="AZ29" s="59"/>
     </row>
     <row r="30" spans="1:52">
-      <c r="A30" s="185"/>
+      <c r="A30" s="227"/>
       <c r="H30" s="12"/>
-      <c r="I30" s="226"/>
+      <c r="I30" s="190"/>
       <c r="J30" s="33">
         <v>1</v>
       </c>
@@ -10942,53 +10942,53 @@
       <c r="R30" s="60">
         <v>0</v>
       </c>
-      <c r="S30" s="194" t="s">
+      <c r="S30" s="192" t="s">
         <v>48</v>
       </c>
-      <c r="T30" s="188"/>
-      <c r="U30" s="188"/>
+      <c r="T30" s="193"/>
+      <c r="U30" s="193"/>
       <c r="V30" s="48"/>
       <c r="W30" s="48"/>
       <c r="X30" s="62"/>
       <c r="Y30" s="72"/>
-      <c r="Z30" s="213" t="s">
+      <c r="Z30" s="194" t="s">
         <v>48</v>
       </c>
-      <c r="AA30" s="188"/>
-      <c r="AB30" s="188"/>
+      <c r="AA30" s="193"/>
+      <c r="AB30" s="193"/>
       <c r="AC30" s="48"/>
       <c r="AD30" s="48"/>
       <c r="AE30" s="73"/>
-      <c r="AG30" s="194" t="s">
+      <c r="AG30" s="192" t="s">
         <v>48</v>
       </c>
-      <c r="AH30" s="188"/>
-      <c r="AI30" s="188"/>
+      <c r="AH30" s="193"/>
+      <c r="AI30" s="193"/>
       <c r="AJ30" s="48"/>
       <c r="AK30" s="48"/>
       <c r="AL30" s="62"/>
       <c r="AM30" s="72"/>
-      <c r="AN30" s="194" t="s">
+      <c r="AN30" s="192" t="s">
         <v>48</v>
       </c>
-      <c r="AO30" s="188"/>
-      <c r="AP30" s="188"/>
+      <c r="AO30" s="193"/>
+      <c r="AP30" s="193"/>
       <c r="AQ30" s="48"/>
       <c r="AR30" s="48"/>
       <c r="AS30" s="62"/>
-      <c r="AU30" s="194" t="s">
+      <c r="AU30" s="192" t="s">
         <v>48</v>
       </c>
-      <c r="AV30" s="188"/>
-      <c r="AW30" s="188"/>
+      <c r="AV30" s="193"/>
+      <c r="AW30" s="193"/>
       <c r="AX30" s="48"/>
       <c r="AY30" s="48"/>
       <c r="AZ30" s="62"/>
     </row>
     <row r="31" spans="1:52">
-      <c r="A31" s="185"/>
+      <c r="A31" s="227"/>
       <c r="H31" s="12"/>
-      <c r="I31" s="226"/>
+      <c r="I31" s="190"/>
       <c r="K31" s="36">
         <v>1.4910144017081E-7</v>
       </c>
@@ -11026,9 +11026,9 @@
       <c r="AZ31" s="62"/>
     </row>
     <row r="32" spans="1:52">
-      <c r="A32" s="185"/>
+      <c r="A32" s="227"/>
       <c r="H32" s="12"/>
-      <c r="I32" s="226"/>
+      <c r="I32" s="190"/>
       <c r="J32" t="s">
         <v>49</v>
       </c>
@@ -11037,58 +11037,58 @@
       </c>
       <c r="T32" s="48"/>
       <c r="U32" s="48"/>
-      <c r="V32" s="188" t="s">
+      <c r="V32" s="193" t="s">
         <v>51</v>
       </c>
-      <c r="W32" s="188"/>
-      <c r="X32" s="189"/>
+      <c r="W32" s="193"/>
+      <c r="X32" s="203"/>
       <c r="Y32" s="72"/>
       <c r="Z32" s="75" t="s">
         <v>50</v>
       </c>
       <c r="AA32" s="48"/>
       <c r="AB32" s="48"/>
-      <c r="AC32" s="198" t="s">
+      <c r="AC32" s="195" t="s">
         <v>51</v>
       </c>
-      <c r="AD32" s="198"/>
-      <c r="AE32" s="214"/>
+      <c r="AD32" s="195"/>
+      <c r="AE32" s="197"/>
       <c r="AG32" s="63" t="s">
         <v>50</v>
       </c>
       <c r="AH32" s="48"/>
       <c r="AI32" s="48"/>
-      <c r="AJ32" s="188" t="s">
+      <c r="AJ32" s="193" t="s">
         <v>51</v>
       </c>
-      <c r="AK32" s="188"/>
-      <c r="AL32" s="189"/>
+      <c r="AK32" s="193"/>
+      <c r="AL32" s="203"/>
       <c r="AM32" s="72"/>
       <c r="AN32" s="63" t="s">
         <v>50</v>
       </c>
       <c r="AO32" s="48"/>
       <c r="AP32" s="48"/>
-      <c r="AQ32" s="188" t="s">
+      <c r="AQ32" s="193" t="s">
         <v>51</v>
       </c>
-      <c r="AR32" s="188"/>
-      <c r="AS32" s="189"/>
+      <c r="AR32" s="193"/>
+      <c r="AS32" s="203"/>
       <c r="AU32" s="63" t="s">
         <v>50</v>
       </c>
       <c r="AV32" s="48"/>
       <c r="AW32" s="48"/>
-      <c r="AX32" s="188" t="s">
+      <c r="AX32" s="193" t="s">
         <v>51</v>
       </c>
-      <c r="AY32" s="188"/>
-      <c r="AZ32" s="189"/>
+      <c r="AY32" s="193"/>
+      <c r="AZ32" s="203"/>
     </row>
     <row r="33" spans="1:52">
-      <c r="A33" s="185"/>
+      <c r="A33" s="227"/>
       <c r="H33" s="12"/>
-      <c r="I33" s="226"/>
+      <c r="I33" s="190"/>
       <c r="K33" s="37">
         <f>T77</f>
         <v>0.1319809289403901</v>
@@ -11200,9 +11200,9 @@
       </c>
     </row>
     <row r="34" spans="1:52">
-      <c r="A34" s="185"/>
+      <c r="A34" s="227"/>
       <c r="H34" s="12"/>
-      <c r="I34" s="226"/>
+      <c r="I34" s="190"/>
       <c r="K34">
         <f>AA77</f>
         <v>0.17892316460127056</v>
@@ -11249,9 +11249,9 @@
       <c r="AZ34" s="62"/>
     </row>
     <row r="35" spans="1:52">
-      <c r="A35" s="185"/>
+      <c r="A35" s="227"/>
       <c r="H35" s="12"/>
-      <c r="I35" s="226"/>
+      <c r="I35" s="190"/>
       <c r="K35">
         <f>AH77</f>
         <v>0.18192555391557788</v>
@@ -11353,9 +11353,9 @@
       <c r="AZ35" s="62"/>
     </row>
     <row r="36" spans="1:52">
-      <c r="A36" s="185"/>
+      <c r="A36" s="227"/>
       <c r="H36" s="12"/>
-      <c r="I36" s="226"/>
+      <c r="I36" s="190"/>
       <c r="K36">
         <f>AO77</f>
         <v>0.19144387811196364</v>
@@ -11402,9 +11402,9 @@
       <c r="AZ36" s="62"/>
     </row>
     <row r="37" spans="1:52">
-      <c r="A37" s="185"/>
+      <c r="A37" s="227"/>
       <c r="H37" s="12"/>
-      <c r="I37" s="226"/>
+      <c r="I37" s="190"/>
       <c r="S37" s="65" t="s">
         <v>54</v>
       </c>
@@ -11449,56 +11449,56 @@
       <c r="AZ37" s="62"/>
     </row>
     <row r="38" spans="1:52">
-      <c r="A38" s="185"/>
+      <c r="A38" s="227"/>
       <c r="H38" s="12"/>
-      <c r="I38" s="226"/>
-      <c r="S38" s="194" t="s">
+      <c r="I38" s="190"/>
+      <c r="S38" s="192" t="s">
         <v>55</v>
       </c>
-      <c r="T38" s="188"/>
-      <c r="U38" s="188"/>
-      <c r="V38" s="188"/>
+      <c r="T38" s="193"/>
+      <c r="U38" s="193"/>
+      <c r="V38" s="193"/>
       <c r="W38" s="48"/>
       <c r="X38" s="62"/>
       <c r="Y38" s="72"/>
-      <c r="Z38" s="213" t="s">
+      <c r="Z38" s="194" t="s">
         <v>55</v>
       </c>
-      <c r="AA38" s="188"/>
-      <c r="AB38" s="188"/>
-      <c r="AC38" s="188"/>
+      <c r="AA38" s="193"/>
+      <c r="AB38" s="193"/>
+      <c r="AC38" s="193"/>
       <c r="AD38" s="48"/>
       <c r="AE38" s="73"/>
-      <c r="AG38" s="194" t="s">
+      <c r="AG38" s="192" t="s">
         <v>55</v>
       </c>
-      <c r="AH38" s="188"/>
-      <c r="AI38" s="188"/>
-      <c r="AJ38" s="188"/>
+      <c r="AH38" s="193"/>
+      <c r="AI38" s="193"/>
+      <c r="AJ38" s="193"/>
       <c r="AK38" s="48"/>
       <c r="AL38" s="62"/>
       <c r="AM38" s="72"/>
-      <c r="AN38" s="194" t="s">
+      <c r="AN38" s="192" t="s">
         <v>55</v>
       </c>
-      <c r="AO38" s="188"/>
-      <c r="AP38" s="188"/>
-      <c r="AQ38" s="188"/>
+      <c r="AO38" s="193"/>
+      <c r="AP38" s="193"/>
+      <c r="AQ38" s="193"/>
       <c r="AR38" s="48"/>
       <c r="AS38" s="62"/>
-      <c r="AU38" s="194" t="s">
+      <c r="AU38" s="192" t="s">
         <v>55</v>
       </c>
-      <c r="AV38" s="188"/>
-      <c r="AW38" s="188"/>
-      <c r="AX38" s="188"/>
+      <c r="AV38" s="193"/>
+      <c r="AW38" s="193"/>
+      <c r="AX38" s="193"/>
       <c r="AY38" s="48"/>
       <c r="AZ38" s="62"/>
     </row>
     <row r="39" spans="1:52">
-      <c r="A39" s="185"/>
+      <c r="A39" s="227"/>
       <c r="H39" s="12"/>
-      <c r="I39" s="226"/>
+      <c r="I39" s="190"/>
       <c r="J39" s="25">
         <v>1</v>
       </c>
@@ -11560,9 +11560,9 @@
       <c r="AZ39" s="62"/>
     </row>
     <row r="40" spans="1:52">
-      <c r="A40" s="185"/>
+      <c r="A40" s="227"/>
       <c r="H40" s="12"/>
-      <c r="I40" s="226"/>
+      <c r="I40" s="190"/>
       <c r="J40" s="26">
         <v>1</v>
       </c>
@@ -11593,52 +11593,52 @@
       <c r="S40" s="63"/>
       <c r="T40" s="48"/>
       <c r="U40" s="48"/>
-      <c r="V40" s="188" t="s">
+      <c r="V40" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="W40" s="188"/>
-      <c r="X40" s="189"/>
+      <c r="W40" s="193"/>
+      <c r="X40" s="203"/>
       <c r="Y40" s="72"/>
       <c r="Z40" s="75"/>
       <c r="AA40" s="48"/>
       <c r="AB40" s="48"/>
-      <c r="AC40" s="198" t="s">
+      <c r="AC40" s="195" t="s">
         <v>56</v>
       </c>
-      <c r="AD40" s="198"/>
-      <c r="AE40" s="214"/>
+      <c r="AD40" s="195"/>
+      <c r="AE40" s="197"/>
       <c r="AG40" s="63"/>
       <c r="AH40" s="48"/>
       <c r="AI40" s="48"/>
-      <c r="AJ40" s="188" t="s">
+      <c r="AJ40" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="AK40" s="188"/>
-      <c r="AL40" s="189"/>
+      <c r="AK40" s="193"/>
+      <c r="AL40" s="203"/>
       <c r="AM40" s="72"/>
       <c r="AN40" s="63"/>
       <c r="AO40" s="48"/>
       <c r="AP40" s="48"/>
-      <c r="AQ40" s="188" t="s">
+      <c r="AQ40" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="AR40" s="188"/>
-      <c r="AS40" s="189"/>
+      <c r="AR40" s="193"/>
+      <c r="AS40" s="203"/>
       <c r="AU40" s="63"/>
       <c r="AV40" s="48"/>
       <c r="AW40" s="48"/>
-      <c r="AX40" s="188" t="s">
+      <c r="AX40" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="AY40" s="188"/>
-      <c r="AZ40" s="189"/>
+      <c r="AY40" s="193"/>
+      <c r="AZ40" s="203"/>
     </row>
     <row r="41" spans="1:52">
-      <c r="A41" s="185"/>
-      <c r="H41" s="186" t="s">
+      <c r="A41" s="227"/>
+      <c r="H41" s="228" t="s">
         <v>57</v>
       </c>
-      <c r="I41" s="226"/>
+      <c r="I41" s="190"/>
       <c r="J41" s="30">
         <v>1</v>
       </c>
@@ -11755,9 +11755,9 @@
       </c>
     </row>
     <row r="42" spans="1:52">
-      <c r="A42" s="185"/>
-      <c r="H42" s="186"/>
-      <c r="I42" s="226"/>
+      <c r="A42" s="227"/>
+      <c r="H42" s="228"/>
+      <c r="I42" s="190"/>
       <c r="J42" s="31">
         <v>1</v>
       </c>
@@ -11819,9 +11819,9 @@
       <c r="AZ42" s="62"/>
     </row>
     <row r="43" spans="1:52">
-      <c r="A43" s="185"/>
-      <c r="H43" s="186"/>
-      <c r="I43" s="226"/>
+      <c r="A43" s="227"/>
+      <c r="H43" s="228"/>
+      <c r="I43" s="190"/>
       <c r="J43" s="33">
         <v>1</v>
       </c>
@@ -11938,9 +11938,9 @@
       <c r="AZ43" s="62"/>
     </row>
     <row r="44" spans="1:52">
-      <c r="A44" s="185"/>
-      <c r="H44" s="186"/>
-      <c r="I44" s="226"/>
+      <c r="A44" s="227"/>
+      <c r="H44" s="228"/>
+      <c r="I44" s="190"/>
       <c r="P44" s="84"/>
       <c r="Q44" s="84"/>
       <c r="R44" s="84"/>
@@ -11966,9 +11966,9 @@
       <c r="AZ44" s="62"/>
     </row>
     <row r="45" spans="1:52">
-      <c r="A45" s="185"/>
-      <c r="H45" s="186"/>
-      <c r="I45" s="226"/>
+      <c r="A45" s="227"/>
+      <c r="H45" s="228"/>
+      <c r="I45" s="190"/>
       <c r="J45" t="s">
         <v>60</v>
       </c>
@@ -12016,9 +12016,9 @@
       <c r="AZ45" s="62"/>
     </row>
     <row r="46" spans="1:52">
-      <c r="A46" s="185"/>
-      <c r="H46" s="186"/>
-      <c r="I46" s="226"/>
+      <c r="A46" s="227"/>
+      <c r="H46" s="228"/>
+      <c r="I46" s="190"/>
       <c r="J46">
         <f>T66</f>
         <v>0.35832318480522557</v>
@@ -12031,53 +12031,53 @@
         <f>V66</f>
         <v>-5.1603476051647057E-3</v>
       </c>
-      <c r="S46" s="194" t="s">
+      <c r="S46" s="192" t="s">
         <v>62</v>
       </c>
-      <c r="T46" s="188"/>
-      <c r="U46" s="188"/>
-      <c r="V46" s="188"/>
+      <c r="T46" s="193"/>
+      <c r="U46" s="193"/>
+      <c r="V46" s="193"/>
       <c r="W46" s="48"/>
       <c r="X46" s="62"/>
       <c r="Y46" s="72"/>
-      <c r="Z46" s="213" t="s">
+      <c r="Z46" s="194" t="s">
         <v>62</v>
       </c>
-      <c r="AA46" s="188"/>
-      <c r="AB46" s="188"/>
-      <c r="AC46" s="188"/>
+      <c r="AA46" s="193"/>
+      <c r="AB46" s="193"/>
+      <c r="AC46" s="193"/>
       <c r="AD46" s="48"/>
       <c r="AE46" s="73"/>
-      <c r="AG46" s="194" t="s">
+      <c r="AG46" s="192" t="s">
         <v>62</v>
       </c>
-      <c r="AH46" s="188"/>
-      <c r="AI46" s="188"/>
-      <c r="AJ46" s="188"/>
+      <c r="AH46" s="193"/>
+      <c r="AI46" s="193"/>
+      <c r="AJ46" s="193"/>
       <c r="AK46" s="48"/>
       <c r="AL46" s="62"/>
       <c r="AM46" s="72"/>
-      <c r="AN46" s="194" t="s">
+      <c r="AN46" s="192" t="s">
         <v>62</v>
       </c>
-      <c r="AO46" s="188"/>
-      <c r="AP46" s="188"/>
-      <c r="AQ46" s="188"/>
+      <c r="AO46" s="193"/>
+      <c r="AP46" s="193"/>
+      <c r="AQ46" s="193"/>
       <c r="AR46" s="48"/>
       <c r="AS46" s="62"/>
-      <c r="AU46" s="194" t="s">
+      <c r="AU46" s="192" t="s">
         <v>62</v>
       </c>
-      <c r="AV46" s="188"/>
-      <c r="AW46" s="188"/>
-      <c r="AX46" s="188"/>
+      <c r="AV46" s="193"/>
+      <c r="AW46" s="193"/>
+      <c r="AX46" s="193"/>
       <c r="AY46" s="48"/>
       <c r="AZ46" s="62"/>
     </row>
     <row r="47" spans="1:52">
-      <c r="A47" s="185"/>
-      <c r="H47" s="186"/>
-      <c r="I47" s="226"/>
+      <c r="A47" s="227"/>
+      <c r="H47" s="228"/>
+      <c r="I47" s="190"/>
       <c r="J47">
         <f>AA66</f>
         <v>0.48950257545143566</v>
@@ -12124,9 +12124,9 @@
       <c r="AZ47" s="62"/>
     </row>
     <row r="48" spans="1:52">
-      <c r="A48" s="185"/>
-      <c r="H48" s="186"/>
-      <c r="I48" s="226"/>
+      <c r="A48" s="227"/>
+      <c r="H48" s="228"/>
+      <c r="I48" s="190"/>
       <c r="J48">
         <f>AH66</f>
         <v>0.50145829397304387</v>
@@ -12142,50 +12142,50 @@
       <c r="S48" s="63"/>
       <c r="T48" s="48"/>
       <c r="U48" s="48"/>
-      <c r="V48" s="198" t="s">
+      <c r="V48" s="195" t="s">
         <v>63</v>
       </c>
-      <c r="W48" s="198"/>
-      <c r="X48" s="199"/>
+      <c r="W48" s="195"/>
+      <c r="X48" s="196"/>
       <c r="Y48" s="72"/>
       <c r="Z48" s="75"/>
       <c r="AA48" s="48"/>
       <c r="AB48" s="48"/>
-      <c r="AC48" s="198" t="s">
+      <c r="AC48" s="195" t="s">
         <v>63</v>
       </c>
-      <c r="AD48" s="198"/>
-      <c r="AE48" s="214"/>
+      <c r="AD48" s="195"/>
+      <c r="AE48" s="197"/>
       <c r="AG48" s="63"/>
       <c r="AH48" s="48"/>
       <c r="AI48" s="48"/>
-      <c r="AJ48" s="198" t="s">
+      <c r="AJ48" s="195" t="s">
         <v>63</v>
       </c>
-      <c r="AK48" s="198"/>
-      <c r="AL48" s="199"/>
+      <c r="AK48" s="195"/>
+      <c r="AL48" s="196"/>
       <c r="AM48" s="72"/>
       <c r="AN48" s="63"/>
       <c r="AO48" s="48"/>
       <c r="AP48" s="48"/>
-      <c r="AQ48" s="198" t="s">
+      <c r="AQ48" s="195" t="s">
         <v>63</v>
       </c>
-      <c r="AR48" s="198"/>
-      <c r="AS48" s="199"/>
+      <c r="AR48" s="195"/>
+      <c r="AS48" s="196"/>
       <c r="AU48" s="63"/>
       <c r="AV48" s="48"/>
       <c r="AW48" s="48"/>
-      <c r="AX48" s="198" t="s">
+      <c r="AX48" s="195" t="s">
         <v>63</v>
       </c>
-      <c r="AY48" s="198"/>
-      <c r="AZ48" s="199"/>
+      <c r="AY48" s="195"/>
+      <c r="AZ48" s="196"/>
     </row>
     <row r="49" spans="1:52">
-      <c r="A49" s="185"/>
-      <c r="H49" s="186"/>
-      <c r="I49" s="226"/>
+      <c r="A49" s="227"/>
+      <c r="H49" s="228"/>
+      <c r="I49" s="190"/>
       <c r="J49">
         <f>AO66</f>
         <v>0.52020628729525775</v>
@@ -12287,9 +12287,9 @@
       </c>
     </row>
     <row r="50" spans="1:52">
-      <c r="A50" s="185"/>
-      <c r="H50" s="186"/>
-      <c r="I50" s="226"/>
+      <c r="A50" s="227"/>
+      <c r="H50" s="228"/>
+      <c r="I50" s="190"/>
       <c r="J50" s="43">
         <f>AV66</f>
         <v>0.48246687823640744</v>
@@ -12336,9 +12336,9 @@
       <c r="AZ50" s="62"/>
     </row>
     <row r="51" spans="1:52">
-      <c r="A51" s="185"/>
-      <c r="H51" s="186"/>
-      <c r="I51" s="226"/>
+      <c r="A51" s="227"/>
+      <c r="H51" s="228"/>
+      <c r="I51" s="190"/>
       <c r="S51" s="63" t="s">
         <v>59</v>
       </c>
@@ -12428,9 +12428,9 @@
       <c r="AZ51" s="62"/>
     </row>
     <row r="52" spans="1:52">
-      <c r="A52" s="185"/>
-      <c r="H52" s="186"/>
-      <c r="I52" s="226"/>
+      <c r="A52" s="227"/>
+      <c r="H52" s="228"/>
+      <c r="I52" s="190"/>
       <c r="J52" t="s">
         <v>32</v>
       </c>
@@ -12462,9 +12462,9 @@
       <c r="AZ52" s="62"/>
     </row>
     <row r="53" spans="1:52">
-      <c r="A53" s="185"/>
-      <c r="H53" s="186"/>
-      <c r="I53" s="226"/>
+      <c r="A53" s="227"/>
+      <c r="H53" s="228"/>
+      <c r="I53" s="190"/>
       <c r="J53">
         <f>T59</f>
         <v>0.38395993479997192</v>
@@ -12477,53 +12477,53 @@
         <f>V59</f>
         <v>0.31053857414135777</v>
       </c>
-      <c r="S53" s="192" t="s">
+      <c r="S53" s="204" t="s">
         <v>64</v>
       </c>
-      <c r="T53" s="193"/>
-      <c r="U53" s="193"/>
-      <c r="V53" s="193"/>
-      <c r="W53" s="193"/>
+      <c r="T53" s="205"/>
+      <c r="U53" s="205"/>
+      <c r="V53" s="205"/>
+      <c r="W53" s="205"/>
       <c r="X53" s="62"/>
       <c r="Y53" s="72"/>
-      <c r="Z53" s="212" t="s">
+      <c r="Z53" s="206" t="s">
         <v>64</v>
       </c>
-      <c r="AA53" s="193"/>
-      <c r="AB53" s="193"/>
-      <c r="AC53" s="193"/>
-      <c r="AD53" s="193"/>
+      <c r="AA53" s="205"/>
+      <c r="AB53" s="205"/>
+      <c r="AC53" s="205"/>
+      <c r="AD53" s="205"/>
       <c r="AE53" s="73"/>
-      <c r="AG53" s="192" t="s">
+      <c r="AG53" s="204" t="s">
         <v>64</v>
       </c>
-      <c r="AH53" s="193"/>
-      <c r="AI53" s="193"/>
-      <c r="AJ53" s="193"/>
-      <c r="AK53" s="193"/>
+      <c r="AH53" s="205"/>
+      <c r="AI53" s="205"/>
+      <c r="AJ53" s="205"/>
+      <c r="AK53" s="205"/>
       <c r="AL53" s="62"/>
       <c r="AM53" s="72"/>
-      <c r="AN53" s="192" t="s">
+      <c r="AN53" s="204" t="s">
         <v>64</v>
       </c>
-      <c r="AO53" s="193"/>
-      <c r="AP53" s="193"/>
-      <c r="AQ53" s="193"/>
-      <c r="AR53" s="193"/>
+      <c r="AO53" s="205"/>
+      <c r="AP53" s="205"/>
+      <c r="AQ53" s="205"/>
+      <c r="AR53" s="205"/>
       <c r="AS53" s="62"/>
-      <c r="AU53" s="192" t="s">
+      <c r="AU53" s="204" t="s">
         <v>64</v>
       </c>
-      <c r="AV53" s="193"/>
-      <c r="AW53" s="193"/>
-      <c r="AX53" s="193"/>
-      <c r="AY53" s="193"/>
+      <c r="AV53" s="205"/>
+      <c r="AW53" s="205"/>
+      <c r="AX53" s="205"/>
+      <c r="AY53" s="205"/>
       <c r="AZ53" s="62"/>
     </row>
     <row r="54" spans="1:52">
-      <c r="A54" s="185"/>
-      <c r="H54" s="186"/>
-      <c r="I54" s="226"/>
+      <c r="A54" s="227"/>
+      <c r="H54" s="228"/>
+      <c r="I54" s="190"/>
       <c r="J54">
         <f>AA59</f>
         <v>0.39425886014780959</v>
@@ -12536,53 +12536,53 @@
         <f>AC59</f>
         <v>0.33684421590618097</v>
       </c>
-      <c r="S54" s="194" t="s">
+      <c r="S54" s="192" t="s">
         <v>65</v>
       </c>
-      <c r="T54" s="188"/>
-      <c r="U54" s="188"/>
-      <c r="V54" s="188"/>
+      <c r="T54" s="193"/>
+      <c r="U54" s="193"/>
+      <c r="V54" s="193"/>
       <c r="W54" s="48"/>
       <c r="X54" s="62"/>
       <c r="Y54" s="72"/>
-      <c r="Z54" s="213" t="s">
+      <c r="Z54" s="194" t="s">
         <v>65</v>
       </c>
-      <c r="AA54" s="188"/>
-      <c r="AB54" s="188"/>
-      <c r="AC54" s="188"/>
+      <c r="AA54" s="193"/>
+      <c r="AB54" s="193"/>
+      <c r="AC54" s="193"/>
       <c r="AD54" s="48"/>
       <c r="AE54" s="73"/>
-      <c r="AG54" s="194" t="s">
+      <c r="AG54" s="192" t="s">
         <v>65</v>
       </c>
-      <c r="AH54" s="188"/>
-      <c r="AI54" s="188"/>
-      <c r="AJ54" s="188"/>
+      <c r="AH54" s="193"/>
+      <c r="AI54" s="193"/>
+      <c r="AJ54" s="193"/>
       <c r="AK54" s="48"/>
       <c r="AL54" s="62"/>
       <c r="AM54" s="72"/>
-      <c r="AN54" s="194" t="s">
+      <c r="AN54" s="192" t="s">
         <v>65</v>
       </c>
-      <c r="AO54" s="188"/>
-      <c r="AP54" s="188"/>
-      <c r="AQ54" s="188"/>
+      <c r="AO54" s="193"/>
+      <c r="AP54" s="193"/>
+      <c r="AQ54" s="193"/>
       <c r="AR54" s="48"/>
       <c r="AS54" s="62"/>
-      <c r="AU54" s="194" t="s">
+      <c r="AU54" s="192" t="s">
         <v>65</v>
       </c>
-      <c r="AV54" s="188"/>
-      <c r="AW54" s="188"/>
-      <c r="AX54" s="188"/>
+      <c r="AV54" s="193"/>
+      <c r="AW54" s="193"/>
+      <c r="AX54" s="193"/>
       <c r="AY54" s="48"/>
       <c r="AZ54" s="62"/>
     </row>
     <row r="55" spans="1:52">
-      <c r="A55" s="185"/>
-      <c r="H55" s="186"/>
-      <c r="I55" s="226"/>
+      <c r="A55" s="227"/>
+      <c r="H55" s="228"/>
+      <c r="I55" s="190"/>
       <c r="J55">
         <f>AH59</f>
         <v>0.39270447532557134</v>
@@ -12598,50 +12598,50 @@
       <c r="S55" s="63"/>
       <c r="T55" s="48"/>
       <c r="U55" s="48"/>
-      <c r="V55" s="198" t="s">
+      <c r="V55" s="195" t="s">
         <v>66</v>
       </c>
-      <c r="W55" s="198"/>
-      <c r="X55" s="199"/>
+      <c r="W55" s="195"/>
+      <c r="X55" s="196"/>
       <c r="Y55" s="72"/>
       <c r="Z55" s="75"/>
       <c r="AA55" s="48"/>
       <c r="AB55" s="48"/>
-      <c r="AC55" s="198" t="s">
+      <c r="AC55" s="195" t="s">
         <v>66</v>
       </c>
-      <c r="AD55" s="198"/>
-      <c r="AE55" s="214"/>
+      <c r="AD55" s="195"/>
+      <c r="AE55" s="197"/>
       <c r="AG55" s="63"/>
       <c r="AH55" s="48"/>
       <c r="AI55" s="48"/>
-      <c r="AJ55" s="198" t="s">
+      <c r="AJ55" s="195" t="s">
         <v>66</v>
       </c>
-      <c r="AK55" s="198"/>
-      <c r="AL55" s="199"/>
+      <c r="AK55" s="195"/>
+      <c r="AL55" s="196"/>
       <c r="AM55" s="72"/>
       <c r="AN55" s="63"/>
       <c r="AO55" s="48"/>
       <c r="AP55" s="48"/>
-      <c r="AQ55" s="198" t="s">
+      <c r="AQ55" s="195" t="s">
         <v>66</v>
       </c>
-      <c r="AR55" s="198"/>
-      <c r="AS55" s="199"/>
+      <c r="AR55" s="195"/>
+      <c r="AS55" s="196"/>
       <c r="AU55" s="63"/>
       <c r="AV55" s="48"/>
       <c r="AW55" s="48"/>
-      <c r="AX55" s="198" t="s">
+      <c r="AX55" s="195" t="s">
         <v>66</v>
       </c>
-      <c r="AY55" s="198"/>
-      <c r="AZ55" s="199"/>
+      <c r="AY55" s="195"/>
+      <c r="AZ55" s="196"/>
     </row>
     <row r="56" spans="1:52">
-      <c r="A56" s="185"/>
-      <c r="H56" s="186"/>
-      <c r="I56" s="226"/>
+      <c r="A56" s="227"/>
+      <c r="H56" s="228"/>
+      <c r="I56" s="190"/>
       <c r="J56">
         <f>AO59</f>
         <v>0.40062820654735121</v>
@@ -12733,9 +12733,9 @@
       </c>
     </row>
     <row r="57" spans="1:52">
-      <c r="A57" s="185"/>
-      <c r="H57" s="186"/>
-      <c r="I57" s="226"/>
+      <c r="A57" s="227"/>
+      <c r="H57" s="228"/>
+      <c r="I57" s="190"/>
       <c r="J57" s="43">
         <f>AV59</f>
         <v>0.35446935899249993</v>
@@ -12792,9 +12792,9 @@
       <c r="AZ57" s="62"/>
     </row>
     <row r="58" spans="1:52">
-      <c r="A58" s="185"/>
-      <c r="H58" s="186"/>
-      <c r="I58" s="226"/>
+      <c r="A58" s="227"/>
+      <c r="H58" s="228"/>
+      <c r="I58" s="190"/>
       <c r="S58" s="63"/>
       <c r="T58" s="48"/>
       <c r="U58" s="48"/>
@@ -12829,9 +12829,9 @@
       <c r="AZ58" s="62"/>
     </row>
     <row r="59" spans="1:52">
-      <c r="A59" s="185"/>
-      <c r="H59" s="186"/>
-      <c r="I59" s="226"/>
+      <c r="A59" s="227"/>
+      <c r="H59" s="228"/>
+      <c r="I59" s="190"/>
       <c r="J59" t="s">
         <v>29</v>
       </c>
@@ -12924,9 +12924,9 @@
       <c r="AZ59" s="62"/>
     </row>
     <row r="60" spans="1:52">
-      <c r="A60" s="185"/>
-      <c r="H60" s="186"/>
-      <c r="I60" s="226"/>
+      <c r="A60" s="227"/>
+      <c r="H60" s="228"/>
+      <c r="I60" s="190"/>
       <c r="J60">
         <f>T35</f>
         <v>0.57857230249635405</v>
@@ -12939,51 +12939,51 @@
         <f>V35</f>
         <v>-1.4841617741734025E-2</v>
       </c>
-      <c r="S60" s="192" t="s">
+      <c r="S60" s="204" t="s">
         <v>67</v>
       </c>
-      <c r="T60" s="193"/>
-      <c r="U60" s="193"/>
-      <c r="V60" s="193"/>
-      <c r="W60" s="193"/>
+      <c r="T60" s="205"/>
+      <c r="U60" s="205"/>
+      <c r="V60" s="205"/>
+      <c r="W60" s="205"/>
       <c r="X60" s="62"/>
-      <c r="Z60" s="212" t="s">
+      <c r="Z60" s="206" t="s">
         <v>67</v>
       </c>
-      <c r="AA60" s="193"/>
-      <c r="AB60" s="193"/>
-      <c r="AC60" s="193"/>
-      <c r="AD60" s="193"/>
+      <c r="AA60" s="205"/>
+      <c r="AB60" s="205"/>
+      <c r="AC60" s="205"/>
+      <c r="AD60" s="205"/>
       <c r="AE60" s="73"/>
-      <c r="AG60" s="192" t="s">
+      <c r="AG60" s="204" t="s">
         <v>67</v>
       </c>
-      <c r="AH60" s="193"/>
-      <c r="AI60" s="193"/>
-      <c r="AJ60" s="193"/>
-      <c r="AK60" s="193"/>
+      <c r="AH60" s="205"/>
+      <c r="AI60" s="205"/>
+      <c r="AJ60" s="205"/>
+      <c r="AK60" s="205"/>
       <c r="AL60" s="62"/>
-      <c r="AN60" s="192" t="s">
+      <c r="AN60" s="204" t="s">
         <v>67</v>
       </c>
-      <c r="AO60" s="193"/>
-      <c r="AP60" s="193"/>
-      <c r="AQ60" s="193"/>
-      <c r="AR60" s="193"/>
+      <c r="AO60" s="205"/>
+      <c r="AP60" s="205"/>
+      <c r="AQ60" s="205"/>
+      <c r="AR60" s="205"/>
       <c r="AS60" s="62"/>
-      <c r="AU60" s="192" t="s">
+      <c r="AU60" s="204" t="s">
         <v>67</v>
       </c>
-      <c r="AV60" s="193"/>
-      <c r="AW60" s="193"/>
-      <c r="AX60" s="193"/>
-      <c r="AY60" s="193"/>
+      <c r="AV60" s="205"/>
+      <c r="AW60" s="205"/>
+      <c r="AX60" s="205"/>
+      <c r="AY60" s="205"/>
       <c r="AZ60" s="62"/>
     </row>
     <row r="61" spans="1:52">
-      <c r="A61" s="185"/>
-      <c r="H61" s="186"/>
-      <c r="I61" s="226"/>
+      <c r="A61" s="227"/>
+      <c r="H61" s="228"/>
+      <c r="I61" s="190"/>
       <c r="J61">
         <f>AA35</f>
         <v>0.38720191786040864</v>
@@ -12996,51 +12996,51 @@
         <f>AC35</f>
         <v>-0.16048845062638514</v>
       </c>
-      <c r="S61" s="194" t="s">
+      <c r="S61" s="192" t="s">
         <v>68</v>
       </c>
-      <c r="T61" s="188"/>
-      <c r="U61" s="188"/>
-      <c r="V61" s="188"/>
+      <c r="T61" s="193"/>
+      <c r="U61" s="193"/>
+      <c r="V61" s="193"/>
       <c r="W61" s="48"/>
       <c r="X61" s="62"/>
-      <c r="Z61" s="213" t="s">
+      <c r="Z61" s="194" t="s">
         <v>68</v>
       </c>
-      <c r="AA61" s="188"/>
-      <c r="AB61" s="188"/>
-      <c r="AC61" s="188"/>
+      <c r="AA61" s="193"/>
+      <c r="AB61" s="193"/>
+      <c r="AC61" s="193"/>
       <c r="AD61" s="48"/>
       <c r="AE61" s="73"/>
-      <c r="AG61" s="194" t="s">
+      <c r="AG61" s="192" t="s">
         <v>68</v>
       </c>
-      <c r="AH61" s="188"/>
-      <c r="AI61" s="188"/>
-      <c r="AJ61" s="188"/>
+      <c r="AH61" s="193"/>
+      <c r="AI61" s="193"/>
+      <c r="AJ61" s="193"/>
       <c r="AK61" s="48"/>
       <c r="AL61" s="62"/>
-      <c r="AN61" s="194" t="s">
+      <c r="AN61" s="192" t="s">
         <v>68</v>
       </c>
-      <c r="AO61" s="188"/>
-      <c r="AP61" s="188"/>
-      <c r="AQ61" s="188"/>
+      <c r="AO61" s="193"/>
+      <c r="AP61" s="193"/>
+      <c r="AQ61" s="193"/>
       <c r="AR61" s="48"/>
       <c r="AS61" s="62"/>
-      <c r="AU61" s="194" t="s">
+      <c r="AU61" s="192" t="s">
         <v>68</v>
       </c>
-      <c r="AV61" s="188"/>
-      <c r="AW61" s="188"/>
-      <c r="AX61" s="188"/>
+      <c r="AV61" s="193"/>
+      <c r="AW61" s="193"/>
+      <c r="AX61" s="193"/>
       <c r="AY61" s="48"/>
       <c r="AZ61" s="62"/>
     </row>
     <row r="62" spans="1:52">
-      <c r="A62" s="185"/>
-      <c r="H62" s="186"/>
-      <c r="I62" s="226"/>
+      <c r="A62" s="227"/>
+      <c r="H62" s="228"/>
+      <c r="I62" s="190"/>
       <c r="J62">
         <f>AH35</f>
         <v>0.25202977656829534</v>
@@ -13085,9 +13085,9 @@
       <c r="AZ62" s="62"/>
     </row>
     <row r="63" spans="1:52">
-      <c r="A63" s="185"/>
-      <c r="H63" s="186"/>
-      <c r="I63" s="226"/>
+      <c r="A63" s="227"/>
+      <c r="H63" s="228"/>
+      <c r="I63" s="190"/>
       <c r="J63">
         <f>AO35</f>
         <v>0.27090688346209452</v>
@@ -13132,9 +13132,9 @@
       <c r="AZ63" s="62"/>
     </row>
     <row r="64" spans="1:52">
-      <c r="A64" s="185"/>
-      <c r="H64" s="186"/>
-      <c r="I64" s="226"/>
+      <c r="A64" s="227"/>
+      <c r="H64" s="228"/>
+      <c r="I64" s="190"/>
       <c r="J64" s="43">
         <f>AV35</f>
         <v>0.22912186386700176</v>
@@ -13147,61 +13147,61 @@
         <f>AX35</f>
         <v>-0.3015727143672578</v>
       </c>
-      <c r="S64" s="195" t="s">
+      <c r="S64" s="198" t="s">
         <v>69</v>
       </c>
-      <c r="T64" s="196"/>
-      <c r="U64" s="197"/>
-      <c r="V64" s="195" t="s">
+      <c r="T64" s="199"/>
+      <c r="U64" s="200"/>
+      <c r="V64" s="198" t="s">
         <v>70</v>
       </c>
-      <c r="W64" s="196"/>
-      <c r="X64" s="197"/>
-      <c r="Z64" s="228" t="s">
+      <c r="W64" s="199"/>
+      <c r="X64" s="200"/>
+      <c r="Z64" s="201" t="s">
         <v>69</v>
       </c>
-      <c r="AA64" s="196"/>
-      <c r="AB64" s="197"/>
-      <c r="AC64" s="195" t="s">
+      <c r="AA64" s="199"/>
+      <c r="AB64" s="200"/>
+      <c r="AC64" s="198" t="s">
         <v>70</v>
       </c>
-      <c r="AD64" s="196"/>
-      <c r="AE64" s="229"/>
-      <c r="AG64" s="195" t="s">
+      <c r="AD64" s="199"/>
+      <c r="AE64" s="202"/>
+      <c r="AG64" s="198" t="s">
         <v>69</v>
       </c>
-      <c r="AH64" s="196"/>
-      <c r="AI64" s="197"/>
-      <c r="AJ64" s="195" t="s">
+      <c r="AH64" s="199"/>
+      <c r="AI64" s="200"/>
+      <c r="AJ64" s="198" t="s">
         <v>70</v>
       </c>
-      <c r="AK64" s="196"/>
-      <c r="AL64" s="197"/>
-      <c r="AN64" s="195" t="s">
+      <c r="AK64" s="199"/>
+      <c r="AL64" s="200"/>
+      <c r="AN64" s="198" t="s">
         <v>69</v>
       </c>
-      <c r="AO64" s="196"/>
-      <c r="AP64" s="197"/>
-      <c r="AQ64" s="195" t="s">
+      <c r="AO64" s="199"/>
+      <c r="AP64" s="200"/>
+      <c r="AQ64" s="198" t="s">
         <v>70</v>
       </c>
-      <c r="AR64" s="196"/>
-      <c r="AS64" s="197"/>
-      <c r="AU64" s="195" t="s">
+      <c r="AR64" s="199"/>
+      <c r="AS64" s="200"/>
+      <c r="AU64" s="198" t="s">
         <v>69</v>
       </c>
-      <c r="AV64" s="196"/>
-      <c r="AW64" s="197"/>
-      <c r="AX64" s="195" t="s">
+      <c r="AV64" s="199"/>
+      <c r="AW64" s="200"/>
+      <c r="AX64" s="198" t="s">
         <v>70</v>
       </c>
-      <c r="AY64" s="196"/>
-      <c r="AZ64" s="197"/>
+      <c r="AY64" s="199"/>
+      <c r="AZ64" s="200"/>
     </row>
     <row r="65" spans="1:52">
-      <c r="A65" s="185"/>
-      <c r="H65" s="186"/>
-      <c r="I65" s="226"/>
+      <c r="A65" s="227"/>
+      <c r="H65" s="228"/>
+      <c r="I65" s="190"/>
       <c r="S65" s="18">
         <f>PRODUCT(T$51,O$20)</f>
         <v>0</v>
@@ -13324,9 +13324,9 @@
       </c>
     </row>
     <row r="66" spans="1:52">
-      <c r="A66" s="185"/>
-      <c r="H66" s="186"/>
-      <c r="I66" s="226"/>
+      <c r="A66" s="227"/>
+      <c r="H66" s="228"/>
+      <c r="I66" s="190"/>
       <c r="J66" t="s">
         <v>30</v>
       </c>
@@ -13417,9 +13417,9 @@
       <c r="AZ66" s="96"/>
     </row>
     <row r="67" spans="1:52">
-      <c r="A67" s="185"/>
-      <c r="H67" s="186"/>
-      <c r="I67" s="226"/>
+      <c r="A67" s="227"/>
+      <c r="H67" s="228"/>
+      <c r="I67" s="190"/>
       <c r="J67">
         <f>T43</f>
         <v>0.61932308764034483</v>
@@ -13467,9 +13467,9 @@
       <c r="AZ67" s="62"/>
     </row>
     <row r="68" spans="1:52">
-      <c r="A68" s="185"/>
-      <c r="H68" s="186"/>
-      <c r="I68" s="226"/>
+      <c r="A68" s="227"/>
+      <c r="H68" s="228"/>
+      <c r="I68" s="190"/>
       <c r="J68">
         <f>AA43</f>
         <v>0.63032633937908844</v>
@@ -13482,53 +13482,53 @@
         <f>AC43</f>
         <v>0.37000227201170338</v>
       </c>
-      <c r="S68" s="192" t="s">
+      <c r="S68" s="204" t="s">
         <v>72</v>
       </c>
-      <c r="T68" s="193"/>
-      <c r="U68" s="193"/>
-      <c r="V68" s="193"/>
-      <c r="W68" s="193"/>
+      <c r="T68" s="205"/>
+      <c r="U68" s="205"/>
+      <c r="V68" s="205"/>
+      <c r="W68" s="205"/>
       <c r="X68" s="62"/>
-      <c r="Z68" s="212" t="s">
+      <c r="Z68" s="206" t="s">
         <v>72</v>
       </c>
-      <c r="AA68" s="193"/>
-      <c r="AB68" s="193"/>
-      <c r="AC68" s="193"/>
-      <c r="AD68" s="193"/>
+      <c r="AA68" s="205"/>
+      <c r="AB68" s="205"/>
+      <c r="AC68" s="205"/>
+      <c r="AD68" s="205"/>
       <c r="AE68" s="73"/>
-      <c r="AG68" s="192" t="s">
+      <c r="AG68" s="204" t="s">
         <v>72</v>
       </c>
-      <c r="AH68" s="193"/>
-      <c r="AI68" s="193"/>
-      <c r="AJ68" s="193"/>
-      <c r="AK68" s="193"/>
+      <c r="AH68" s="205"/>
+      <c r="AI68" s="205"/>
+      <c r="AJ68" s="205"/>
+      <c r="AK68" s="205"/>
       <c r="AL68" s="62"/>
-      <c r="AN68" s="192" t="s">
+      <c r="AN68" s="204" t="s">
         <v>72</v>
       </c>
-      <c r="AO68" s="193"/>
-      <c r="AP68" s="193"/>
-      <c r="AQ68" s="193"/>
-      <c r="AR68" s="193"/>
+      <c r="AO68" s="205"/>
+      <c r="AP68" s="205"/>
+      <c r="AQ68" s="205"/>
+      <c r="AR68" s="205"/>
       <c r="AS68" s="62"/>
-      <c r="AU68" s="192" t="s">
+      <c r="AU68" s="204" t="s">
         <v>72</v>
       </c>
-      <c r="AV68" s="193"/>
-      <c r="AW68" s="193"/>
-      <c r="AX68" s="193"/>
-      <c r="AY68" s="193"/>
+      <c r="AV68" s="205"/>
+      <c r="AW68" s="205"/>
+      <c r="AX68" s="205"/>
+      <c r="AY68" s="205"/>
       <c r="AZ68" s="62"/>
     </row>
     <row r="69" spans="1:52">
-      <c r="A69" s="185"/>
-      <c r="H69" s="186" t="s">
+      <c r="A69" s="227"/>
+      <c r="H69" s="228" t="s">
         <v>57</v>
       </c>
-      <c r="I69" s="226"/>
+      <c r="I69" s="190"/>
       <c r="J69">
         <f>AH43</f>
         <v>0.62241354940567017</v>
@@ -13541,51 +13541,51 @@
         <f>AJ43</f>
         <v>0.39069955055165667</v>
       </c>
-      <c r="S69" s="194" t="s">
+      <c r="S69" s="192" t="s">
         <v>73</v>
       </c>
-      <c r="T69" s="188"/>
-      <c r="U69" s="188"/>
+      <c r="T69" s="193"/>
+      <c r="U69" s="193"/>
       <c r="V69" s="48"/>
       <c r="W69" s="48"/>
       <c r="X69" s="62"/>
-      <c r="Z69" s="213" t="s">
+      <c r="Z69" s="194" t="s">
         <v>73</v>
       </c>
-      <c r="AA69" s="188"/>
-      <c r="AB69" s="188"/>
+      <c r="AA69" s="193"/>
+      <c r="AB69" s="193"/>
       <c r="AC69" s="48"/>
       <c r="AD69" s="48"/>
       <c r="AE69" s="73"/>
-      <c r="AG69" s="194" t="s">
+      <c r="AG69" s="192" t="s">
         <v>73</v>
       </c>
-      <c r="AH69" s="188"/>
-      <c r="AI69" s="188"/>
+      <c r="AH69" s="193"/>
+      <c r="AI69" s="193"/>
       <c r="AJ69" s="48"/>
       <c r="AK69" s="48"/>
       <c r="AL69" s="62"/>
-      <c r="AN69" s="194" t="s">
+      <c r="AN69" s="192" t="s">
         <v>73</v>
       </c>
-      <c r="AO69" s="188"/>
-      <c r="AP69" s="188"/>
+      <c r="AO69" s="193"/>
+      <c r="AP69" s="193"/>
       <c r="AQ69" s="48"/>
       <c r="AR69" s="48"/>
       <c r="AS69" s="62"/>
-      <c r="AU69" s="194" t="s">
+      <c r="AU69" s="192" t="s">
         <v>73</v>
       </c>
-      <c r="AV69" s="188"/>
-      <c r="AW69" s="188"/>
+      <c r="AV69" s="193"/>
+      <c r="AW69" s="193"/>
       <c r="AX69" s="48"/>
       <c r="AY69" s="48"/>
       <c r="AZ69" s="62"/>
     </row>
     <row r="70" spans="1:52">
-      <c r="A70" s="185"/>
-      <c r="H70" s="186"/>
-      <c r="I70" s="226"/>
+      <c r="A70" s="227"/>
+      <c r="H70" s="228"/>
+      <c r="I70" s="190"/>
       <c r="J70">
         <f>AO43</f>
         <v>0.6190527152169063</v>
@@ -13630,9 +13630,9 @@
       <c r="AZ70" s="62"/>
     </row>
     <row r="71" spans="1:52">
-      <c r="A71" s="185"/>
-      <c r="H71" s="186"/>
-      <c r="I71" s="226"/>
+      <c r="A71" s="227"/>
+      <c r="H71" s="228"/>
+      <c r="I71" s="190"/>
       <c r="J71" s="43">
         <f>AV43</f>
         <v>0.61269316501302229</v>
@@ -13677,64 +13677,64 @@
       <c r="AZ71" s="62"/>
     </row>
     <row r="72" spans="1:52">
-      <c r="A72" s="185"/>
-      <c r="H72" s="186"/>
-      <c r="I72" s="226"/>
+      <c r="A72" s="227"/>
+      <c r="H72" s="228"/>
+      <c r="I72" s="190"/>
       <c r="S72" s="63" t="s">
         <v>50</v>
       </c>
       <c r="T72" s="48"/>
       <c r="U72" s="48"/>
-      <c r="V72" s="188" t="s">
+      <c r="V72" s="193" t="s">
         <v>60</v>
       </c>
-      <c r="W72" s="188"/>
-      <c r="X72" s="189"/>
+      <c r="W72" s="193"/>
+      <c r="X72" s="203"/>
       <c r="Z72" s="75" t="s">
         <v>50</v>
       </c>
       <c r="AA72" s="48"/>
       <c r="AB72" s="48"/>
-      <c r="AC72" s="188" t="s">
+      <c r="AC72" s="193" t="s">
         <v>60</v>
       </c>
-      <c r="AD72" s="188"/>
-      <c r="AE72" s="210"/>
+      <c r="AD72" s="193"/>
+      <c r="AE72" s="207"/>
       <c r="AG72" s="63" t="s">
         <v>50</v>
       </c>
       <c r="AH72" s="48"/>
       <c r="AI72" s="48"/>
-      <c r="AJ72" s="188" t="s">
+      <c r="AJ72" s="193" t="s">
         <v>60</v>
       </c>
-      <c r="AK72" s="188"/>
-      <c r="AL72" s="189"/>
+      <c r="AK72" s="193"/>
+      <c r="AL72" s="203"/>
       <c r="AN72" s="63" t="s">
         <v>50</v>
       </c>
       <c r="AO72" s="48"/>
       <c r="AP72" s="48"/>
-      <c r="AQ72" s="188" t="s">
+      <c r="AQ72" s="193" t="s">
         <v>60</v>
       </c>
-      <c r="AR72" s="188"/>
-      <c r="AS72" s="189"/>
+      <c r="AR72" s="193"/>
+      <c r="AS72" s="203"/>
       <c r="AU72" s="63" t="s">
         <v>50</v>
       </c>
       <c r="AV72" s="48"/>
       <c r="AW72" s="48"/>
-      <c r="AX72" s="188" t="s">
+      <c r="AX72" s="193" t="s">
         <v>60</v>
       </c>
-      <c r="AY72" s="188"/>
-      <c r="AZ72" s="189"/>
+      <c r="AY72" s="193"/>
+      <c r="AZ72" s="203"/>
     </row>
     <row r="73" spans="1:52">
-      <c r="A73" s="185"/>
-      <c r="H73" s="186"/>
-      <c r="I73" s="226"/>
+      <c r="A73" s="227"/>
+      <c r="H73" s="228"/>
+      <c r="I73" s="190"/>
       <c r="J73" t="s">
         <v>31</v>
       </c>
@@ -13835,9 +13835,9 @@
       </c>
     </row>
     <row r="74" spans="1:52">
-      <c r="A74" s="185"/>
-      <c r="H74" s="186"/>
-      <c r="I74" s="226"/>
+      <c r="A74" s="227"/>
+      <c r="H74" s="228"/>
+      <c r="I74" s="190"/>
       <c r="J74">
         <f>T51</f>
         <v>0.63487981164217022</v>
@@ -13882,9 +13882,9 @@
       <c r="AZ74" s="62"/>
     </row>
     <row r="75" spans="1:52">
-      <c r="A75" s="185"/>
-      <c r="H75" s="186"/>
-      <c r="I75" s="226"/>
+      <c r="A75" s="227"/>
+      <c r="H75" s="228"/>
+      <c r="I75" s="190"/>
       <c r="J75">
         <f>AA51</f>
         <v>0.68496546797365498</v>
@@ -13981,9 +13981,9 @@
       <c r="AZ75" s="62"/>
     </row>
     <row r="76" spans="1:52">
-      <c r="A76" s="185"/>
-      <c r="H76" s="186"/>
-      <c r="I76" s="226"/>
+      <c r="A76" s="227"/>
+      <c r="H76" s="228"/>
+      <c r="I76" s="190"/>
       <c r="J76">
         <f>AH51</f>
         <v>0.70396268265894058</v>
@@ -14031,9 +14031,9 @@
       <c r="AZ76" s="62"/>
     </row>
     <row r="77" spans="1:52">
-      <c r="A77" s="185"/>
-      <c r="H77" s="186"/>
-      <c r="I77" s="226"/>
+      <c r="A77" s="227"/>
+      <c r="H77" s="228"/>
+      <c r="I77" s="190"/>
       <c r="J77">
         <f>AO51</f>
         <v>0.70295107240971655</v>
@@ -14133,9 +14133,9 @@
       <c r="AZ77" s="100"/>
     </row>
     <row r="78" spans="1:52">
-      <c r="A78" s="185"/>
-      <c r="H78" s="186"/>
-      <c r="I78" s="226"/>
+      <c r="A78" s="227"/>
+      <c r="H78" s="228"/>
+      <c r="I78" s="190"/>
       <c r="J78" s="43">
         <f>AV51</f>
         <v>0.65759581659168043</v>
@@ -14150,22 +14150,22 @@
       </c>
     </row>
     <row r="79" spans="1:52">
-      <c r="A79" s="185"/>
-      <c r="H79" s="186"/>
-      <c r="I79" s="227"/>
-      <c r="Q79" s="211" t="s">
+      <c r="A79" s="227"/>
+      <c r="H79" s="228"/>
+      <c r="I79" s="191"/>
+      <c r="Q79" s="179" t="s">
         <v>76</v>
       </c>
-      <c r="R79" s="211"/>
-      <c r="S79" s="211"/>
+      <c r="R79" s="179"/>
+      <c r="S79" s="179"/>
       <c r="T79" s="101" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:52" ht="15" customHeight="1">
-      <c r="A80" s="185"/>
-      <c r="H80" s="186"/>
-      <c r="I80" s="178" t="s">
+      <c r="A80" s="227"/>
+      <c r="H80" s="228"/>
+      <c r="I80" s="220" t="s">
         <v>77</v>
       </c>
       <c r="J80" t="s">
@@ -14216,9 +14216,9 @@
       </c>
     </row>
     <row r="81" spans="1:30">
-      <c r="A81" s="185"/>
-      <c r="H81" s="186"/>
-      <c r="I81" s="179"/>
+      <c r="A81" s="227"/>
+      <c r="H81" s="228"/>
+      <c r="I81" s="221"/>
       <c r="J81" t="s">
         <v>80</v>
       </c>
@@ -14267,9 +14267,9 @@
       </c>
     </row>
     <row r="82" spans="1:30">
-      <c r="A82" s="185"/>
-      <c r="H82" s="186"/>
-      <c r="I82" s="179"/>
+      <c r="A82" s="227"/>
+      <c r="H82" s="228"/>
+      <c r="I82" s="221"/>
       <c r="J82" t="s">
         <v>81</v>
       </c>
@@ -14319,9 +14319,9 @@
       </c>
     </row>
     <row r="83" spans="1:30">
-      <c r="A83" s="185"/>
-      <c r="H83" s="186"/>
-      <c r="I83" s="180" t="s">
+      <c r="A83" s="227"/>
+      <c r="H83" s="228"/>
+      <c r="I83" s="222" t="s">
         <v>82</v>
       </c>
       <c r="J83" t="s">
@@ -14373,9 +14373,9 @@
       </c>
     </row>
     <row r="84" spans="1:30">
-      <c r="A84" s="185"/>
-      <c r="H84" s="186"/>
-      <c r="I84" s="180"/>
+      <c r="A84" s="227"/>
+      <c r="H84" s="228"/>
+      <c r="I84" s="222"/>
       <c r="J84" s="82" t="s">
         <v>85</v>
       </c>
@@ -14424,9 +14424,9 @@
       </c>
     </row>
     <row r="85" spans="1:30">
-      <c r="A85" s="185"/>
-      <c r="H85" s="186"/>
-      <c r="I85" s="180"/>
+      <c r="A85" s="227"/>
+      <c r="H85" s="228"/>
+      <c r="I85" s="222"/>
       <c r="K85" t="s">
         <v>86</v>
       </c>
@@ -14468,9 +14468,9 @@
       </c>
     </row>
     <row r="86" spans="1:30">
-      <c r="A86" s="185"/>
-      <c r="H86" s="186"/>
-      <c r="I86" s="180"/>
+      <c r="A86" s="227"/>
+      <c r="H86" s="228"/>
+      <c r="I86" s="222"/>
       <c r="J86" s="84" t="s">
         <v>87</v>
       </c>
@@ -14520,9 +14520,9 @@
       </c>
     </row>
     <row r="87" spans="1:30">
-      <c r="A87" s="185"/>
-      <c r="H87" s="186"/>
-      <c r="I87" s="180"/>
+      <c r="A87" s="227"/>
+      <c r="H87" s="228"/>
+      <c r="I87" s="222"/>
       <c r="J87" s="53">
         <v>0.158</v>
       </c>
@@ -14582,9 +14582,9 @@
       </c>
     </row>
     <row r="88" spans="1:30">
-      <c r="A88" s="185"/>
-      <c r="H88" s="186"/>
-      <c r="I88" s="180"/>
+      <c r="A88" s="227"/>
+      <c r="H88" s="228"/>
+      <c r="I88" s="222"/>
       <c r="J88" s="56">
         <v>8.9777777777777804E-2</v>
       </c>
@@ -14644,9 +14644,9 @@
       </c>
     </row>
     <row r="89" spans="1:30">
-      <c r="A89" s="185"/>
-      <c r="H89" s="186"/>
-      <c r="I89" s="180"/>
+      <c r="A89" s="227"/>
+      <c r="H89" s="228"/>
+      <c r="I89" s="222"/>
       <c r="J89" s="85">
         <v>6.5555555555555506E-2</v>
       </c>
@@ -14670,9 +14670,9 @@
       </c>
     </row>
     <row r="90" spans="1:30">
-      <c r="A90" s="185"/>
-      <c r="H90" s="186"/>
-      <c r="I90" s="180"/>
+      <c r="A90" s="227"/>
+      <c r="H90" s="228"/>
+      <c r="I90" s="222"/>
       <c r="J90" s="86">
         <v>8.1333329999999995E-2</v>
       </c>
@@ -14694,19 +14694,19 @@
         <f t="shared" si="2"/>
         <v>-5.1545163834270269E-2</v>
       </c>
-      <c r="Q90" s="207" t="s">
+      <c r="Q90" s="208" t="s">
         <v>88</v>
       </c>
-      <c r="R90" s="191"/>
-      <c r="S90" s="191"/>
+      <c r="R90" s="209"/>
+      <c r="S90" s="209"/>
       <c r="T90" s="162" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="91" spans="1:30">
-      <c r="A91" s="185"/>
-      <c r="H91" s="186"/>
-      <c r="I91" s="180"/>
+      <c r="A91" s="227"/>
+      <c r="H91" s="228"/>
+      <c r="I91" s="222"/>
       <c r="J91" s="82"/>
       <c r="S91" s="25">
         <f>J39</f>
@@ -14746,9 +14746,9 @@
       </c>
     </row>
     <row r="92" spans="1:30">
-      <c r="A92" s="185"/>
-      <c r="H92" s="186"/>
-      <c r="I92" s="180"/>
+      <c r="A92" s="227"/>
+      <c r="H92" s="228"/>
+      <c r="I92" s="222"/>
       <c r="J92" t="s">
         <v>89</v>
       </c>
@@ -14791,9 +14791,9 @@
       </c>
     </row>
     <row r="93" spans="1:30">
-      <c r="A93" s="185"/>
-      <c r="H93" s="186"/>
-      <c r="I93" s="180"/>
+      <c r="A93" s="227"/>
+      <c r="H93" s="228"/>
+      <c r="I93" s="222"/>
       <c r="J93" s="88">
         <f>N90-J90</f>
         <v>0.11011054811196365</v>
@@ -14848,9 +14848,9 @@
       </c>
     </row>
     <row r="94" spans="1:30">
-      <c r="A94" s="185"/>
-      <c r="H94" s="186"/>
-      <c r="I94" s="180"/>
+      <c r="A94" s="227"/>
+      <c r="H94" s="228"/>
+      <c r="I94" s="222"/>
       <c r="J94" s="88">
         <f>N89-J89</f>
         <v>0.11636999836002238</v>
@@ -14914,9 +14914,9 @@
       </c>
     </row>
     <row r="95" spans="1:30">
-      <c r="A95" s="185"/>
-      <c r="H95" s="186"/>
-      <c r="I95" s="180"/>
+      <c r="A95" s="227"/>
+      <c r="H95" s="228"/>
+      <c r="I95" s="222"/>
       <c r="J95" s="88">
         <f>N88-J88</f>
         <v>8.9145386823492753E-2</v>
@@ -14980,9 +14980,9 @@
       </c>
     </row>
     <row r="96" spans="1:30">
-      <c r="A96" s="185"/>
-      <c r="H96" s="186"/>
-      <c r="I96" s="180"/>
+      <c r="A96" s="227"/>
+      <c r="H96" s="228"/>
+      <c r="I96" s="222"/>
       <c r="J96" s="88">
         <f>N87-J87</f>
         <v>-2.6019071059609905E-2</v>
@@ -15013,11 +15013,11 @@
       <c r="AA96" s="119"/>
     </row>
     <row r="97" spans="1:77">
-      <c r="A97" s="185"/>
-      <c r="H97" s="186" t="s">
+      <c r="A97" s="227"/>
+      <c r="H97" s="228" t="s">
         <v>57</v>
       </c>
-      <c r="I97" s="180"/>
+      <c r="I97" s="222"/>
       <c r="N97" s="21">
         <f t="shared" si="5"/>
         <v>2.6019071059609905E-2</v>
@@ -15032,14 +15032,14 @@
       </c>
     </row>
     <row r="98" spans="1:77">
-      <c r="A98" s="185"/>
-      <c r="H98" s="186"/>
-      <c r="I98" s="180"/>
+      <c r="A98" s="227"/>
+      <c r="H98" s="228"/>
+      <c r="I98" s="222"/>
     </row>
     <row r="99" spans="1:77">
-      <c r="A99" s="185"/>
-      <c r="H99" s="186"/>
-      <c r="I99" s="180"/>
+      <c r="A99" s="227"/>
+      <c r="H99" s="228"/>
+      <c r="I99" s="222"/>
       <c r="J99" s="90">
         <f>SUM(N94:P94)</f>
         <v>0.29384714853047067</v>
@@ -15054,9 +15054,9 @@
       </c>
     </row>
     <row r="100" spans="1:77" ht="15" customHeight="1">
-      <c r="A100" s="185"/>
-      <c r="H100" s="186"/>
-      <c r="I100" s="180"/>
+      <c r="A100" s="227"/>
+      <c r="H100" s="228"/>
+      <c r="I100" s="222"/>
       <c r="J100" s="90">
         <f>SUM(N95:P95)</f>
         <v>0.25806021495493303</v>
@@ -15069,73 +15069,73 @@
         <f>L99+K100</f>
         <v>0.54932676133585434</v>
       </c>
-      <c r="R100" s="183" t="s">
+      <c r="R100" s="225" t="s">
         <v>91</v>
       </c>
-      <c r="S100" s="183"/>
-      <c r="T100" s="183"/>
-      <c r="U100" s="183"/>
-      <c r="V100" s="183"/>
-      <c r="W100" s="183"/>
-      <c r="X100" s="183"/>
-      <c r="Y100" s="183"/>
-      <c r="Z100" s="183"/>
-      <c r="AA100" s="183"/>
-      <c r="AB100" s="183"/>
-      <c r="AC100" s="183"/>
-      <c r="AD100" s="183"/>
-      <c r="AE100" s="183"/>
-      <c r="AF100" s="183"/>
-      <c r="AG100" s="183"/>
-      <c r="AH100" s="183"/>
-      <c r="AI100" s="183"/>
-      <c r="AJ100" s="183"/>
-      <c r="AK100" s="183"/>
-      <c r="AL100" s="183"/>
-      <c r="AM100" s="183"/>
-      <c r="AN100" s="183"/>
-      <c r="AO100" s="183"/>
-      <c r="AP100" s="183"/>
-      <c r="AQ100" s="183"/>
-      <c r="AR100" s="183"/>
-      <c r="AS100" s="183"/>
-      <c r="AT100" s="183"/>
-      <c r="AU100" s="183"/>
-      <c r="AV100" s="183"/>
-      <c r="AW100" s="183"/>
-      <c r="AX100" s="183"/>
-      <c r="AY100" s="183"/>
-      <c r="AZ100" s="183"/>
-      <c r="BA100" s="183"/>
-      <c r="BB100" s="183"/>
-      <c r="BC100" s="183"/>
-      <c r="BD100" s="183"/>
-      <c r="BE100" s="183"/>
-      <c r="BF100" s="183"/>
-      <c r="BG100" s="183"/>
-      <c r="BH100" s="183"/>
-      <c r="BI100" s="183"/>
-      <c r="BJ100" s="183"/>
-      <c r="BK100" s="183"/>
-      <c r="BL100" s="183"/>
-      <c r="BM100" s="183"/>
-      <c r="BN100" s="183"/>
-      <c r="BO100" s="183"/>
-      <c r="BP100" s="183"/>
-      <c r="BQ100" s="183"/>
-      <c r="BR100" s="183"/>
-      <c r="BS100" s="183"/>
-      <c r="BT100" s="183"/>
-      <c r="BU100" s="183"/>
-      <c r="BV100" s="183"/>
-      <c r="BW100" s="183"/>
-      <c r="BX100" s="183"/>
-      <c r="BY100" s="183"/>
+      <c r="S100" s="225"/>
+      <c r="T100" s="225"/>
+      <c r="U100" s="225"/>
+      <c r="V100" s="225"/>
+      <c r="W100" s="225"/>
+      <c r="X100" s="225"/>
+      <c r="Y100" s="225"/>
+      <c r="Z100" s="225"/>
+      <c r="AA100" s="225"/>
+      <c r="AB100" s="225"/>
+      <c r="AC100" s="225"/>
+      <c r="AD100" s="225"/>
+      <c r="AE100" s="225"/>
+      <c r="AF100" s="225"/>
+      <c r="AG100" s="225"/>
+      <c r="AH100" s="225"/>
+      <c r="AI100" s="225"/>
+      <c r="AJ100" s="225"/>
+      <c r="AK100" s="225"/>
+      <c r="AL100" s="225"/>
+      <c r="AM100" s="225"/>
+      <c r="AN100" s="225"/>
+      <c r="AO100" s="225"/>
+      <c r="AP100" s="225"/>
+      <c r="AQ100" s="225"/>
+      <c r="AR100" s="225"/>
+      <c r="AS100" s="225"/>
+      <c r="AT100" s="225"/>
+      <c r="AU100" s="225"/>
+      <c r="AV100" s="225"/>
+      <c r="AW100" s="225"/>
+      <c r="AX100" s="225"/>
+      <c r="AY100" s="225"/>
+      <c r="AZ100" s="225"/>
+      <c r="BA100" s="225"/>
+      <c r="BB100" s="225"/>
+      <c r="BC100" s="225"/>
+      <c r="BD100" s="225"/>
+      <c r="BE100" s="225"/>
+      <c r="BF100" s="225"/>
+      <c r="BG100" s="225"/>
+      <c r="BH100" s="225"/>
+      <c r="BI100" s="225"/>
+      <c r="BJ100" s="225"/>
+      <c r="BK100" s="225"/>
+      <c r="BL100" s="225"/>
+      <c r="BM100" s="225"/>
+      <c r="BN100" s="225"/>
+      <c r="BO100" s="225"/>
+      <c r="BP100" s="225"/>
+      <c r="BQ100" s="225"/>
+      <c r="BR100" s="225"/>
+      <c r="BS100" s="225"/>
+      <c r="BT100" s="225"/>
+      <c r="BU100" s="225"/>
+      <c r="BV100" s="225"/>
+      <c r="BW100" s="225"/>
+      <c r="BX100" s="225"/>
+      <c r="BY100" s="225"/>
     </row>
     <row r="101" spans="1:77">
-      <c r="A101" s="185"/>
-      <c r="H101" s="186"/>
-      <c r="I101" s="180"/>
+      <c r="A101" s="227"/>
+      <c r="H101" s="228"/>
+      <c r="I101" s="222"/>
       <c r="J101" s="90">
         <f>SUM(N96:P96)</f>
         <v>0.19633296027509606</v>
@@ -15148,71 +15148,71 @@
         <f>L100+K101</f>
         <v>0.74175269570147595</v>
       </c>
-      <c r="R101" s="183"/>
-      <c r="S101" s="183"/>
-      <c r="T101" s="183"/>
-      <c r="U101" s="183"/>
-      <c r="V101" s="183"/>
-      <c r="W101" s="183"/>
-      <c r="X101" s="183"/>
-      <c r="Y101" s="183"/>
-      <c r="Z101" s="183"/>
-      <c r="AA101" s="183"/>
-      <c r="AB101" s="183"/>
-      <c r="AC101" s="183"/>
-      <c r="AD101" s="183"/>
-      <c r="AE101" s="183"/>
-      <c r="AF101" s="183"/>
-      <c r="AG101" s="183"/>
-      <c r="AH101" s="183"/>
-      <c r="AI101" s="183"/>
-      <c r="AJ101" s="183"/>
-      <c r="AK101" s="183"/>
-      <c r="AL101" s="183"/>
-      <c r="AM101" s="183"/>
-      <c r="AN101" s="183"/>
-      <c r="AO101" s="183"/>
-      <c r="AP101" s="183"/>
-      <c r="AQ101" s="183"/>
-      <c r="AR101" s="183"/>
-      <c r="AS101" s="183"/>
-      <c r="AT101" s="183"/>
-      <c r="AU101" s="183"/>
-      <c r="AV101" s="183"/>
-      <c r="AW101" s="183"/>
-      <c r="AX101" s="183"/>
-      <c r="AY101" s="183"/>
-      <c r="AZ101" s="183"/>
-      <c r="BA101" s="183"/>
-      <c r="BB101" s="183"/>
-      <c r="BC101" s="183"/>
-      <c r="BD101" s="183"/>
-      <c r="BE101" s="183"/>
-      <c r="BF101" s="183"/>
-      <c r="BG101" s="183"/>
-      <c r="BH101" s="183"/>
-      <c r="BI101" s="183"/>
-      <c r="BJ101" s="183"/>
-      <c r="BK101" s="183"/>
-      <c r="BL101" s="183"/>
-      <c r="BM101" s="183"/>
-      <c r="BN101" s="183"/>
-      <c r="BO101" s="183"/>
-      <c r="BP101" s="183"/>
-      <c r="BQ101" s="183"/>
-      <c r="BR101" s="183"/>
-      <c r="BS101" s="183"/>
-      <c r="BT101" s="183"/>
-      <c r="BU101" s="183"/>
-      <c r="BV101" s="183"/>
-      <c r="BW101" s="183"/>
-      <c r="BX101" s="183"/>
-      <c r="BY101" s="183"/>
+      <c r="R101" s="225"/>
+      <c r="S101" s="225"/>
+      <c r="T101" s="225"/>
+      <c r="U101" s="225"/>
+      <c r="V101" s="225"/>
+      <c r="W101" s="225"/>
+      <c r="X101" s="225"/>
+      <c r="Y101" s="225"/>
+      <c r="Z101" s="225"/>
+      <c r="AA101" s="225"/>
+      <c r="AB101" s="225"/>
+      <c r="AC101" s="225"/>
+      <c r="AD101" s="225"/>
+      <c r="AE101" s="225"/>
+      <c r="AF101" s="225"/>
+      <c r="AG101" s="225"/>
+      <c r="AH101" s="225"/>
+      <c r="AI101" s="225"/>
+      <c r="AJ101" s="225"/>
+      <c r="AK101" s="225"/>
+      <c r="AL101" s="225"/>
+      <c r="AM101" s="225"/>
+      <c r="AN101" s="225"/>
+      <c r="AO101" s="225"/>
+      <c r="AP101" s="225"/>
+      <c r="AQ101" s="225"/>
+      <c r="AR101" s="225"/>
+      <c r="AS101" s="225"/>
+      <c r="AT101" s="225"/>
+      <c r="AU101" s="225"/>
+      <c r="AV101" s="225"/>
+      <c r="AW101" s="225"/>
+      <c r="AX101" s="225"/>
+      <c r="AY101" s="225"/>
+      <c r="AZ101" s="225"/>
+      <c r="BA101" s="225"/>
+      <c r="BB101" s="225"/>
+      <c r="BC101" s="225"/>
+      <c r="BD101" s="225"/>
+      <c r="BE101" s="225"/>
+      <c r="BF101" s="225"/>
+      <c r="BG101" s="225"/>
+      <c r="BH101" s="225"/>
+      <c r="BI101" s="225"/>
+      <c r="BJ101" s="225"/>
+      <c r="BK101" s="225"/>
+      <c r="BL101" s="225"/>
+      <c r="BM101" s="225"/>
+      <c r="BN101" s="225"/>
+      <c r="BO101" s="225"/>
+      <c r="BP101" s="225"/>
+      <c r="BQ101" s="225"/>
+      <c r="BR101" s="225"/>
+      <c r="BS101" s="225"/>
+      <c r="BT101" s="225"/>
+      <c r="BU101" s="225"/>
+      <c r="BV101" s="225"/>
+      <c r="BW101" s="225"/>
+      <c r="BX101" s="225"/>
+      <c r="BY101" s="225"/>
     </row>
     <row r="102" spans="1:77">
-      <c r="A102" s="185"/>
-      <c r="H102" s="186"/>
-      <c r="I102" s="180"/>
+      <c r="A102" s="227"/>
+      <c r="H102" s="228"/>
+      <c r="I102" s="222"/>
       <c r="J102" s="90">
         <f>SUM(N97:P97)</f>
         <v>0.25162673466811353</v>
@@ -15231,71 +15231,71 @@
       <c r="Q102">
         <v>0</v>
       </c>
-      <c r="R102" s="183"/>
-      <c r="S102" s="183"/>
-      <c r="T102" s="183"/>
-      <c r="U102" s="183"/>
-      <c r="V102" s="183"/>
-      <c r="W102" s="183"/>
-      <c r="X102" s="183"/>
-      <c r="Y102" s="183"/>
-      <c r="Z102" s="183"/>
-      <c r="AA102" s="183"/>
-      <c r="AB102" s="183"/>
-      <c r="AC102" s="183"/>
-      <c r="AD102" s="183"/>
-      <c r="AE102" s="183"/>
-      <c r="AF102" s="183"/>
-      <c r="AG102" s="183"/>
-      <c r="AH102" s="183"/>
-      <c r="AI102" s="183"/>
-      <c r="AJ102" s="183"/>
-      <c r="AK102" s="183"/>
-      <c r="AL102" s="183"/>
-      <c r="AM102" s="183"/>
-      <c r="AN102" s="183"/>
-      <c r="AO102" s="183"/>
-      <c r="AP102" s="183"/>
-      <c r="AQ102" s="183"/>
-      <c r="AR102" s="183"/>
-      <c r="AS102" s="183"/>
-      <c r="AT102" s="183"/>
-      <c r="AU102" s="183"/>
-      <c r="AV102" s="183"/>
-      <c r="AW102" s="183"/>
-      <c r="AX102" s="183"/>
-      <c r="AY102" s="183"/>
-      <c r="AZ102" s="183"/>
-      <c r="BA102" s="183"/>
-      <c r="BB102" s="183"/>
-      <c r="BC102" s="183"/>
-      <c r="BD102" s="183"/>
-      <c r="BE102" s="183"/>
-      <c r="BF102" s="183"/>
-      <c r="BG102" s="183"/>
-      <c r="BH102" s="183"/>
-      <c r="BI102" s="183"/>
-      <c r="BJ102" s="183"/>
-      <c r="BK102" s="183"/>
-      <c r="BL102" s="183"/>
-      <c r="BM102" s="183"/>
-      <c r="BN102" s="183"/>
-      <c r="BO102" s="183"/>
-      <c r="BP102" s="183"/>
-      <c r="BQ102" s="183"/>
-      <c r="BR102" s="183"/>
-      <c r="BS102" s="183"/>
-      <c r="BT102" s="183"/>
-      <c r="BU102" s="183"/>
-      <c r="BV102" s="183"/>
-      <c r="BW102" s="183"/>
-      <c r="BX102" s="183"/>
-      <c r="BY102" s="183"/>
+      <c r="R102" s="225"/>
+      <c r="S102" s="225"/>
+      <c r="T102" s="225"/>
+      <c r="U102" s="225"/>
+      <c r="V102" s="225"/>
+      <c r="W102" s="225"/>
+      <c r="X102" s="225"/>
+      <c r="Y102" s="225"/>
+      <c r="Z102" s="225"/>
+      <c r="AA102" s="225"/>
+      <c r="AB102" s="225"/>
+      <c r="AC102" s="225"/>
+      <c r="AD102" s="225"/>
+      <c r="AE102" s="225"/>
+      <c r="AF102" s="225"/>
+      <c r="AG102" s="225"/>
+      <c r="AH102" s="225"/>
+      <c r="AI102" s="225"/>
+      <c r="AJ102" s="225"/>
+      <c r="AK102" s="225"/>
+      <c r="AL102" s="225"/>
+      <c r="AM102" s="225"/>
+      <c r="AN102" s="225"/>
+      <c r="AO102" s="225"/>
+      <c r="AP102" s="225"/>
+      <c r="AQ102" s="225"/>
+      <c r="AR102" s="225"/>
+      <c r="AS102" s="225"/>
+      <c r="AT102" s="225"/>
+      <c r="AU102" s="225"/>
+      <c r="AV102" s="225"/>
+      <c r="AW102" s="225"/>
+      <c r="AX102" s="225"/>
+      <c r="AY102" s="225"/>
+      <c r="AZ102" s="225"/>
+      <c r="BA102" s="225"/>
+      <c r="BB102" s="225"/>
+      <c r="BC102" s="225"/>
+      <c r="BD102" s="225"/>
+      <c r="BE102" s="225"/>
+      <c r="BF102" s="225"/>
+      <c r="BG102" s="225"/>
+      <c r="BH102" s="225"/>
+      <c r="BI102" s="225"/>
+      <c r="BJ102" s="225"/>
+      <c r="BK102" s="225"/>
+      <c r="BL102" s="225"/>
+      <c r="BM102" s="225"/>
+      <c r="BN102" s="225"/>
+      <c r="BO102" s="225"/>
+      <c r="BP102" s="225"/>
+      <c r="BQ102" s="225"/>
+      <c r="BR102" s="225"/>
+      <c r="BS102" s="225"/>
+      <c r="BT102" s="225"/>
+      <c r="BU102" s="225"/>
+      <c r="BV102" s="225"/>
+      <c r="BW102" s="225"/>
+      <c r="BX102" s="225"/>
+      <c r="BY102" s="225"/>
     </row>
     <row r="103" spans="1:77">
-      <c r="A103" s="185"/>
-      <c r="H103" s="186"/>
-      <c r="I103" s="180"/>
+      <c r="A103" s="227"/>
+      <c r="H103" s="228"/>
+      <c r="I103" s="222"/>
       <c r="J103" s="13" t="s">
         <v>92</v>
       </c>
@@ -15325,17 +15325,17 @@
       </c>
     </row>
     <row r="104" spans="1:77">
-      <c r="A104" s="185"/>
-      <c r="H104" s="186"/>
-      <c r="I104" s="180"/>
+      <c r="A104" s="227"/>
+      <c r="H104" s="228"/>
+      <c r="I104" s="222"/>
       <c r="J104" s="82"/>
-      <c r="K104" s="200" t="s">
+      <c r="K104" s="210" t="s">
         <v>99</v>
       </c>
-      <c r="L104" s="200"/>
-      <c r="M104" s="200"/>
-      <c r="N104" s="200"/>
-      <c r="O104" s="200"/>
+      <c r="L104" s="210"/>
+      <c r="M104" s="210"/>
+      <c r="N104" s="210"/>
+      <c r="O104" s="210"/>
       <c r="P104" s="93"/>
       <c r="R104" s="104"/>
       <c r="S104" s="105"/>
@@ -15395,14 +15395,14 @@
       <c r="BX104" s="59"/>
     </row>
     <row r="105" spans="1:77">
-      <c r="A105" s="185"/>
-      <c r="H105" s="186"/>
-      <c r="I105" s="180"/>
-      <c r="L105" s="208" t="s">
+      <c r="A105" s="227"/>
+      <c r="H105" s="228"/>
+      <c r="I105" s="222"/>
+      <c r="L105" s="211" t="s">
         <v>100</v>
       </c>
-      <c r="M105" s="208"/>
-      <c r="N105" s="208"/>
+      <c r="M105" s="211"/>
+      <c r="N105" s="211"/>
       <c r="R105" s="65" t="s">
         <v>101</v>
       </c>
@@ -15469,9 +15469,9 @@
       <c r="BX105" s="62"/>
     </row>
     <row r="106" spans="1:77">
-      <c r="A106" s="185"/>
-      <c r="H106" s="186"/>
-      <c r="I106" s="180"/>
+      <c r="A106" s="227"/>
+      <c r="H106" s="228"/>
+      <c r="I106" s="222"/>
       <c r="J106" s="90" t="s">
         <v>102</v>
       </c>
@@ -15568,9 +15568,9 @@
       <c r="BX106" s="62"/>
     </row>
     <row r="107" spans="1:77">
-      <c r="A107" s="185"/>
-      <c r="H107" s="186"/>
-      <c r="I107" s="180"/>
+      <c r="A107" s="227"/>
+      <c r="H107" s="228"/>
+      <c r="I107" s="222"/>
       <c r="J107" t="str">
         <f>IF(N90&lt;J90,"1","0")</f>
         <v>0</v>
@@ -15695,9 +15695,9 @@
       <c r="BX107" s="62"/>
     </row>
     <row r="108" spans="1:77">
-      <c r="A108" s="185"/>
-      <c r="H108" s="186"/>
-      <c r="I108" s="180"/>
+      <c r="A108" s="227"/>
+      <c r="H108" s="228"/>
+      <c r="I108" s="222"/>
       <c r="J108" t="str">
         <f>IF(N89&lt;J89,"1","0")</f>
         <v>0</v>
@@ -15824,9 +15824,9 @@
       <c r="BX108" s="62"/>
     </row>
     <row r="109" spans="1:77">
-      <c r="A109" s="185"/>
-      <c r="H109" s="186"/>
-      <c r="I109" s="180"/>
+      <c r="A109" s="227"/>
+      <c r="H109" s="228"/>
+      <c r="I109" s="222"/>
       <c r="J109" t="str">
         <f>IF(N88&lt;J88,"1","0")</f>
         <v>0</v>
@@ -15961,9 +15961,9 @@
       <c r="BX109" s="62"/>
     </row>
     <row r="110" spans="1:77">
-      <c r="A110" s="185"/>
-      <c r="H110" s="186"/>
-      <c r="I110" s="180"/>
+      <c r="A110" s="227"/>
+      <c r="H110" s="228"/>
+      <c r="I110" s="222"/>
       <c r="J110" t="str">
         <f>IF(N87&lt;J87,"1","0")</f>
         <v>1</v>
@@ -16092,9 +16092,9 @@
       <c r="BX110" s="62"/>
     </row>
     <row r="111" spans="1:77">
-      <c r="A111" s="185"/>
-      <c r="H111" s="186"/>
-      <c r="I111" s="180"/>
+      <c r="A111" s="227"/>
+      <c r="H111" s="228"/>
+      <c r="I111" s="222"/>
       <c r="J111" s="82"/>
       <c r="R111" s="63"/>
       <c r="S111" s="48" t="s">
@@ -16186,9 +16186,9 @@
       <c r="BX111" s="62"/>
     </row>
     <row r="112" spans="1:77">
-      <c r="A112" s="185"/>
-      <c r="H112" s="186"/>
-      <c r="I112" s="180"/>
+      <c r="A112" s="227"/>
+      <c r="H112" s="228"/>
+      <c r="I112" s="222"/>
       <c r="J112" s="82" t="s">
         <v>104</v>
       </c>
@@ -16258,9 +16258,9 @@
       <c r="BX112" s="62"/>
     </row>
     <row r="113" spans="1:76">
-      <c r="A113" s="185"/>
-      <c r="H113" s="186"/>
-      <c r="I113" s="180"/>
+      <c r="A113" s="227"/>
+      <c r="H113" s="228"/>
+      <c r="I113" s="222"/>
       <c r="J113" s="82">
         <f>$K$81-$L81*J107</f>
         <v>0</v>
@@ -16288,10 +16288,10 @@
       <c r="Z113" s="123">
         <v>4</v>
       </c>
-      <c r="AA113" s="209" t="s">
+      <c r="AA113" s="212" t="s">
         <v>116</v>
       </c>
-      <c r="AB113" s="209"/>
+      <c r="AB113" s="212"/>
       <c r="AC113" s="105"/>
       <c r="AD113" s="59"/>
       <c r="AE113" s="62"/>
@@ -16310,10 +16310,10 @@
       <c r="AO113" s="120">
         <v>4</v>
       </c>
-      <c r="AP113" s="191" t="s">
+      <c r="AP113" s="209" t="s">
         <v>116</v>
       </c>
-      <c r="AQ113" s="191"/>
+      <c r="AQ113" s="209"/>
       <c r="AR113" s="48"/>
       <c r="AS113" s="48"/>
       <c r="AT113" s="62"/>
@@ -16332,10 +16332,10 @@
       <c r="BD113" s="120">
         <v>4</v>
       </c>
-      <c r="BE113" s="191" t="s">
+      <c r="BE113" s="209" t="s">
         <v>116</v>
       </c>
-      <c r="BF113" s="191"/>
+      <c r="BF113" s="209"/>
       <c r="BG113" s="48"/>
       <c r="BH113" s="48"/>
       <c r="BI113" s="62"/>
@@ -16354,18 +16354,18 @@
       <c r="BS113" s="120">
         <v>4</v>
       </c>
-      <c r="BT113" s="191" t="s">
+      <c r="BT113" s="209" t="s">
         <v>116</v>
       </c>
-      <c r="BU113" s="191"/>
+      <c r="BU113" s="209"/>
       <c r="BV113" s="48"/>
       <c r="BW113" s="48"/>
       <c r="BX113" s="62"/>
     </row>
     <row r="114" spans="1:76">
-      <c r="A114" s="185"/>
-      <c r="H114" s="186"/>
-      <c r="I114" s="180"/>
+      <c r="A114" s="227"/>
+      <c r="H114" s="228"/>
+      <c r="I114" s="222"/>
       <c r="J114" s="82" t="s">
         <v>107</v>
       </c>
@@ -16473,9 +16473,9 @@
       <c r="BX114" s="62"/>
     </row>
     <row r="115" spans="1:76">
-      <c r="A115" s="185"/>
-      <c r="H115" s="186"/>
-      <c r="I115" s="180"/>
+      <c r="A115" s="227"/>
+      <c r="H115" s="228"/>
+      <c r="I115" s="222"/>
       <c r="J115">
         <f>J113+($L81*N107)</f>
         <v>1</v>
@@ -16606,9 +16606,9 @@
       <c r="BX115" s="62"/>
     </row>
     <row r="116" spans="1:76">
-      <c r="A116" s="185"/>
-      <c r="H116" s="186"/>
-      <c r="I116" s="180"/>
+      <c r="A116" s="227"/>
+      <c r="H116" s="228"/>
+      <c r="I116" s="222"/>
       <c r="J116" s="82"/>
       <c r="R116" s="63"/>
       <c r="S116" s="109"/>
@@ -16630,10 +16630,10 @@
       <c r="Z116" s="106">
         <v>5</v>
       </c>
-      <c r="AA116" s="191" t="s">
+      <c r="AA116" s="209" t="s">
         <v>122</v>
       </c>
-      <c r="AB116" s="191"/>
+      <c r="AB116" s="209"/>
       <c r="AC116" s="48"/>
       <c r="AD116" s="62"/>
       <c r="AE116" s="62"/>
@@ -16657,10 +16657,10 @@
       <c r="AO116" s="120">
         <v>5</v>
       </c>
-      <c r="AP116" s="191" t="s">
+      <c r="AP116" s="209" t="s">
         <v>122</v>
       </c>
-      <c r="AQ116" s="191"/>
+      <c r="AQ116" s="209"/>
       <c r="AR116" s="48"/>
       <c r="AS116" s="48"/>
       <c r="AT116" s="62"/>
@@ -16684,10 +16684,10 @@
       <c r="BD116" s="120">
         <v>5</v>
       </c>
-      <c r="BE116" s="191" t="s">
+      <c r="BE116" s="209" t="s">
         <v>122</v>
       </c>
-      <c r="BF116" s="191"/>
+      <c r="BF116" s="209"/>
       <c r="BG116" s="48"/>
       <c r="BH116" s="48"/>
       <c r="BI116" s="62"/>
@@ -16711,22 +16711,22 @@
       <c r="BS116" s="120">
         <v>5</v>
       </c>
-      <c r="BT116" s="191" t="s">
+      <c r="BT116" s="209" t="s">
         <v>122</v>
       </c>
-      <c r="BU116" s="191"/>
+      <c r="BU116" s="209"/>
       <c r="BV116" s="48"/>
       <c r="BW116" s="48"/>
       <c r="BX116" s="62"/>
     </row>
     <row r="117" spans="1:76">
-      <c r="A117" s="185"/>
-      <c r="H117" s="186"/>
-      <c r="I117" s="180"/>
-      <c r="J117" s="205" t="s">
+      <c r="A117" s="227"/>
+      <c r="H117" s="228"/>
+      <c r="I117" s="222"/>
+      <c r="J117" s="213" t="s">
         <v>123</v>
       </c>
-      <c r="K117" s="206"/>
+      <c r="K117" s="214"/>
       <c r="L117" s="50">
         <v>1</v>
       </c>
@@ -16818,9 +16818,9 @@
       <c r="BX117" s="62"/>
     </row>
     <row r="118" spans="1:76">
-      <c r="A118" s="185"/>
-      <c r="H118" s="186"/>
-      <c r="I118" s="180"/>
+      <c r="A118" s="227"/>
+      <c r="H118" s="228"/>
+      <c r="I118" s="222"/>
       <c r="J118" s="82"/>
       <c r="K118" s="82"/>
       <c r="L118" s="82"/>
@@ -16962,9 +16962,9 @@
       <c r="BX118" s="62"/>
     </row>
     <row r="119" spans="1:76">
-      <c r="A119" s="185"/>
-      <c r="H119" s="186"/>
-      <c r="I119" s="180"/>
+      <c r="A119" s="227"/>
+      <c r="H119" s="228"/>
+      <c r="I119" s="222"/>
       <c r="J119" s="82"/>
       <c r="K119" s="82"/>
       <c r="L119" s="82"/>
@@ -16983,10 +16983,10 @@
       <c r="Z119" s="106">
         <v>6</v>
       </c>
-      <c r="AA119" s="191" t="s">
+      <c r="AA119" s="209" t="s">
         <v>130</v>
       </c>
-      <c r="AB119" s="191"/>
+      <c r="AB119" s="209"/>
       <c r="AC119" s="48"/>
       <c r="AD119" s="62"/>
       <c r="AE119" s="62"/>
@@ -17005,10 +17005,10 @@
       <c r="AO119" s="120">
         <v>6</v>
       </c>
-      <c r="AP119" s="191" t="s">
+      <c r="AP119" s="209" t="s">
         <v>130</v>
       </c>
-      <c r="AQ119" s="191"/>
+      <c r="AQ119" s="209"/>
       <c r="AR119" s="48"/>
       <c r="AS119" s="48"/>
       <c r="AT119" s="62"/>
@@ -17027,10 +17027,10 @@
       <c r="BD119" s="120">
         <v>6</v>
       </c>
-      <c r="BE119" s="191" t="s">
+      <c r="BE119" s="209" t="s">
         <v>130</v>
       </c>
-      <c r="BF119" s="191"/>
+      <c r="BF119" s="209"/>
       <c r="BG119" s="48"/>
       <c r="BH119" s="48"/>
       <c r="BI119" s="62"/>
@@ -17049,18 +17049,18 @@
       <c r="BS119" s="120">
         <v>6</v>
       </c>
-      <c r="BT119" s="191" t="s">
+      <c r="BT119" s="209" t="s">
         <v>130</v>
       </c>
-      <c r="BU119" s="191"/>
+      <c r="BU119" s="209"/>
       <c r="BV119" s="48"/>
       <c r="BW119" s="48"/>
       <c r="BX119" s="62"/>
     </row>
     <row r="120" spans="1:76">
-      <c r="A120" s="185"/>
-      <c r="H120" s="186"/>
-      <c r="I120" s="180"/>
+      <c r="A120" s="227"/>
+      <c r="H120" s="228"/>
+      <c r="I120" s="222"/>
       <c r="J120" s="82" t="s">
         <v>131</v>
       </c>
@@ -17168,9 +17168,9 @@
       <c r="BX120" s="62"/>
     </row>
     <row r="121" spans="1:76">
-      <c r="A121" s="185"/>
-      <c r="H121" s="186"/>
-      <c r="I121" s="180"/>
+      <c r="A121" s="227"/>
+      <c r="H121" s="228"/>
+      <c r="I121" s="222"/>
       <c r="J121" s="82" t="s">
         <v>133</v>
       </c>
@@ -17181,13 +17181,13 @@
       <c r="S121" s="109" t="s">
         <v>135</v>
       </c>
-      <c r="T121" s="188" t="s">
+      <c r="T121" s="193" t="s">
         <v>136</v>
       </c>
-      <c r="U121" s="188"/>
-      <c r="V121" s="188"/>
-      <c r="W121" s="188"/>
-      <c r="X121" s="188"/>
+      <c r="U121" s="193"/>
+      <c r="V121" s="193"/>
+      <c r="W121" s="193"/>
+      <c r="X121" s="193"/>
       <c r="Y121" s="48"/>
       <c r="Z121" s="63"/>
       <c r="AA121" s="110" t="s">
@@ -17210,13 +17210,13 @@
       <c r="AH121" s="109" t="s">
         <v>135</v>
       </c>
-      <c r="AI121" s="188" t="s">
+      <c r="AI121" s="193" t="s">
         <v>136</v>
       </c>
-      <c r="AJ121" s="188"/>
-      <c r="AK121" s="188"/>
-      <c r="AL121" s="188"/>
-      <c r="AM121" s="188"/>
+      <c r="AJ121" s="193"/>
+      <c r="AK121" s="193"/>
+      <c r="AL121" s="193"/>
+      <c r="AM121" s="193"/>
       <c r="AN121" s="48"/>
       <c r="AO121" s="48"/>
       <c r="AP121" s="110" t="s">
@@ -17239,13 +17239,13 @@
       <c r="AW121" s="109" t="s">
         <v>135</v>
       </c>
-      <c r="AX121" s="188" t="s">
+      <c r="AX121" s="193" t="s">
         <v>136</v>
       </c>
-      <c r="AY121" s="188"/>
-      <c r="AZ121" s="188"/>
-      <c r="BA121" s="188"/>
-      <c r="BB121" s="188"/>
+      <c r="AY121" s="193"/>
+      <c r="AZ121" s="193"/>
+      <c r="BA121" s="193"/>
+      <c r="BB121" s="193"/>
       <c r="BC121" s="48"/>
       <c r="BD121" s="48"/>
       <c r="BE121" s="110" t="s">
@@ -17268,13 +17268,13 @@
       <c r="BL121" s="109" t="s">
         <v>135</v>
       </c>
-      <c r="BM121" s="188" t="s">
+      <c r="BM121" s="193" t="s">
         <v>136</v>
       </c>
-      <c r="BN121" s="188"/>
-      <c r="BO121" s="188"/>
-      <c r="BP121" s="188"/>
-      <c r="BQ121" s="188"/>
+      <c r="BN121" s="193"/>
+      <c r="BO121" s="193"/>
+      <c r="BP121" s="193"/>
+      <c r="BQ121" s="193"/>
       <c r="BR121" s="48"/>
       <c r="BS121" s="48"/>
       <c r="BT121" s="110" t="s">
@@ -17295,9 +17295,9 @@
       <c r="BX121" s="62"/>
     </row>
     <row r="122" spans="1:76">
-      <c r="A122" s="185"/>
-      <c r="H122" s="186"/>
-      <c r="I122" s="180"/>
+      <c r="A122" s="227"/>
+      <c r="H122" s="228"/>
+      <c r="I122" s="222"/>
       <c r="J122" s="82" t="s">
         <v>138</v>
       </c>
@@ -17324,10 +17324,10 @@
       <c r="Z122" s="106">
         <v>7</v>
       </c>
-      <c r="AA122" s="191" t="s">
+      <c r="AA122" s="209" t="s">
         <v>140</v>
       </c>
-      <c r="AB122" s="191"/>
+      <c r="AB122" s="209"/>
       <c r="AC122" s="48"/>
       <c r="AD122" s="62"/>
       <c r="AE122" s="62"/>
@@ -17351,10 +17351,10 @@
       <c r="AO122" s="120">
         <v>7</v>
       </c>
-      <c r="AP122" s="191" t="s">
+      <c r="AP122" s="209" t="s">
         <v>140</v>
       </c>
-      <c r="AQ122" s="191"/>
+      <c r="AQ122" s="209"/>
       <c r="AR122" s="48"/>
       <c r="AS122" s="48"/>
       <c r="AT122" s="62"/>
@@ -17378,10 +17378,10 @@
       <c r="BD122" s="120">
         <v>7</v>
       </c>
-      <c r="BE122" s="191" t="s">
+      <c r="BE122" s="209" t="s">
         <v>140</v>
       </c>
-      <c r="BF122" s="191"/>
+      <c r="BF122" s="209"/>
       <c r="BG122" s="48"/>
       <c r="BH122" s="48"/>
       <c r="BI122" s="62"/>
@@ -17405,18 +17405,18 @@
       <c r="BS122" s="120">
         <v>7</v>
       </c>
-      <c r="BT122" s="191" t="s">
+      <c r="BT122" s="209" t="s">
         <v>140</v>
       </c>
-      <c r="BU122" s="191"/>
+      <c r="BU122" s="209"/>
       <c r="BV122" s="48"/>
       <c r="BW122" s="48"/>
       <c r="BX122" s="62"/>
     </row>
     <row r="123" spans="1:76">
-      <c r="A123" s="185"/>
-      <c r="H123" s="186"/>
-      <c r="I123" s="180"/>
+      <c r="A123" s="227"/>
+      <c r="H123" s="228"/>
+      <c r="I123" s="222"/>
       <c r="J123" s="82" t="s">
         <v>141</v>
       </c>
@@ -17427,87 +17427,87 @@
       <c r="S123" s="109" t="s">
         <v>142</v>
       </c>
-      <c r="T123" s="188" t="s">
+      <c r="T123" s="193" t="s">
         <v>143</v>
       </c>
-      <c r="U123" s="188"/>
-      <c r="V123" s="188"/>
-      <c r="W123" s="188"/>
-      <c r="X123" s="188"/>
+      <c r="U123" s="193"/>
+      <c r="V123" s="193"/>
+      <c r="W123" s="193"/>
+      <c r="X123" s="193"/>
       <c r="Y123" s="48"/>
       <c r="Z123" s="63"/>
       <c r="AA123" s="48"/>
-      <c r="AB123" s="203" t="s">
+      <c r="AB123" s="215" t="s">
         <v>144</v>
       </c>
-      <c r="AC123" s="203"/>
-      <c r="AD123" s="204"/>
+      <c r="AC123" s="215"/>
+      <c r="AD123" s="217"/>
       <c r="AE123" s="62"/>
       <c r="AG123" s="63"/>
       <c r="AH123" s="109" t="s">
         <v>142</v>
       </c>
-      <c r="AI123" s="188" t="s">
+      <c r="AI123" s="193" t="s">
         <v>143</v>
       </c>
-      <c r="AJ123" s="188"/>
-      <c r="AK123" s="188"/>
-      <c r="AL123" s="188"/>
-      <c r="AM123" s="188"/>
+      <c r="AJ123" s="193"/>
+      <c r="AK123" s="193"/>
+      <c r="AL123" s="193"/>
+      <c r="AM123" s="193"/>
       <c r="AN123" s="48"/>
       <c r="AO123" s="48"/>
       <c r="AP123" s="48"/>
-      <c r="AQ123" s="203" t="s">
+      <c r="AQ123" s="215" t="s">
         <v>144</v>
       </c>
-      <c r="AR123" s="203"/>
-      <c r="AS123" s="203"/>
+      <c r="AR123" s="215"/>
+      <c r="AS123" s="215"/>
       <c r="AT123" s="62"/>
       <c r="AV123" s="63"/>
       <c r="AW123" s="109" t="s">
         <v>142</v>
       </c>
-      <c r="AX123" s="188" t="s">
+      <c r="AX123" s="193" t="s">
         <v>143</v>
       </c>
-      <c r="AY123" s="188"/>
-      <c r="AZ123" s="188"/>
-      <c r="BA123" s="188"/>
-      <c r="BB123" s="188"/>
+      <c r="AY123" s="193"/>
+      <c r="AZ123" s="193"/>
+      <c r="BA123" s="193"/>
+      <c r="BB123" s="193"/>
       <c r="BC123" s="48"/>
       <c r="BD123" s="48"/>
       <c r="BE123" s="48"/>
-      <c r="BF123" s="203" t="s">
+      <c r="BF123" s="215" t="s">
         <v>144</v>
       </c>
-      <c r="BG123" s="203"/>
-      <c r="BH123" s="203"/>
+      <c r="BG123" s="215"/>
+      <c r="BH123" s="215"/>
       <c r="BI123" s="62"/>
       <c r="BK123" s="63"/>
       <c r="BL123" s="109" t="s">
         <v>142</v>
       </c>
-      <c r="BM123" s="188" t="s">
+      <c r="BM123" s="193" t="s">
         <v>143</v>
       </c>
-      <c r="BN123" s="188"/>
-      <c r="BO123" s="188"/>
-      <c r="BP123" s="188"/>
-      <c r="BQ123" s="188"/>
+      <c r="BN123" s="193"/>
+      <c r="BO123" s="193"/>
+      <c r="BP123" s="193"/>
+      <c r="BQ123" s="193"/>
       <c r="BR123" s="48"/>
       <c r="BS123" s="48"/>
       <c r="BT123" s="48"/>
-      <c r="BU123" s="203" t="s">
+      <c r="BU123" s="215" t="s">
         <v>144</v>
       </c>
-      <c r="BV123" s="203"/>
-      <c r="BW123" s="203"/>
+      <c r="BV123" s="215"/>
+      <c r="BW123" s="215"/>
       <c r="BX123" s="62"/>
     </row>
     <row r="124" spans="1:76">
-      <c r="A124" s="185"/>
-      <c r="H124" s="186"/>
-      <c r="I124" s="180"/>
+      <c r="A124" s="227"/>
+      <c r="H124" s="228"/>
+      <c r="I124" s="222"/>
       <c r="J124" s="82"/>
       <c r="R124" s="63"/>
       <c r="S124" s="110" t="s">
@@ -17655,11 +17655,11 @@
       <c r="BX124" s="62"/>
     </row>
     <row r="125" spans="1:76">
-      <c r="A125" s="185"/>
-      <c r="H125" s="186" t="s">
+      <c r="A125" s="227"/>
+      <c r="H125" s="228" t="s">
         <v>57</v>
       </c>
-      <c r="I125" s="180"/>
+      <c r="I125" s="222"/>
       <c r="J125" s="11" t="s">
         <v>139</v>
       </c>
@@ -17725,9 +17725,9 @@
       <c r="BX125" s="62"/>
     </row>
     <row r="126" spans="1:76">
-      <c r="A126" s="185"/>
-      <c r="H126" s="186"/>
-      <c r="I126" s="180"/>
+      <c r="A126" s="227"/>
+      <c r="H126" s="228"/>
+      <c r="I126" s="222"/>
       <c r="J126" s="95">
         <f>T151</f>
         <v>-0.15960134318464808</v>
@@ -17806,9 +17806,9 @@
       <c r="BX126" s="62"/>
     </row>
     <row r="127" spans="1:76">
-      <c r="A127" s="185"/>
-      <c r="H127" s="186"/>
-      <c r="I127" s="180"/>
+      <c r="A127" s="227"/>
+      <c r="H127" s="228"/>
+      <c r="I127" s="222"/>
       <c r="J127">
         <f>AI151</f>
         <v>-0.25666821090664182</v>
@@ -17911,9 +17911,9 @@
       <c r="BX127" s="62"/>
     </row>
     <row r="128" spans="1:76">
-      <c r="A128" s="185"/>
-      <c r="H128" s="186"/>
-      <c r="I128" s="180"/>
+      <c r="A128" s="227"/>
+      <c r="H128" s="228"/>
+      <c r="I128" s="222"/>
       <c r="J128" s="48">
         <f>AX151</f>
         <v>-0.26205779602335266</v>
@@ -18016,9 +18016,9 @@
       <c r="BX128" s="62"/>
     </row>
     <row r="129" spans="1:76">
-      <c r="A129" s="185"/>
-      <c r="H129" s="186"/>
-      <c r="I129" s="180"/>
+      <c r="A129" s="227"/>
+      <c r="H129" s="228"/>
+      <c r="I129" s="222"/>
       <c r="J129" s="11" t="s">
         <v>115</v>
       </c>
@@ -18155,9 +18155,9 @@
       <c r="BX129" s="62"/>
     </row>
     <row r="130" spans="1:76">
-      <c r="A130" s="185"/>
-      <c r="H130" s="186"/>
-      <c r="I130" s="180"/>
+      <c r="A130" s="227"/>
+      <c r="H130" s="228"/>
+      <c r="I130" s="222"/>
       <c r="J130">
         <f>AB124</f>
         <v>0.21731379963269482</v>
@@ -18260,9 +18260,9 @@
       <c r="BX130" s="62"/>
     </row>
     <row r="131" spans="1:76">
-      <c r="A131" s="185"/>
-      <c r="H131" s="186"/>
-      <c r="I131" s="180"/>
+      <c r="A131" s="227"/>
+      <c r="H131" s="228"/>
+      <c r="I131" s="222"/>
       <c r="J131">
         <f>AQ124</f>
         <v>0.33327673437204475</v>
@@ -18405,9 +18405,9 @@
       <c r="BX131" s="62"/>
     </row>
     <row r="132" spans="1:76">
-      <c r="A132" s="185"/>
-      <c r="H132" s="186"/>
-      <c r="I132" s="180"/>
+      <c r="A132" s="227"/>
+      <c r="H132" s="228"/>
+      <c r="I132" s="222"/>
       <c r="J132" s="63">
         <f>BF124</f>
         <v>0.38341219751967637</v>
@@ -18495,9 +18495,9 @@
       <c r="BX132" s="62"/>
     </row>
     <row r="133" spans="1:76">
-      <c r="A133" s="185"/>
-      <c r="H133" s="186"/>
-      <c r="I133" s="180"/>
+      <c r="A133" s="227"/>
+      <c r="H133" s="228"/>
+      <c r="I133" s="222"/>
       <c r="J133" s="63"/>
       <c r="R133" s="63"/>
       <c r="S133" s="110" t="s">
@@ -18645,9 +18645,9 @@
       <c r="BX133" s="62"/>
     </row>
     <row r="134" spans="1:76">
-      <c r="A134" s="185"/>
-      <c r="H134" s="186"/>
-      <c r="I134" s="180"/>
+      <c r="A134" s="227"/>
+      <c r="H134" s="228"/>
+      <c r="I134" s="222"/>
       <c r="J134" s="63" t="s">
         <v>162</v>
       </c>
@@ -18741,9 +18741,9 @@
       <c r="BX134" s="62"/>
     </row>
     <row r="135" spans="1:76">
-      <c r="A135" s="185"/>
-      <c r="H135" s="186"/>
-      <c r="I135" s="180"/>
+      <c r="A135" s="227"/>
+      <c r="H135" s="228"/>
+      <c r="I135" s="222"/>
       <c r="J135" s="63">
         <v>0.22890664782098299</v>
       </c>
@@ -18837,9 +18837,9 @@
       <c r="BX135" s="62"/>
     </row>
     <row r="136" spans="1:76">
-      <c r="A136" s="185"/>
-      <c r="H136" s="186"/>
-      <c r="I136" s="180"/>
+      <c r="A136" s="227"/>
+      <c r="H136" s="228"/>
+      <c r="I136" s="222"/>
       <c r="J136">
         <v>0.43950661770559901</v>
       </c>
@@ -18973,9 +18973,9 @@
       <c r="BX136" s="62"/>
     </row>
     <row r="137" spans="1:76">
-      <c r="A137" s="185"/>
-      <c r="H137" s="186"/>
-      <c r="I137" s="181"/>
+      <c r="A137" s="227"/>
+      <c r="H137" s="228"/>
+      <c r="I137" s="223"/>
       <c r="J137">
         <v>0.59655102335189902</v>
       </c>
@@ -19069,9 +19069,9 @@
       <c r="BX137" s="62"/>
     </row>
     <row r="138" spans="1:76">
-      <c r="A138" s="185"/>
-      <c r="H138" s="186"/>
-      <c r="I138" s="182" t="s">
+      <c r="A138" s="227"/>
+      <c r="H138" s="228"/>
+      <c r="I138" s="224" t="s">
         <v>82</v>
       </c>
       <c r="J138">
@@ -19208,9 +19208,9 @@
       <c r="BX138" s="62"/>
     </row>
     <row r="139" spans="1:76">
-      <c r="A139" s="185"/>
-      <c r="H139" s="186"/>
-      <c r="I139" s="180"/>
+      <c r="A139" s="227"/>
+      <c r="H139" s="228"/>
+      <c r="I139" s="222"/>
       <c r="R139" s="63"/>
       <c r="S139" s="48"/>
       <c r="T139" s="48" t="s">
@@ -19285,9 +19285,9 @@
       <c r="BX139" s="62"/>
     </row>
     <row r="140" spans="1:76">
-      <c r="A140" s="185"/>
-      <c r="H140" s="186"/>
-      <c r="I140" s="180"/>
+      <c r="A140" s="227"/>
+      <c r="H140" s="228"/>
+      <c r="I140" s="222"/>
       <c r="J140" t="s">
         <v>169</v>
       </c>
@@ -19437,9 +19437,9 @@
       <c r="BX140" s="62"/>
     </row>
     <row r="141" spans="1:76">
-      <c r="A141" s="185"/>
-      <c r="H141" s="186"/>
-      <c r="I141" s="180"/>
+      <c r="A141" s="227"/>
+      <c r="H141" s="228"/>
+      <c r="I141" s="222"/>
       <c r="J141" t="s">
         <v>171</v>
       </c>
@@ -19501,9 +19501,9 @@
       <c r="BX141" s="62"/>
     </row>
     <row r="142" spans="1:76">
-      <c r="A142" s="185"/>
-      <c r="H142" s="186"/>
-      <c r="I142" s="180"/>
+      <c r="A142" s="227"/>
+      <c r="H142" s="228"/>
+      <c r="I142" s="222"/>
       <c r="J142">
         <f>J135/V112</f>
         <v>5.7226661955245749E-2</v>
@@ -19566,9 +19566,9 @@
       <c r="BX142" s="62"/>
     </row>
     <row r="143" spans="1:76">
-      <c r="A143" s="185"/>
-      <c r="H143" s="186"/>
-      <c r="I143" s="180"/>
+      <c r="A143" s="227"/>
+      <c r="H143" s="228"/>
+      <c r="I143" s="222"/>
       <c r="J143">
         <f>J136/3</f>
         <v>0.14650220590186633</v>
@@ -19576,10 +19576,10 @@
       <c r="R143" s="140">
         <v>12</v>
       </c>
-      <c r="S143" s="190" t="s">
+      <c r="S143" s="216" t="s">
         <v>172</v>
       </c>
-      <c r="T143" s="190"/>
+      <c r="T143" s="216"/>
       <c r="U143" s="48"/>
       <c r="V143" s="48"/>
       <c r="W143" s="48"/>
@@ -19594,10 +19594,10 @@
       <c r="AG143" s="140">
         <v>12</v>
       </c>
-      <c r="AH143" s="190" t="s">
+      <c r="AH143" s="216" t="s">
         <v>172</v>
       </c>
-      <c r="AI143" s="190"/>
+      <c r="AI143" s="216"/>
       <c r="AJ143" s="48"/>
       <c r="AK143" s="48"/>
       <c r="AL143" s="48"/>
@@ -19612,10 +19612,10 @@
       <c r="AV143" s="140">
         <v>12</v>
       </c>
-      <c r="AW143" s="190" t="s">
+      <c r="AW143" s="216" t="s">
         <v>172</v>
       </c>
-      <c r="AX143" s="190"/>
+      <c r="AX143" s="216"/>
       <c r="AY143" s="48"/>
       <c r="AZ143" s="48"/>
       <c r="BA143" s="48"/>
@@ -19630,10 +19630,10 @@
       <c r="BK143" s="140">
         <v>12</v>
       </c>
-      <c r="BL143" s="190" t="s">
+      <c r="BL143" s="216" t="s">
         <v>172</v>
       </c>
-      <c r="BM143" s="190"/>
+      <c r="BM143" s="216"/>
       <c r="BN143" s="48"/>
       <c r="BO143" s="48"/>
       <c r="BP143" s="48"/>
@@ -19647,9 +19647,9 @@
       <c r="BX143" s="62"/>
     </row>
     <row r="144" spans="1:76">
-      <c r="A144" s="185"/>
-      <c r="H144" s="186"/>
-      <c r="I144" s="180"/>
+      <c r="A144" s="227"/>
+      <c r="H144" s="228"/>
+      <c r="I144" s="222"/>
       <c r="J144">
         <f>J137/2</f>
         <v>0.29827551167594951</v>
@@ -19720,9 +19720,9 @@
       <c r="BX144" s="62"/>
     </row>
     <row r="145" spans="1:76">
-      <c r="A145" s="185"/>
-      <c r="H145" s="186"/>
-      <c r="I145" s="180"/>
+      <c r="A145" s="227"/>
+      <c r="H145" s="228"/>
+      <c r="I145" s="222"/>
       <c r="J145">
         <f>J138/1</f>
         <v>0.87056591219832202</v>
@@ -19937,16 +19937,16 @@
       </c>
     </row>
     <row r="146" spans="1:76">
-      <c r="A146" s="185"/>
-      <c r="H146" s="186"/>
-      <c r="I146" s="180"/>
+      <c r="A146" s="227"/>
+      <c r="H146" s="228"/>
+      <c r="I146" s="222"/>
       <c r="R146" s="140">
         <v>13</v>
       </c>
-      <c r="S146" s="190" t="s">
+      <c r="S146" s="216" t="s">
         <v>175</v>
       </c>
-      <c r="T146" s="190"/>
+      <c r="T146" s="216"/>
       <c r="U146" s="48"/>
       <c r="V146" s="48"/>
       <c r="W146" s="48"/>
@@ -19961,10 +19961,10 @@
       <c r="AG146" s="140">
         <v>13</v>
       </c>
-      <c r="AH146" s="190" t="s">
+      <c r="AH146" s="216" t="s">
         <v>175</v>
       </c>
-      <c r="AI146" s="190"/>
+      <c r="AI146" s="216"/>
       <c r="AJ146" s="48"/>
       <c r="AK146" s="48"/>
       <c r="AL146" s="48"/>
@@ -19979,10 +19979,10 @@
       <c r="AV146" s="140">
         <v>13</v>
       </c>
-      <c r="AW146" s="190" t="s">
+      <c r="AW146" s="216" t="s">
         <v>175</v>
       </c>
-      <c r="AX146" s="190"/>
+      <c r="AX146" s="216"/>
       <c r="AY146" s="48"/>
       <c r="AZ146" s="48"/>
       <c r="BA146" s="48"/>
@@ -19997,10 +19997,10 @@
       <c r="BK146" s="140">
         <v>13</v>
       </c>
-      <c r="BL146" s="190" t="s">
+      <c r="BL146" s="216" t="s">
         <v>175</v>
       </c>
-      <c r="BM146" s="190"/>
+      <c r="BM146" s="216"/>
       <c r="BN146" s="48"/>
       <c r="BO146" s="48"/>
       <c r="BP146" s="48"/>
@@ -20014,9 +20014,9 @@
       <c r="BX146" s="62"/>
     </row>
     <row r="147" spans="1:76">
-      <c r="A147" s="185"/>
-      <c r="H147" s="186"/>
-      <c r="I147" s="180"/>
+      <c r="A147" s="227"/>
+      <c r="H147" s="228"/>
+      <c r="I147" s="222"/>
       <c r="R147" s="63"/>
       <c r="S147" s="48"/>
       <c r="T147" s="48" t="s">
@@ -20083,9 +20083,9 @@
       <c r="BX147" s="62"/>
     </row>
     <row r="148" spans="1:76">
-      <c r="A148" s="185"/>
-      <c r="H148" s="186"/>
-      <c r="I148" s="180"/>
+      <c r="A148" s="227"/>
+      <c r="H148" s="228"/>
+      <c r="I148" s="222"/>
       <c r="J148" s="66" t="str">
         <f>S154</f>
         <v>dE_dW_t</v>
@@ -20237,9 +20237,9 @@
       <c r="BX148" s="62"/>
     </row>
     <row r="149" spans="1:76">
-      <c r="A149" s="185"/>
-      <c r="H149" s="186"/>
-      <c r="I149" s="180"/>
+      <c r="A149" s="227"/>
+      <c r="H149" s="228"/>
+      <c r="I149" s="222"/>
       <c r="J149" s="79">
         <f>T156</f>
         <v>0.17733177870371453</v>
@@ -20271,10 +20271,10 @@
       <c r="R149" s="140">
         <v>14</v>
       </c>
-      <c r="S149" s="191" t="s">
+      <c r="S149" s="209" t="s">
         <v>188</v>
       </c>
-      <c r="T149" s="191"/>
+      <c r="T149" s="209"/>
       <c r="U149" s="48"/>
       <c r="V149" s="48"/>
       <c r="W149" s="48"/>
@@ -20289,10 +20289,10 @@
       <c r="AG149" s="140">
         <v>14</v>
       </c>
-      <c r="AH149" s="191" t="s">
+      <c r="AH149" s="209" t="s">
         <v>188</v>
       </c>
-      <c r="AI149" s="191"/>
+      <c r="AI149" s="209"/>
       <c r="AJ149" s="48"/>
       <c r="AK149" s="48"/>
       <c r="AL149" s="48"/>
@@ -20307,10 +20307,10 @@
       <c r="AV149" s="140">
         <v>14</v>
       </c>
-      <c r="AW149" s="191" t="s">
+      <c r="AW149" s="209" t="s">
         <v>188</v>
       </c>
-      <c r="AX149" s="191"/>
+      <c r="AX149" s="209"/>
       <c r="AY149" s="48"/>
       <c r="AZ149" s="48"/>
       <c r="BA149" s="48"/>
@@ -20325,10 +20325,10 @@
       <c r="BK149" s="140">
         <v>14</v>
       </c>
-      <c r="BL149" s="191" t="s">
+      <c r="BL149" s="209" t="s">
         <v>188</v>
       </c>
-      <c r="BM149" s="191"/>
+      <c r="BM149" s="209"/>
       <c r="BN149" s="48"/>
       <c r="BO149" s="48"/>
       <c r="BP149" s="48"/>
@@ -20342,9 +20342,9 @@
       <c r="BX149" s="62"/>
     </row>
     <row r="150" spans="1:76">
-      <c r="A150" s="185"/>
-      <c r="H150" s="186"/>
-      <c r="I150" s="180"/>
+      <c r="A150" s="227"/>
+      <c r="H150" s="228"/>
+      <c r="I150" s="222"/>
       <c r="J150" s="79">
         <f>T157</f>
         <v>-7.1731152168944226E-2</v>
@@ -20439,9 +20439,9 @@
       <c r="BX150" s="62"/>
     </row>
     <row r="151" spans="1:76">
-      <c r="A151" s="185"/>
-      <c r="H151" s="186"/>
-      <c r="I151" s="180"/>
+      <c r="A151" s="227"/>
+      <c r="H151" s="228"/>
+      <c r="I151" s="222"/>
       <c r="J151" s="79">
         <f>T158</f>
         <v>-0.1209952988598974</v>
@@ -20564,9 +20564,9 @@
       <c r="BX151" s="62"/>
     </row>
     <row r="152" spans="1:76">
-      <c r="A152" s="185"/>
-      <c r="H152" s="186"/>
-      <c r="I152" s="180"/>
+      <c r="A152" s="227"/>
+      <c r="H152" s="228"/>
+      <c r="I152" s="222"/>
       <c r="J152" s="79" t="s">
         <v>190</v>
       </c>
@@ -20673,11 +20673,11 @@
       <c r="BX152" s="62"/>
     </row>
     <row r="153" spans="1:76">
-      <c r="A153" s="185"/>
-      <c r="H153" s="186" t="s">
+      <c r="A153" s="227"/>
+      <c r="H153" s="228" t="s">
         <v>57</v>
       </c>
-      <c r="I153" s="180"/>
+      <c r="I153" s="222"/>
       <c r="J153" s="79" t="s">
         <v>190</v>
       </c>
@@ -20760,9 +20760,9 @@
       <c r="BX153" s="62"/>
     </row>
     <row r="154" spans="1:76">
-      <c r="A154" s="185"/>
-      <c r="H154" s="186"/>
-      <c r="I154" s="180"/>
+      <c r="A154" s="227"/>
+      <c r="H154" s="228"/>
+      <c r="I154" s="222"/>
       <c r="J154" s="132">
         <f>T167</f>
         <v>3.4139298817314881E-2</v>
@@ -20792,10 +20792,10 @@
         <v>-5.4480865733899598E-4</v>
       </c>
       <c r="R154" s="63"/>
-      <c r="S154" s="191" t="s">
+      <c r="S154" s="209" t="s">
         <v>134</v>
       </c>
-      <c r="T154" s="191"/>
+      <c r="T154" s="209"/>
       <c r="U154" s="48"/>
       <c r="V154" s="48"/>
       <c r="W154" s="48"/>
@@ -20808,10 +20808,10 @@
       <c r="AD154" s="48"/>
       <c r="AE154" s="62"/>
       <c r="AG154" s="63"/>
-      <c r="AH154" s="191" t="s">
+      <c r="AH154" s="209" t="s">
         <v>134</v>
       </c>
-      <c r="AI154" s="191"/>
+      <c r="AI154" s="209"/>
       <c r="AJ154" s="48"/>
       <c r="AK154" s="48"/>
       <c r="AL154" s="48"/>
@@ -20824,10 +20824,10 @@
       <c r="AS154" s="48"/>
       <c r="AT154" s="62"/>
       <c r="AV154" s="63"/>
-      <c r="AW154" s="191" t="s">
+      <c r="AW154" s="209" t="s">
         <v>134</v>
       </c>
-      <c r="AX154" s="191"/>
+      <c r="AX154" s="209"/>
       <c r="AY154" s="48"/>
       <c r="AZ154" s="48"/>
       <c r="BA154" s="48"/>
@@ -20840,10 +20840,10 @@
       <c r="BH154" s="48"/>
       <c r="BI154" s="62"/>
       <c r="BK154" s="63"/>
-      <c r="BL154" s="191" t="s">
+      <c r="BL154" s="209" t="s">
         <v>134</v>
       </c>
-      <c r="BM154" s="191"/>
+      <c r="BM154" s="209"/>
       <c r="BN154" s="48"/>
       <c r="BO154" s="48"/>
       <c r="BP154" s="48"/>
@@ -20857,9 +20857,9 @@
       <c r="BX154" s="62"/>
     </row>
     <row r="155" spans="1:76">
-      <c r="A155" s="185"/>
-      <c r="H155" s="186"/>
-      <c r="I155" s="180"/>
+      <c r="A155" s="227"/>
+      <c r="H155" s="228"/>
+      <c r="I155" s="222"/>
       <c r="J155" s="133">
         <f>AX156</f>
         <v>0.29483584738087459</v>
@@ -20953,9 +20953,9 @@
       <c r="BX155" s="62"/>
     </row>
     <row r="156" spans="1:76">
-      <c r="A156" s="185"/>
-      <c r="H156" s="186"/>
-      <c r="I156" s="180"/>
+      <c r="A156" s="227"/>
+      <c r="H156" s="228"/>
+      <c r="I156" s="222"/>
       <c r="J156" s="133">
         <f>AX157</f>
         <v>5.5819455336979705E-2</v>
@@ -21137,9 +21137,9 @@
       <c r="BX156" s="62"/>
     </row>
     <row r="157" spans="1:76">
-      <c r="A157" s="185"/>
-      <c r="H157" s="186"/>
-      <c r="I157" s="180"/>
+      <c r="A157" s="227"/>
+      <c r="H157" s="228"/>
+      <c r="I157" s="222"/>
       <c r="J157" s="133">
         <f>AX158</f>
         <v>-0.17922877293817432</v>
@@ -21313,9 +21313,9 @@
       <c r="BX157" s="62"/>
     </row>
     <row r="158" spans="1:76">
-      <c r="A158" s="185"/>
-      <c r="H158" s="186"/>
-      <c r="I158" s="180"/>
+      <c r="A158" s="227"/>
+      <c r="H158" s="228"/>
+      <c r="I158" s="222"/>
       <c r="J158" s="17" t="s">
         <v>187</v>
       </c>
@@ -21486,9 +21486,9 @@
       <c r="BX158" s="62"/>
     </row>
     <row r="159" spans="1:76">
-      <c r="A159" s="185"/>
-      <c r="H159" s="186"/>
-      <c r="I159" s="180"/>
+      <c r="A159" s="227"/>
+      <c r="H159" s="228"/>
+      <c r="I159" s="222"/>
       <c r="J159" s="17" t="s">
         <v>187</v>
       </c>
@@ -21659,9 +21659,9 @@
       <c r="BX159" s="62"/>
     </row>
     <row r="160" spans="1:76">
-      <c r="A160" s="185"/>
-      <c r="H160" s="186"/>
-      <c r="I160" s="180"/>
+      <c r="A160" s="227"/>
+      <c r="H160" s="228"/>
+      <c r="I160" s="222"/>
       <c r="J160" s="133">
         <f>AX167</f>
         <v>1.5404330884845384E-2</v>
@@ -21835,9 +21835,9 @@
       <c r="BX160" s="62"/>
     </row>
     <row r="161" spans="1:76">
-      <c r="A161" s="185"/>
-      <c r="H161" s="186"/>
-      <c r="I161" s="180"/>
+      <c r="A161" s="227"/>
+      <c r="H161" s="228"/>
+      <c r="I161" s="222"/>
       <c r="R161" s="167">
         <v>2.3096961618557742E-2</v>
       </c>
@@ -21984,9 +21984,9 @@
       <c r="BX161" s="62"/>
     </row>
     <row r="162" spans="1:76">
-      <c r="A162" s="185"/>
-      <c r="H162" s="186"/>
-      <c r="I162" s="180"/>
+      <c r="A162" s="227"/>
+      <c r="H162" s="228"/>
+      <c r="I162" s="222"/>
       <c r="J162" s="136" t="s">
         <v>196</v>
       </c>
@@ -22137,9 +22137,9 @@
       <c r="BX162" s="62"/>
     </row>
     <row r="163" spans="1:76">
-      <c r="A163" s="185"/>
-      <c r="H163" s="186"/>
-      <c r="I163" s="180"/>
+      <c r="A163" s="227"/>
+      <c r="H163" s="228"/>
+      <c r="I163" s="222"/>
       <c r="J163" s="136" t="s">
         <v>197</v>
       </c>
@@ -22290,9 +22290,9 @@
       <c r="BX163" s="62"/>
     </row>
     <row r="164" spans="1:76">
-      <c r="A164" s="185"/>
-      <c r="H164" s="186"/>
-      <c r="I164" s="180"/>
+      <c r="A164" s="227"/>
+      <c r="H164" s="228"/>
+      <c r="I164" s="222"/>
       <c r="J164" s="136" t="s">
         <v>198</v>
       </c>
@@ -22443,9 +22443,9 @@
       <c r="BX164" s="62"/>
     </row>
     <row r="165" spans="1:76">
-      <c r="A165" s="185"/>
-      <c r="H165" s="186"/>
-      <c r="I165" s="180"/>
+      <c r="A165" s="227"/>
+      <c r="H165" s="228"/>
+      <c r="I165" s="222"/>
       <c r="J165" s="136" t="s">
         <v>199</v>
       </c>
@@ -22588,9 +22588,9 @@
       <c r="BX165" s="62"/>
     </row>
     <row r="166" spans="1:76">
-      <c r="A166" s="185"/>
-      <c r="H166" s="186"/>
-      <c r="I166" s="180"/>
+      <c r="A166" s="227"/>
+      <c r="H166" s="228"/>
+      <c r="I166" s="222"/>
       <c r="R166" s="167">
         <v>-6.4081721749267101E-2</v>
       </c>
@@ -22729,9 +22729,9 @@
       <c r="BX166" s="62"/>
     </row>
     <row r="167" spans="1:76">
-      <c r="A167" s="185"/>
-      <c r="H167" s="186"/>
-      <c r="I167" s="180"/>
+      <c r="A167" s="227"/>
+      <c r="H167" s="228"/>
+      <c r="I167" s="222"/>
       <c r="J167" s="136" t="s">
         <v>200</v>
       </c>
@@ -22879,17 +22879,17 @@
       <c r="BX167" s="100"/>
     </row>
     <row r="168" spans="1:76">
-      <c r="A168" s="185"/>
-      <c r="H168" s="186"/>
-      <c r="I168" s="180"/>
+      <c r="A168" s="227"/>
+      <c r="H168" s="228"/>
+      <c r="I168" s="222"/>
       <c r="J168" s="66" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="169" spans="1:76">
-      <c r="A169" s="185"/>
-      <c r="H169" s="186"/>
-      <c r="I169" s="180"/>
+      <c r="A169" s="227"/>
+      <c r="H169" s="228"/>
+      <c r="I169" s="222"/>
       <c r="J169" s="79">
         <f>J149+$K$80</f>
         <v>0.17733177870371453</v>
@@ -22953,9 +22953,9 @@
       <c r="BT169" s="148"/>
     </row>
     <row r="170" spans="1:76">
-      <c r="A170" s="185"/>
-      <c r="H170" s="186"/>
-      <c r="I170" s="180"/>
+      <c r="A170" s="227"/>
+      <c r="H170" s="228"/>
+      <c r="I170" s="222"/>
       <c r="J170" s="79">
         <f t="shared" si="6"/>
         <v>-7.1731152168944226E-2</v>
@@ -23124,9 +23124,9 @@
       </c>
     </row>
     <row r="171" spans="1:76">
-      <c r="A171" s="185"/>
-      <c r="H171" s="186"/>
-      <c r="I171" s="180"/>
+      <c r="A171" s="227"/>
+      <c r="H171" s="228"/>
+      <c r="I171" s="222"/>
       <c r="J171" s="79">
         <f t="shared" si="6"/>
         <v>-0.1209952988598974</v>
@@ -23295,9 +23295,9 @@
       </c>
     </row>
     <row r="172" spans="1:76">
-      <c r="A172" s="185"/>
-      <c r="H172" s="186"/>
-      <c r="I172" s="180"/>
+      <c r="A172" s="227"/>
+      <c r="H172" s="228"/>
+      <c r="I172" s="222"/>
       <c r="J172" s="139" t="s">
         <v>204</v>
       </c>
@@ -23460,9 +23460,9 @@
       </c>
     </row>
     <row r="173" spans="1:76">
-      <c r="A173" s="185"/>
-      <c r="H173" s="186"/>
-      <c r="I173" s="180"/>
+      <c r="A173" s="227"/>
+      <c r="H173" s="228"/>
+      <c r="I173" s="222"/>
       <c r="J173" s="139" t="s">
         <v>204</v>
       </c>
@@ -23625,9 +23625,9 @@
       </c>
     </row>
     <row r="174" spans="1:76">
-      <c r="A174" s="185"/>
-      <c r="H174" s="186"/>
-      <c r="I174" s="180"/>
+      <c r="A174" s="227"/>
+      <c r="H174" s="228"/>
+      <c r="I174" s="222"/>
       <c r="J174" s="79">
         <f>J154+$K$80</f>
         <v>3.4139298817314881E-2</v>
@@ -23796,9 +23796,9 @@
       </c>
     </row>
     <row r="175" spans="1:76">
-      <c r="A175" s="185"/>
-      <c r="H175" s="186"/>
-      <c r="I175" s="180"/>
+      <c r="A175" s="227"/>
+      <c r="H175" s="228"/>
+      <c r="I175" s="222"/>
       <c r="J175" s="133">
         <f>N169+J155</f>
         <v>0.74811951076032823</v>
@@ -23967,9 +23967,9 @@
       </c>
     </row>
     <row r="176" spans="1:76">
-      <c r="A176" s="185"/>
-      <c r="H176" s="186"/>
-      <c r="I176" s="180"/>
+      <c r="A176" s="227"/>
+      <c r="H176" s="228"/>
+      <c r="I176" s="222"/>
       <c r="J176" s="133">
         <f>J156+N170</f>
         <v>1.7846884111102981E-2</v>
@@ -24138,9 +24138,9 @@
       </c>
     </row>
     <row r="177" spans="1:73">
-      <c r="A177" s="185"/>
-      <c r="H177" s="186"/>
-      <c r="I177" s="180"/>
+      <c r="A177" s="227"/>
+      <c r="H177" s="228"/>
+      <c r="I177" s="222"/>
       <c r="J177" s="133">
         <f>J157+N171</f>
         <v>-0.48117317558915773</v>
@@ -24309,9 +24309,9 @@
       </c>
     </row>
     <row r="178" spans="1:73">
-      <c r="A178" s="185"/>
-      <c r="H178" s="186"/>
-      <c r="I178" s="180"/>
+      <c r="A178" s="227"/>
+      <c r="H178" s="228"/>
+      <c r="I178" s="222"/>
       <c r="J178" s="133" t="s">
         <v>194</v>
       </c>
@@ -24474,9 +24474,9 @@
       </c>
     </row>
     <row r="179" spans="1:73">
-      <c r="A179" s="185"/>
-      <c r="H179" s="186"/>
-      <c r="I179" s="180"/>
+      <c r="A179" s="227"/>
+      <c r="H179" s="228"/>
+      <c r="I179" s="222"/>
       <c r="J179" s="133" t="s">
         <v>194</v>
       </c>
@@ -24643,9 +24643,9 @@
       </c>
     </row>
     <row r="180" spans="1:73">
-      <c r="A180" s="185"/>
-      <c r="H180" s="186"/>
-      <c r="I180" s="180"/>
+      <c r="A180" s="227"/>
+      <c r="H180" s="228"/>
+      <c r="I180" s="222"/>
       <c r="J180" s="133">
         <f>J160+N174</f>
         <v>7.6003032330088038E-2</v>
@@ -24818,11 +24818,11 @@
       </c>
     </row>
     <row r="181" spans="1:73">
-      <c r="A181" s="185"/>
-      <c r="H181" s="186" t="s">
+      <c r="A181" s="227"/>
+      <c r="H181" s="228" t="s">
         <v>57</v>
       </c>
-      <c r="I181" s="180"/>
+      <c r="I181" s="222"/>
       <c r="Q181" s="48"/>
       <c r="R181" s="48"/>
       <c r="V181" s="82"/>
@@ -24946,9 +24946,9 @@
       </c>
     </row>
     <row r="182" spans="1:73">
-      <c r="A182" s="185"/>
-      <c r="H182" s="186"/>
-      <c r="I182" s="180"/>
+      <c r="A182" s="227"/>
+      <c r="H182" s="228"/>
+      <c r="I182" s="222"/>
       <c r="J182" s="136" t="s">
         <v>205</v>
       </c>
@@ -24961,9 +24961,9 @@
       <c r="AF182" s="48"/>
     </row>
     <row r="183" spans="1:73">
-      <c r="A183" s="185"/>
-      <c r="H183" s="186"/>
-      <c r="I183" s="180"/>
+      <c r="A183" s="227"/>
+      <c r="H183" s="228"/>
+      <c r="I183" s="222"/>
       <c r="J183" s="136" t="s">
         <v>206</v>
       </c>
@@ -24976,9 +24976,9 @@
       <c r="AF183" s="48"/>
     </row>
     <row r="184" spans="1:73">
-      <c r="A184" s="185"/>
-      <c r="H184" s="186"/>
-      <c r="I184" s="180"/>
+      <c r="A184" s="227"/>
+      <c r="H184" s="228"/>
+      <c r="I184" s="222"/>
       <c r="J184" s="136" t="s">
         <v>207</v>
       </c>
@@ -25001,9 +25001,9 @@
       <c r="AF184" s="48"/>
     </row>
     <row r="185" spans="1:73">
-      <c r="A185" s="185"/>
-      <c r="H185" s="186"/>
-      <c r="I185" s="180"/>
+      <c r="A185" s="227"/>
+      <c r="H185" s="228"/>
+      <c r="I185" s="222"/>
       <c r="J185" s="136" t="s">
         <v>208</v>
       </c>
@@ -25029,9 +25029,9 @@
       <c r="AF185" s="48"/>
     </row>
     <row r="186" spans="1:73">
-      <c r="A186" s="185"/>
-      <c r="H186" s="186"/>
-      <c r="I186" s="180"/>
+      <c r="A186" s="227"/>
+      <c r="H186" s="228"/>
+      <c r="I186" s="222"/>
       <c r="Q186" s="48"/>
       <c r="R186" s="48"/>
       <c r="S186" s="48"/>
@@ -25050,9 +25050,9 @@
       <c r="AF186" s="48"/>
     </row>
     <row r="187" spans="1:73">
-      <c r="A187" s="185"/>
-      <c r="H187" s="186"/>
-      <c r="I187" s="180"/>
+      <c r="A187" s="227"/>
+      <c r="H187" s="228"/>
+      <c r="I187" s="222"/>
       <c r="Q187" s="48"/>
       <c r="R187" s="48"/>
       <c r="S187" s="48"/>
@@ -25071,9 +25071,9 @@
       <c r="AF187" s="48"/>
     </row>
     <row r="188" spans="1:73">
-      <c r="A188" s="185"/>
-      <c r="H188" s="186"/>
-      <c r="I188" s="180"/>
+      <c r="A188" s="227"/>
+      <c r="H188" s="228"/>
+      <c r="I188" s="222"/>
       <c r="Q188" s="48"/>
       <c r="R188" s="48"/>
       <c r="S188" s="48"/>
@@ -25092,9 +25092,9 @@
       <c r="AF188" s="48"/>
     </row>
     <row r="189" spans="1:73">
-      <c r="A189" s="185"/>
-      <c r="H189" s="186"/>
-      <c r="I189" s="180"/>
+      <c r="A189" s="227"/>
+      <c r="H189" s="228"/>
+      <c r="I189" s="222"/>
       <c r="Q189" s="48"/>
       <c r="R189" s="48"/>
       <c r="S189" s="48"/>
@@ -25113,9 +25113,9 @@
       <c r="AF189" s="48"/>
     </row>
     <row r="190" spans="1:73">
-      <c r="A190" s="185"/>
-      <c r="H190" s="186"/>
-      <c r="I190" s="180"/>
+      <c r="A190" s="227"/>
+      <c r="H190" s="228"/>
+      <c r="I190" s="222"/>
       <c r="Q190" s="48"/>
       <c r="R190" s="48"/>
       <c r="S190" s="48"/>
@@ -25134,9 +25134,9 @@
       <c r="AF190" s="48"/>
     </row>
     <row r="191" spans="1:73">
-      <c r="A191" s="185"/>
-      <c r="H191" s="186"/>
-      <c r="I191" s="180"/>
+      <c r="A191" s="227"/>
+      <c r="H191" s="228"/>
+      <c r="I191" s="222"/>
       <c r="Q191" s="48"/>
       <c r="R191" s="48"/>
       <c r="S191" s="48"/>
@@ -25155,9 +25155,9 @@
       <c r="AF191" s="48"/>
     </row>
     <row r="192" spans="1:73">
-      <c r="A192" s="185"/>
-      <c r="H192" s="186"/>
-      <c r="I192" s="180"/>
+      <c r="A192" s="227"/>
+      <c r="H192" s="228"/>
+      <c r="I192" s="222"/>
       <c r="Q192" s="48"/>
       <c r="R192" s="48"/>
       <c r="S192" s="48"/>
@@ -25176,9 +25176,9 @@
       <c r="AF192" s="48"/>
     </row>
     <row r="193" spans="1:32">
-      <c r="A193" s="185"/>
-      <c r="H193" s="186"/>
-      <c r="I193" s="180"/>
+      <c r="A193" s="227"/>
+      <c r="H193" s="228"/>
+      <c r="I193" s="222"/>
       <c r="Q193" s="48"/>
       <c r="R193" s="48"/>
       <c r="S193" s="48"/>
@@ -25197,9 +25197,9 @@
       <c r="AF193" s="48"/>
     </row>
     <row r="194" spans="1:32">
-      <c r="A194" s="185"/>
-      <c r="H194" s="186"/>
-      <c r="I194" s="180"/>
+      <c r="A194" s="227"/>
+      <c r="H194" s="228"/>
+      <c r="I194" s="222"/>
       <c r="Q194" s="48"/>
       <c r="R194" s="48"/>
       <c r="S194" s="48"/>
@@ -25218,9 +25218,9 @@
       <c r="AF194" s="48"/>
     </row>
     <row r="195" spans="1:32">
-      <c r="A195" s="185"/>
-      <c r="H195" s="186"/>
-      <c r="I195" s="181"/>
+      <c r="A195" s="227"/>
+      <c r="H195" s="228"/>
+      <c r="I195" s="223"/>
       <c r="Q195" s="48"/>
       <c r="R195" s="48"/>
       <c r="S195" s="48"/>
@@ -25239,8 +25239,8 @@
       <c r="AF195" s="48"/>
     </row>
     <row r="196" spans="1:32">
-      <c r="A196" s="185"/>
-      <c r="H196" s="186"/>
+      <c r="A196" s="227"/>
+      <c r="H196" s="228"/>
       <c r="Q196" s="48"/>
       <c r="R196" s="48"/>
       <c r="S196" s="48"/>
@@ -25259,8 +25259,8 @@
       <c r="AF196" s="48"/>
     </row>
     <row r="197" spans="1:32">
-      <c r="A197" s="185"/>
-      <c r="H197" s="186"/>
+      <c r="A197" s="227"/>
+      <c r="H197" s="228"/>
       <c r="I197" t="s">
         <v>210</v>
       </c>
@@ -25284,8 +25284,8 @@
       <c r="AF197" s="48"/>
     </row>
     <row r="198" spans="1:32">
-      <c r="A198" s="185"/>
-      <c r="H198" s="186"/>
+      <c r="A198" s="227"/>
+      <c r="H198" s="228"/>
       <c r="I198" s="138">
         <f>BM170</f>
         <v>0.73417077039396383</v>
@@ -25366,8 +25366,8 @@
       <c r="AF198" s="48"/>
     </row>
     <row r="199" spans="1:32">
-      <c r="A199" s="185"/>
-      <c r="H199" s="186"/>
+      <c r="A199" s="227"/>
+      <c r="H199" s="228"/>
       <c r="I199" s="138">
         <f t="shared" ref="I199:I209" si="47">BM171</f>
         <v>5.0614700708782497E-3</v>
@@ -25442,8 +25442,8 @@
       </c>
     </row>
     <row r="200" spans="1:32">
-      <c r="A200" s="185"/>
-      <c r="H200" s="186"/>
+      <c r="A200" s="227"/>
+      <c r="H200" s="228"/>
       <c r="I200" s="138">
         <f t="shared" si="47"/>
         <v>-0.64379958745578392</v>
@@ -25518,8 +25518,8 @@
       </c>
     </row>
     <row r="201" spans="1:32">
-      <c r="A201" s="185"/>
-      <c r="H201" s="186"/>
+      <c r="A201" s="227"/>
+      <c r="H201" s="228"/>
       <c r="I201" s="138">
         <f t="shared" si="47"/>
         <v>8.2555253334654854E-2</v>
@@ -25594,8 +25594,8 @@
       </c>
     </row>
     <row r="202" spans="1:32">
-      <c r="A202" s="185"/>
-      <c r="H202" s="186"/>
+      <c r="A202" s="227"/>
+      <c r="H202" s="228"/>
       <c r="I202" s="138">
         <f t="shared" si="47"/>
         <v>7.981115885475433E-3</v>
@@ -25670,8 +25670,8 @@
       </c>
     </row>
     <row r="203" spans="1:32">
-      <c r="A203" s="185"/>
-      <c r="H203" s="186"/>
+      <c r="A203" s="227"/>
+      <c r="H203" s="228"/>
       <c r="I203" s="138">
         <f t="shared" si="47"/>
         <v>7.1407564283379715E-2</v>
@@ -25746,8 +25746,8 @@
       </c>
     </row>
     <row r="204" spans="1:32">
-      <c r="A204" s="185"/>
-      <c r="H204" s="186"/>
+      <c r="A204" s="227"/>
+      <c r="H204" s="228"/>
       <c r="I204" s="138">
         <f t="shared" si="47"/>
         <v>0.12302209136949269</v>
@@ -25822,8 +25822,8 @@
       </c>
     </row>
     <row r="205" spans="1:32">
-      <c r="A205" s="185"/>
-      <c r="H205" s="186"/>
+      <c r="A205" s="227"/>
+      <c r="H205" s="228"/>
       <c r="I205" s="138">
         <f t="shared" si="47"/>
         <v>7.4421979125643724E-3</v>
@@ -25898,8 +25898,8 @@
       </c>
     </row>
     <row r="206" spans="1:32">
-      <c r="A206" s="185"/>
-      <c r="H206" s="186"/>
+      <c r="A206" s="227"/>
+      <c r="H206" s="228"/>
       <c r="I206" s="138">
         <f t="shared" si="47"/>
         <v>1.532037228709684E-2</v>
@@ -25974,8 +25974,8 @@
       </c>
     </row>
     <row r="207" spans="1:32">
-      <c r="A207" s="185"/>
-      <c r="H207" s="186"/>
+      <c r="A207" s="227"/>
+      <c r="H207" s="228"/>
       <c r="I207" s="138">
         <f t="shared" si="47"/>
         <v>0.17214669191863699</v>
@@ -26050,8 +26050,8 @@
       </c>
     </row>
     <row r="208" spans="1:32">
-      <c r="A208" s="185"/>
-      <c r="H208" s="186"/>
+      <c r="A208" s="227"/>
+      <c r="H208" s="228"/>
       <c r="I208" s="138">
         <f t="shared" si="47"/>
         <v>7.1328638147423046E-3</v>
@@ -26126,8 +26126,8 @@
       </c>
     </row>
     <row r="209" spans="1:53">
-      <c r="A209" s="185"/>
-      <c r="H209" s="186" t="s">
+      <c r="A209" s="227"/>
+      <c r="H209" s="228" t="s">
         <v>57</v>
       </c>
       <c r="I209" s="138">
@@ -26204,33 +26204,33 @@
       </c>
     </row>
     <row r="210" spans="1:53">
-      <c r="A210" s="185"/>
-      <c r="H210" s="186"/>
+      <c r="A210" s="227"/>
+      <c r="H210" s="228"/>
     </row>
     <row r="211" spans="1:53">
-      <c r="A211" s="185"/>
-      <c r="H211" s="186"/>
+      <c r="A211" s="227"/>
+      <c r="H211" s="228"/>
       <c r="I211" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="212" spans="1:53">
-      <c r="A212" s="185"/>
-      <c r="H212" s="186"/>
+      <c r="A212" s="227"/>
+      <c r="H212" s="228"/>
       <c r="I212" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="213" spans="1:53">
-      <c r="A213" s="185"/>
-      <c r="H213" s="186"/>
+      <c r="A213" s="227"/>
+      <c r="H213" s="228"/>
       <c r="I213" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="214" spans="1:53">
-      <c r="A214" s="185"/>
-      <c r="H214" s="186"/>
+      <c r="A214" s="227"/>
+      <c r="H214" s="228"/>
       <c r="I214">
         <f>O2-S198</f>
         <v>5.5361731480301803E-2</v>
@@ -26269,8 +26269,8 @@
       </c>
     </row>
     <row r="215" spans="1:53">
-      <c r="A215" s="185"/>
-      <c r="H215" s="186"/>
+      <c r="A215" s="227"/>
+      <c r="H215" s="228"/>
       <c r="I215">
         <f t="shared" ref="I215:I225" si="58">O3-S199</f>
         <v>0.4639114564964561</v>
@@ -26309,8 +26309,8 @@
       </c>
     </row>
     <row r="216" spans="1:53">
-      <c r="A216" s="185"/>
-      <c r="H216" s="186"/>
+      <c r="A216" s="227"/>
+      <c r="H216" s="228"/>
       <c r="I216">
         <f t="shared" si="58"/>
         <v>-0.33183846062721079</v>
@@ -26349,8 +26349,8 @@
       </c>
     </row>
     <row r="217" spans="1:53">
-      <c r="A217" s="185"/>
-      <c r="H217" s="186"/>
+      <c r="A217" s="227"/>
+      <c r="H217" s="228"/>
       <c r="I217">
         <f t="shared" si="58"/>
         <v>0.32489659733326726</v>
@@ -26403,8 +26403,8 @@
       </c>
     </row>
     <row r="218" spans="1:53">
-      <c r="A218" s="185"/>
-      <c r="H218" s="186"/>
+      <c r="A218" s="227"/>
+      <c r="H218" s="228"/>
       <c r="I218">
         <f t="shared" si="58"/>
         <v>-0.70618504579427377</v>
@@ -26472,8 +26472,8 @@
       </c>
     </row>
     <row r="219" spans="1:53">
-      <c r="A219" s="185"/>
-      <c r="H219" s="186"/>
+      <c r="A219" s="227"/>
+      <c r="H219" s="228"/>
       <c r="I219">
         <f t="shared" si="58"/>
         <v>-0.38299991821416901</v>
@@ -26539,8 +26539,8 @@
       </c>
     </row>
     <row r="220" spans="1:53">
-      <c r="A220" s="185"/>
-      <c r="H220" s="186"/>
+      <c r="A220" s="227"/>
+      <c r="H220" s="228"/>
       <c r="I220">
         <f t="shared" si="58"/>
         <v>0.84395582543152536</v>
@@ -26606,8 +26606,8 @@
       </c>
     </row>
     <row r="221" spans="1:53">
-      <c r="A221" s="185"/>
-      <c r="H221" s="186"/>
+      <c r="A221" s="227"/>
+      <c r="H221" s="228"/>
       <c r="I221">
         <f t="shared" si="58"/>
         <v>-0.39323061989562819</v>
@@ -26673,8 +26673,8 @@
       </c>
     </row>
     <row r="222" spans="1:53">
-      <c r="A222" s="185"/>
-      <c r="H222" s="186"/>
+      <c r="A222" s="227"/>
+      <c r="H222" s="228"/>
       <c r="I222">
         <f t="shared" si="58"/>
         <v>-0.82528374861435483</v>
@@ -26740,8 +26740,8 @@
       </c>
     </row>
     <row r="223" spans="1:53">
-      <c r="A223" s="185"/>
-      <c r="H223" s="186"/>
+      <c r="A223" s="227"/>
+      <c r="H223" s="228"/>
       <c r="I223">
         <f t="shared" si="58"/>
         <v>-0.30696363459593184</v>
@@ -26807,8 +26807,8 @@
       </c>
     </row>
     <row r="224" spans="1:53">
-      <c r="A224" s="185"/>
-      <c r="H224" s="186"/>
+      <c r="A224" s="227"/>
+      <c r="H224" s="228"/>
       <c r="I224">
         <f t="shared" si="58"/>
         <v>-0.66316981319073709</v>
@@ -26874,8 +26874,8 @@
       </c>
     </row>
     <row r="225" spans="1:63">
-      <c r="A225" s="185"/>
-      <c r="H225" s="186"/>
+      <c r="A225" s="227"/>
+      <c r="H225" s="228"/>
       <c r="I225">
         <f t="shared" si="58"/>
         <v>-0.7645516586271256</v>
@@ -26941,8 +26941,8 @@
       </c>
     </row>
     <row r="226" spans="1:63">
-      <c r="A226" s="185"/>
-      <c r="H226" s="186"/>
+      <c r="A226" s="227"/>
+      <c r="H226" s="228"/>
       <c r="AD226">
         <v>-0.31466518493703299</v>
       </c>
@@ -26966,8 +26966,8 @@
       </c>
     </row>
     <row r="227" spans="1:63">
-      <c r="A227" s="185"/>
-      <c r="H227" s="187" t="s">
+      <c r="A227" s="227"/>
+      <c r="H227" s="229" t="s">
         <v>215</v>
       </c>
       <c r="W227" s="152">
@@ -26995,8 +26995,8 @@
       <c r="BK227" s="82"/>
     </row>
     <row r="228" spans="1:63">
-      <c r="A228" s="185"/>
-      <c r="H228" s="187"/>
+      <c r="A228" s="227"/>
+      <c r="H228" s="229"/>
       <c r="I228" s="14" t="s">
         <v>9</v>
       </c>
@@ -27056,8 +27056,8 @@
       <c r="BK228" s="82"/>
     </row>
     <row r="229" spans="1:63">
-      <c r="A229" s="185"/>
-      <c r="H229" s="187"/>
+      <c r="A229" s="227"/>
+      <c r="H229" s="229"/>
       <c r="I229" s="16">
         <v>41053</v>
       </c>
@@ -27140,7 +27140,7 @@
       <c r="BK229" s="82"/>
     </row>
     <row r="230" spans="1:63">
-      <c r="H230" s="187"/>
+      <c r="H230" s="229"/>
       <c r="I230" s="16">
         <v>41054</v>
       </c>
@@ -27214,7 +27214,7 @@
       <c r="BK230" s="82"/>
     </row>
     <row r="231" spans="1:63">
-      <c r="H231" s="187"/>
+      <c r="H231" s="229"/>
       <c r="I231" s="16">
         <v>41058</v>
       </c>
@@ -27252,7 +27252,7 @@
       <c r="BK231" s="82"/>
     </row>
     <row r="232" spans="1:63">
-      <c r="H232" s="187"/>
+      <c r="H232" s="229"/>
       <c r="I232" s="16">
         <v>41059</v>
       </c>
@@ -27268,10 +27268,10 @@
       <c r="M232">
         <v>28.19</v>
       </c>
-      <c r="P232" s="200" t="s">
+      <c r="P232" s="210" t="s">
         <v>224</v>
       </c>
-      <c r="Q232" s="200"/>
+      <c r="Q232" s="210"/>
       <c r="R232">
         <f>COUNT(I242:N242)-(K14+1)</f>
         <v>2</v>
@@ -27337,7 +27337,7 @@
       <c r="BK232" s="82"/>
     </row>
     <row r="233" spans="1:63">
-      <c r="H233" s="187"/>
+      <c r="H233" s="229"/>
       <c r="I233" t="s">
         <v>20</v>
       </c>
@@ -27525,7 +27525,7 @@
       <c r="BK233" s="82"/>
     </row>
     <row r="234" spans="1:63">
-      <c r="H234" s="187"/>
+      <c r="H234" s="229"/>
       <c r="I234" t="s">
         <v>17</v>
       </c>
@@ -27611,7 +27611,7 @@
       <c r="BK234" s="82"/>
     </row>
     <row r="235" spans="1:63">
-      <c r="H235" s="187"/>
+      <c r="H235" s="229"/>
       <c r="I235" s="14" t="s">
         <v>9</v>
       </c>
@@ -27696,7 +27696,7 @@
       <c r="BK235" s="82"/>
     </row>
     <row r="236" spans="1:63">
-      <c r="H236" s="187"/>
+      <c r="H236" s="229"/>
       <c r="I236" s="16">
         <v>41053</v>
       </c>
@@ -27719,48 +27719,48 @@
       <c r="U236" s="155">
         <v>2</v>
       </c>
-      <c r="W236" s="201" t="s">
+      <c r="W236" s="218" t="s">
         <v>227</v>
       </c>
-      <c r="X236" s="202"/>
-      <c r="Y236" s="202"/>
-      <c r="Z236" s="202"/>
-      <c r="AA236" s="202"/>
+      <c r="X236" s="219"/>
+      <c r="Y236" s="219"/>
+      <c r="Z236" s="219"/>
+      <c r="AA236" s="219"/>
       <c r="AB236" s="48"/>
       <c r="AC236" s="48"/>
       <c r="AD236" s="48"/>
       <c r="AE236" s="82"/>
       <c r="AF236" s="82"/>
-      <c r="AG236" s="202" t="s">
+      <c r="AG236" s="219" t="s">
         <v>227</v>
       </c>
-      <c r="AH236" s="202"/>
-      <c r="AI236" s="202"/>
-      <c r="AJ236" s="202"/>
-      <c r="AK236" s="202"/>
+      <c r="AH236" s="219"/>
+      <c r="AI236" s="219"/>
+      <c r="AJ236" s="219"/>
+      <c r="AK236" s="219"/>
       <c r="AL236" s="48"/>
       <c r="AM236" s="48"/>
       <c r="AN236" s="48"/>
       <c r="AO236" s="96"/>
-      <c r="AQ236" s="201" t="s">
+      <c r="AQ236" s="218" t="s">
         <v>227</v>
       </c>
-      <c r="AR236" s="202"/>
-      <c r="AS236" s="202"/>
-      <c r="AT236" s="202"/>
-      <c r="AU236" s="202"/>
+      <c r="AR236" s="219"/>
+      <c r="AS236" s="219"/>
+      <c r="AT236" s="219"/>
+      <c r="AU236" s="219"/>
       <c r="AV236" s="48"/>
       <c r="AW236" s="48"/>
       <c r="AX236" s="48"/>
       <c r="AY236" s="82"/>
       <c r="AZ236" s="82"/>
-      <c r="BA236" s="202" t="s">
+      <c r="BA236" s="219" t="s">
         <v>227</v>
       </c>
-      <c r="BB236" s="202"/>
-      <c r="BC236" s="202"/>
-      <c r="BD236" s="202"/>
-      <c r="BE236" s="202"/>
+      <c r="BB236" s="219"/>
+      <c r="BC236" s="219"/>
+      <c r="BD236" s="219"/>
+      <c r="BE236" s="219"/>
       <c r="BF236" s="48"/>
       <c r="BG236" s="48"/>
       <c r="BH236" s="48"/>
@@ -27769,7 +27769,7 @@
       <c r="BK236" s="82"/>
     </row>
     <row r="237" spans="1:63">
-      <c r="H237" s="187"/>
+      <c r="H237" s="229"/>
       <c r="I237" s="16">
         <v>41054</v>
       </c>
@@ -27902,7 +27902,7 @@
       <c r="BK237" s="82"/>
     </row>
     <row r="238" spans="1:63">
-      <c r="H238" s="187"/>
+      <c r="H238" s="229"/>
       <c r="I238" s="16">
         <v>41058</v>
       </c>
@@ -28040,7 +28040,7 @@
       <c r="BK238" s="82"/>
     </row>
     <row r="239" spans="1:63">
-      <c r="H239" s="187"/>
+      <c r="H239" s="229"/>
       <c r="I239" s="16">
         <v>41059</v>
       </c>
@@ -28126,7 +28126,7 @@
       <c r="BK239" s="82"/>
     </row>
     <row r="240" spans="1:63">
-      <c r="H240" s="187"/>
+      <c r="H240" s="229"/>
       <c r="I240" t="s">
         <v>228</v>
       </c>
@@ -28188,15 +28188,15 @@
       <c r="BK240" s="82"/>
     </row>
     <row r="241" spans="8:63">
-      <c r="H241" s="187"/>
+      <c r="H241" s="229"/>
       <c r="I241" t="s">
         <v>229</v>
       </c>
-      <c r="W241" s="194" t="s">
+      <c r="W241" s="192" t="s">
         <v>48</v>
       </c>
-      <c r="X241" s="188"/>
-      <c r="Y241" s="188"/>
+      <c r="X241" s="193"/>
+      <c r="Y241" s="193"/>
       <c r="Z241" s="48"/>
       <c r="AA241" s="48"/>
       <c r="AB241" s="62"/>
@@ -28213,11 +28213,11 @@
         <v>-3.3181063962652572E-2</v>
       </c>
       <c r="AF241" s="48"/>
-      <c r="AG241" s="194" t="s">
+      <c r="AG241" s="192" t="s">
         <v>48</v>
       </c>
-      <c r="AH241" s="188"/>
-      <c r="AI241" s="188"/>
+      <c r="AH241" s="193"/>
+      <c r="AI241" s="193"/>
       <c r="AJ241" s="48"/>
       <c r="AK241" s="48"/>
       <c r="AL241" s="62"/>
@@ -28233,11 +28233,11 @@
         <f>AJ288</f>
         <v>-4.6207997125932931E-2</v>
       </c>
-      <c r="AQ241" s="194" t="s">
+      <c r="AQ241" s="192" t="s">
         <v>48</v>
       </c>
-      <c r="AR241" s="188"/>
-      <c r="AS241" s="188"/>
+      <c r="AR241" s="193"/>
+      <c r="AS241" s="193"/>
       <c r="AT241" s="48"/>
       <c r="AU241" s="48"/>
       <c r="AV241" s="62"/>
@@ -28254,11 +28254,11 @@
         <v>-3.1230345507508285E-2</v>
       </c>
       <c r="AZ241" s="48"/>
-      <c r="BA241" s="194" t="s">
+      <c r="BA241" s="192" t="s">
         <v>48</v>
       </c>
-      <c r="BB241" s="188"/>
-      <c r="BC241" s="188"/>
+      <c r="BB241" s="193"/>
+      <c r="BC241" s="193"/>
       <c r="BD241" s="48"/>
       <c r="BE241" s="48"/>
       <c r="BF241" s="62"/>
@@ -28278,7 +28278,7 @@
       <c r="BK241" s="82"/>
     </row>
     <row r="242" spans="8:63">
-      <c r="H242" s="187"/>
+      <c r="H242" s="229"/>
       <c r="I242" s="25">
         <v>1</v>
       </c>
@@ -28343,7 +28343,7 @@
       <c r="BK242" s="82"/>
     </row>
     <row r="243" spans="8:63">
-      <c r="H243" s="187"/>
+      <c r="H243" s="229"/>
       <c r="I243" s="26">
         <v>1</v>
       </c>
@@ -28371,11 +28371,11 @@
       </c>
       <c r="X243" s="48"/>
       <c r="Y243" s="48"/>
-      <c r="Z243" s="188" t="s">
+      <c r="Z243" s="193" t="s">
         <v>51</v>
       </c>
-      <c r="AA243" s="188"/>
-      <c r="AB243" s="189"/>
+      <c r="AA243" s="193"/>
+      <c r="AB243" s="203"/>
       <c r="AC243" s="157"/>
       <c r="AD243" s="48"/>
       <c r="AE243" s="48"/>
@@ -28385,11 +28385,11 @@
       </c>
       <c r="AH243" s="48"/>
       <c r="AI243" s="48"/>
-      <c r="AJ243" s="188" t="s">
+      <c r="AJ243" s="193" t="s">
         <v>51</v>
       </c>
-      <c r="AK243" s="188"/>
-      <c r="AL243" s="189"/>
+      <c r="AK243" s="193"/>
+      <c r="AL243" s="203"/>
       <c r="AM243" s="157"/>
       <c r="AN243" s="48"/>
       <c r="AO243" s="62"/>
@@ -28398,11 +28398,11 @@
       </c>
       <c r="AR243" s="48"/>
       <c r="AS243" s="48"/>
-      <c r="AT243" s="188" t="s">
+      <c r="AT243" s="193" t="s">
         <v>51</v>
       </c>
-      <c r="AU243" s="188"/>
-      <c r="AV243" s="189"/>
+      <c r="AU243" s="193"/>
+      <c r="AV243" s="203"/>
       <c r="AW243" s="157"/>
       <c r="AX243" s="48"/>
       <c r="AY243" s="48"/>
@@ -28412,11 +28412,11 @@
       </c>
       <c r="BB243" s="48"/>
       <c r="BC243" s="48"/>
-      <c r="BD243" s="188" t="s">
+      <c r="BD243" s="193" t="s">
         <v>51</v>
       </c>
-      <c r="BE243" s="188"/>
-      <c r="BF243" s="189"/>
+      <c r="BE243" s="193"/>
+      <c r="BF243" s="203"/>
       <c r="BG243" s="157"/>
       <c r="BH243" s="48"/>
       <c r="BI243" s="62"/>
@@ -28424,7 +28424,7 @@
       <c r="BK243" s="82"/>
     </row>
     <row r="244" spans="8:63">
-      <c r="H244" s="187"/>
+      <c r="H244" s="229"/>
       <c r="I244" s="30">
         <v>1</v>
       </c>
@@ -28541,7 +28541,7 @@
       <c r="BK244" s="82"/>
     </row>
     <row r="245" spans="8:63">
-      <c r="H245" s="187"/>
+      <c r="H245" s="229"/>
       <c r="I245" s="149">
         <v>1</v>
       </c>
@@ -28606,7 +28606,7 @@
       <c r="BK245" s="82"/>
     </row>
     <row r="246" spans="8:63">
-      <c r="H246" s="187"/>
+      <c r="H246" s="229"/>
       <c r="W246" s="63" t="s">
         <v>53</v>
       </c>
@@ -28849,47 +28849,47 @@
       <c r="N249" s="48"/>
       <c r="O249" s="48"/>
       <c r="P249" s="62"/>
-      <c r="W249" s="194" t="s">
+      <c r="W249" s="192" t="s">
         <v>55</v>
       </c>
-      <c r="X249" s="188"/>
-      <c r="Y249" s="188"/>
-      <c r="Z249" s="188"/>
+      <c r="X249" s="193"/>
+      <c r="Y249" s="193"/>
+      <c r="Z249" s="193"/>
       <c r="AA249" s="48"/>
       <c r="AB249" s="62"/>
       <c r="AC249" s="157"/>
       <c r="AD249" s="48"/>
       <c r="AE249" s="48"/>
       <c r="AF249" s="48"/>
-      <c r="AG249" s="194" t="s">
+      <c r="AG249" s="192" t="s">
         <v>55</v>
       </c>
-      <c r="AH249" s="188"/>
-      <c r="AI249" s="188"/>
-      <c r="AJ249" s="188"/>
+      <c r="AH249" s="193"/>
+      <c r="AI249" s="193"/>
+      <c r="AJ249" s="193"/>
       <c r="AK249" s="48"/>
       <c r="AL249" s="62"/>
       <c r="AM249" s="157"/>
       <c r="AN249" s="48"/>
       <c r="AO249" s="62"/>
-      <c r="AQ249" s="194" t="s">
+      <c r="AQ249" s="192" t="s">
         <v>55</v>
       </c>
-      <c r="AR249" s="188"/>
-      <c r="AS249" s="188"/>
-      <c r="AT249" s="188"/>
+      <c r="AR249" s="193"/>
+      <c r="AS249" s="193"/>
+      <c r="AT249" s="193"/>
       <c r="AU249" s="48"/>
       <c r="AV249" s="62"/>
       <c r="AW249" s="157"/>
       <c r="AX249" s="48"/>
       <c r="AY249" s="48"/>
       <c r="AZ249" s="48"/>
-      <c r="BA249" s="194" t="s">
+      <c r="BA249" s="192" t="s">
         <v>55</v>
       </c>
-      <c r="BB249" s="188"/>
-      <c r="BC249" s="188"/>
-      <c r="BD249" s="188"/>
+      <c r="BB249" s="193"/>
+      <c r="BC249" s="193"/>
+      <c r="BD249" s="193"/>
       <c r="BE249" s="48"/>
       <c r="BF249" s="62"/>
       <c r="BG249" s="157"/>
@@ -28985,11 +28985,11 @@
       <c r="W251" s="63"/>
       <c r="X251" s="48"/>
       <c r="Y251" s="48"/>
-      <c r="Z251" s="188" t="s">
+      <c r="Z251" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="AA251" s="188"/>
-      <c r="AB251" s="189"/>
+      <c r="AA251" s="193"/>
+      <c r="AB251" s="203"/>
       <c r="AC251" s="157"/>
       <c r="AD251" s="48"/>
       <c r="AE251" s="48"/>
@@ -28997,22 +28997,22 @@
       <c r="AG251" s="63"/>
       <c r="AH251" s="48"/>
       <c r="AI251" s="48"/>
-      <c r="AJ251" s="188" t="s">
+      <c r="AJ251" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="AK251" s="188"/>
-      <c r="AL251" s="189"/>
+      <c r="AK251" s="193"/>
+      <c r="AL251" s="203"/>
       <c r="AM251" s="157"/>
       <c r="AN251" s="48"/>
       <c r="AO251" s="62"/>
       <c r="AQ251" s="63"/>
       <c r="AR251" s="48"/>
       <c r="AS251" s="48"/>
-      <c r="AT251" s="188" t="s">
+      <c r="AT251" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="AU251" s="188"/>
-      <c r="AV251" s="189"/>
+      <c r="AU251" s="193"/>
+      <c r="AV251" s="203"/>
       <c r="AW251" s="157"/>
       <c r="AX251" s="48"/>
       <c r="AY251" s="48"/>
@@ -29020,11 +29020,11 @@
       <c r="BA251" s="63"/>
       <c r="BB251" s="48"/>
       <c r="BC251" s="48"/>
-      <c r="BD251" s="188" t="s">
+      <c r="BD251" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="BE251" s="188"/>
-      <c r="BF251" s="189"/>
+      <c r="BE251" s="193"/>
+      <c r="BF251" s="203"/>
       <c r="BG251" s="157"/>
       <c r="BH251" s="48"/>
       <c r="BI251" s="62"/>
@@ -29430,47 +29430,47 @@
       <c r="N257" s="48"/>
       <c r="O257" s="48"/>
       <c r="P257" s="62"/>
-      <c r="W257" s="194" t="s">
+      <c r="W257" s="192" t="s">
         <v>62</v>
       </c>
-      <c r="X257" s="188"/>
-      <c r="Y257" s="188"/>
-      <c r="Z257" s="188"/>
+      <c r="X257" s="193"/>
+      <c r="Y257" s="193"/>
+      <c r="Z257" s="193"/>
       <c r="AA257" s="48"/>
       <c r="AB257" s="62"/>
       <c r="AC257" s="157"/>
       <c r="AD257" s="48"/>
       <c r="AE257" s="48"/>
       <c r="AF257" s="48"/>
-      <c r="AG257" s="194" t="s">
+      <c r="AG257" s="192" t="s">
         <v>62</v>
       </c>
-      <c r="AH257" s="188"/>
-      <c r="AI257" s="188"/>
-      <c r="AJ257" s="188"/>
+      <c r="AH257" s="193"/>
+      <c r="AI257" s="193"/>
+      <c r="AJ257" s="193"/>
       <c r="AK257" s="48"/>
       <c r="AL257" s="62"/>
       <c r="AM257" s="157"/>
       <c r="AN257" s="48"/>
       <c r="AO257" s="62"/>
-      <c r="AQ257" s="194" t="s">
+      <c r="AQ257" s="192" t="s">
         <v>62</v>
       </c>
-      <c r="AR257" s="188"/>
-      <c r="AS257" s="188"/>
-      <c r="AT257" s="188"/>
+      <c r="AR257" s="193"/>
+      <c r="AS257" s="193"/>
+      <c r="AT257" s="193"/>
       <c r="AU257" s="48"/>
       <c r="AV257" s="62"/>
       <c r="AW257" s="157"/>
       <c r="AX257" s="48"/>
       <c r="AY257" s="48"/>
       <c r="AZ257" s="48"/>
-      <c r="BA257" s="194" t="s">
+      <c r="BA257" s="192" t="s">
         <v>62</v>
       </c>
-      <c r="BB257" s="188"/>
-      <c r="BC257" s="188"/>
-      <c r="BD257" s="188"/>
+      <c r="BB257" s="193"/>
+      <c r="BC257" s="193"/>
+      <c r="BD257" s="193"/>
       <c r="BE257" s="48"/>
       <c r="BF257" s="62"/>
       <c r="BG257" s="157"/>
@@ -29559,11 +29559,11 @@
       <c r="W259" s="63"/>
       <c r="X259" s="48"/>
       <c r="Y259" s="48"/>
-      <c r="Z259" s="198" t="s">
+      <c r="Z259" s="195" t="s">
         <v>63</v>
       </c>
-      <c r="AA259" s="198"/>
-      <c r="AB259" s="199"/>
+      <c r="AA259" s="195"/>
+      <c r="AB259" s="196"/>
       <c r="AC259" s="157"/>
       <c r="AD259" s="48"/>
       <c r="AE259" s="48"/>
@@ -29571,22 +29571,22 @@
       <c r="AG259" s="63"/>
       <c r="AH259" s="48"/>
       <c r="AI259" s="48"/>
-      <c r="AJ259" s="198" t="s">
+      <c r="AJ259" s="195" t="s">
         <v>63</v>
       </c>
-      <c r="AK259" s="198"/>
-      <c r="AL259" s="199"/>
+      <c r="AK259" s="195"/>
+      <c r="AL259" s="196"/>
       <c r="AM259" s="157"/>
       <c r="AN259" s="48"/>
       <c r="AO259" s="62"/>
       <c r="AQ259" s="63"/>
       <c r="AR259" s="48"/>
       <c r="AS259" s="48"/>
-      <c r="AT259" s="198" t="s">
+      <c r="AT259" s="195" t="s">
         <v>63</v>
       </c>
-      <c r="AU259" s="198"/>
-      <c r="AV259" s="199"/>
+      <c r="AU259" s="195"/>
+      <c r="AV259" s="196"/>
       <c r="AW259" s="157"/>
       <c r="AX259" s="48"/>
       <c r="AY259" s="48"/>
@@ -29594,11 +29594,11 @@
       <c r="BA259" s="63"/>
       <c r="BB259" s="48"/>
       <c r="BC259" s="48"/>
-      <c r="BD259" s="198" t="s">
+      <c r="BD259" s="195" t="s">
         <v>63</v>
       </c>
-      <c r="BE259" s="198"/>
-      <c r="BF259" s="199"/>
+      <c r="BE259" s="195"/>
+      <c r="BF259" s="196"/>
       <c r="BG259" s="157"/>
       <c r="BH259" s="48"/>
       <c r="BI259" s="62"/>
@@ -29933,48 +29933,48 @@
       <c r="N264" s="48"/>
       <c r="O264" s="48"/>
       <c r="P264" s="62"/>
-      <c r="W264" s="192" t="s">
+      <c r="W264" s="204" t="s">
         <v>64</v>
       </c>
-      <c r="X264" s="193"/>
-      <c r="Y264" s="193"/>
-      <c r="Z264" s="193"/>
-      <c r="AA264" s="193"/>
+      <c r="X264" s="205"/>
+      <c r="Y264" s="205"/>
+      <c r="Z264" s="205"/>
+      <c r="AA264" s="205"/>
       <c r="AB264" s="62"/>
       <c r="AC264" s="157"/>
       <c r="AD264" s="48"/>
       <c r="AE264" s="48"/>
       <c r="AF264" s="48"/>
-      <c r="AG264" s="192" t="s">
+      <c r="AG264" s="204" t="s">
         <v>64</v>
       </c>
-      <c r="AH264" s="193"/>
-      <c r="AI264" s="193"/>
-      <c r="AJ264" s="193"/>
-      <c r="AK264" s="193"/>
+      <c r="AH264" s="205"/>
+      <c r="AI264" s="205"/>
+      <c r="AJ264" s="205"/>
+      <c r="AK264" s="205"/>
       <c r="AL264" s="62"/>
       <c r="AM264" s="157"/>
       <c r="AN264" s="48"/>
       <c r="AO264" s="62"/>
-      <c r="AQ264" s="192" t="s">
+      <c r="AQ264" s="204" t="s">
         <v>64</v>
       </c>
-      <c r="AR264" s="193"/>
-      <c r="AS264" s="193"/>
-      <c r="AT264" s="193"/>
-      <c r="AU264" s="193"/>
+      <c r="AR264" s="205"/>
+      <c r="AS264" s="205"/>
+      <c r="AT264" s="205"/>
+      <c r="AU264" s="205"/>
       <c r="AV264" s="62"/>
       <c r="AW264" s="157"/>
       <c r="AX264" s="48"/>
       <c r="AY264" s="48"/>
       <c r="AZ264" s="48"/>
-      <c r="BA264" s="192" t="s">
+      <c r="BA264" s="204" t="s">
         <v>64</v>
       </c>
-      <c r="BB264" s="193"/>
-      <c r="BC264" s="193"/>
-      <c r="BD264" s="193"/>
-      <c r="BE264" s="193"/>
+      <c r="BB264" s="205"/>
+      <c r="BC264" s="205"/>
+      <c r="BD264" s="205"/>
+      <c r="BE264" s="205"/>
       <c r="BF264" s="62"/>
       <c r="BG264" s="157"/>
       <c r="BH264" s="48"/>
@@ -30003,47 +30003,47 @@
       <c r="N265" s="48"/>
       <c r="O265" s="48"/>
       <c r="P265" s="62"/>
-      <c r="W265" s="194" t="s">
+      <c r="W265" s="192" t="s">
         <v>65</v>
       </c>
-      <c r="X265" s="188"/>
-      <c r="Y265" s="188"/>
-      <c r="Z265" s="188"/>
+      <c r="X265" s="193"/>
+      <c r="Y265" s="193"/>
+      <c r="Z265" s="193"/>
       <c r="AA265" s="48"/>
       <c r="AB265" s="62"/>
       <c r="AC265" s="157"/>
       <c r="AD265" s="48"/>
       <c r="AE265" s="48"/>
       <c r="AF265" s="48"/>
-      <c r="AG265" s="194" t="s">
+      <c r="AG265" s="192" t="s">
         <v>65</v>
       </c>
-      <c r="AH265" s="188"/>
-      <c r="AI265" s="188"/>
-      <c r="AJ265" s="188"/>
+      <c r="AH265" s="193"/>
+      <c r="AI265" s="193"/>
+      <c r="AJ265" s="193"/>
       <c r="AK265" s="48"/>
       <c r="AL265" s="62"/>
       <c r="AM265" s="157"/>
       <c r="AN265" s="48"/>
       <c r="AO265" s="62"/>
-      <c r="AQ265" s="194" t="s">
+      <c r="AQ265" s="192" t="s">
         <v>65</v>
       </c>
-      <c r="AR265" s="188"/>
-      <c r="AS265" s="188"/>
-      <c r="AT265" s="188"/>
+      <c r="AR265" s="193"/>
+      <c r="AS265" s="193"/>
+      <c r="AT265" s="193"/>
       <c r="AU265" s="48"/>
       <c r="AV265" s="62"/>
       <c r="AW265" s="157"/>
       <c r="AX265" s="48"/>
       <c r="AY265" s="48"/>
       <c r="AZ265" s="48"/>
-      <c r="BA265" s="194" t="s">
+      <c r="BA265" s="192" t="s">
         <v>65</v>
       </c>
-      <c r="BB265" s="188"/>
-      <c r="BC265" s="188"/>
-      <c r="BD265" s="188"/>
+      <c r="BB265" s="193"/>
+      <c r="BC265" s="193"/>
+      <c r="BD265" s="193"/>
       <c r="BE265" s="48"/>
       <c r="BF265" s="62"/>
       <c r="BG265" s="157"/>
@@ -30077,11 +30077,11 @@
       <c r="W266" s="63"/>
       <c r="X266" s="48"/>
       <c r="Y266" s="48"/>
-      <c r="Z266" s="198" t="s">
+      <c r="Z266" s="195" t="s">
         <v>66</v>
       </c>
-      <c r="AA266" s="198"/>
-      <c r="AB266" s="199"/>
+      <c r="AA266" s="195"/>
+      <c r="AB266" s="196"/>
       <c r="AC266" s="157"/>
       <c r="AD266" s="48"/>
       <c r="AE266" s="48"/>
@@ -30089,22 +30089,22 @@
       <c r="AG266" s="63"/>
       <c r="AH266" s="48"/>
       <c r="AI266" s="48"/>
-      <c r="AJ266" s="198" t="s">
+      <c r="AJ266" s="195" t="s">
         <v>66</v>
       </c>
-      <c r="AK266" s="198"/>
-      <c r="AL266" s="199"/>
+      <c r="AK266" s="195"/>
+      <c r="AL266" s="196"/>
       <c r="AM266" s="157"/>
       <c r="AN266" s="48"/>
       <c r="AO266" s="62"/>
       <c r="AQ266" s="63"/>
       <c r="AR266" s="48"/>
       <c r="AS266" s="48"/>
-      <c r="AT266" s="198" t="s">
+      <c r="AT266" s="195" t="s">
         <v>66</v>
       </c>
-      <c r="AU266" s="198"/>
-      <c r="AV266" s="199"/>
+      <c r="AU266" s="195"/>
+      <c r="AV266" s="196"/>
       <c r="AW266" s="157"/>
       <c r="AX266" s="48"/>
       <c r="AY266" s="48"/>
@@ -30112,11 +30112,11 @@
       <c r="BA266" s="63"/>
       <c r="BB266" s="48"/>
       <c r="BC266" s="48"/>
-      <c r="BD266" s="198" t="s">
+      <c r="BD266" s="195" t="s">
         <v>66</v>
       </c>
-      <c r="BE266" s="198"/>
-      <c r="BF266" s="199"/>
+      <c r="BE266" s="195"/>
+      <c r="BF266" s="196"/>
       <c r="BG266" s="157"/>
       <c r="BH266" s="48"/>
       <c r="BI266" s="62"/>
@@ -30455,48 +30455,48 @@
       <c r="N271" s="48"/>
       <c r="O271" s="48"/>
       <c r="P271" s="62"/>
-      <c r="W271" s="192" t="s">
+      <c r="W271" s="204" t="s">
         <v>67</v>
       </c>
-      <c r="X271" s="193"/>
-      <c r="Y271" s="193"/>
-      <c r="Z271" s="193"/>
-      <c r="AA271" s="193"/>
+      <c r="X271" s="205"/>
+      <c r="Y271" s="205"/>
+      <c r="Z271" s="205"/>
+      <c r="AA271" s="205"/>
       <c r="AB271" s="62"/>
       <c r="AC271" s="48"/>
       <c r="AD271" s="48"/>
       <c r="AE271" s="48"/>
       <c r="AF271" s="48"/>
-      <c r="AG271" s="192" t="s">
+      <c r="AG271" s="204" t="s">
         <v>67</v>
       </c>
-      <c r="AH271" s="193"/>
-      <c r="AI271" s="193"/>
-      <c r="AJ271" s="193"/>
-      <c r="AK271" s="193"/>
+      <c r="AH271" s="205"/>
+      <c r="AI271" s="205"/>
+      <c r="AJ271" s="205"/>
+      <c r="AK271" s="205"/>
       <c r="AL271" s="62"/>
       <c r="AM271" s="48"/>
       <c r="AN271" s="48"/>
       <c r="AO271" s="62"/>
-      <c r="AQ271" s="192" t="s">
+      <c r="AQ271" s="204" t="s">
         <v>67</v>
       </c>
-      <c r="AR271" s="193"/>
-      <c r="AS271" s="193"/>
-      <c r="AT271" s="193"/>
-      <c r="AU271" s="193"/>
+      <c r="AR271" s="205"/>
+      <c r="AS271" s="205"/>
+      <c r="AT271" s="205"/>
+      <c r="AU271" s="205"/>
       <c r="AV271" s="62"/>
       <c r="AW271" s="48"/>
       <c r="AX271" s="48"/>
       <c r="AY271" s="48"/>
       <c r="AZ271" s="48"/>
-      <c r="BA271" s="192" t="s">
+      <c r="BA271" s="204" t="s">
         <v>67</v>
       </c>
-      <c r="BB271" s="193"/>
-      <c r="BC271" s="193"/>
-      <c r="BD271" s="193"/>
-      <c r="BE271" s="193"/>
+      <c r="BB271" s="205"/>
+      <c r="BC271" s="205"/>
+      <c r="BD271" s="205"/>
+      <c r="BE271" s="205"/>
       <c r="BF271" s="62"/>
       <c r="BG271" s="48"/>
       <c r="BH271" s="48"/>
@@ -30513,47 +30513,47 @@
       <c r="N272" s="48"/>
       <c r="O272" s="48"/>
       <c r="P272" s="62"/>
-      <c r="W272" s="194" t="s">
+      <c r="W272" s="192" t="s">
         <v>68</v>
       </c>
-      <c r="X272" s="188"/>
-      <c r="Y272" s="188"/>
-      <c r="Z272" s="188"/>
+      <c r="X272" s="193"/>
+      <c r="Y272" s="193"/>
+      <c r="Z272" s="193"/>
       <c r="AA272" s="48"/>
       <c r="AB272" s="62"/>
       <c r="AC272" s="48"/>
       <c r="AD272" s="48"/>
       <c r="AE272" s="48"/>
       <c r="AF272" s="48"/>
-      <c r="AG272" s="194" t="s">
+      <c r="AG272" s="192" t="s">
         <v>68</v>
       </c>
-      <c r="AH272" s="188"/>
-      <c r="AI272" s="188"/>
-      <c r="AJ272" s="188"/>
+      <c r="AH272" s="193"/>
+      <c r="AI272" s="193"/>
+      <c r="AJ272" s="193"/>
       <c r="AK272" s="48"/>
       <c r="AL272" s="62"/>
       <c r="AM272" s="48"/>
       <c r="AN272" s="48"/>
       <c r="AO272" s="62"/>
-      <c r="AQ272" s="194" t="s">
+      <c r="AQ272" s="192" t="s">
         <v>68</v>
       </c>
-      <c r="AR272" s="188"/>
-      <c r="AS272" s="188"/>
-      <c r="AT272" s="188"/>
+      <c r="AR272" s="193"/>
+      <c r="AS272" s="193"/>
+      <c r="AT272" s="193"/>
       <c r="AU272" s="48"/>
       <c r="AV272" s="62"/>
       <c r="AW272" s="48"/>
       <c r="AX272" s="48"/>
       <c r="AY272" s="48"/>
       <c r="AZ272" s="48"/>
-      <c r="BA272" s="194" t="s">
+      <c r="BA272" s="192" t="s">
         <v>68</v>
       </c>
-      <c r="BB272" s="188"/>
-      <c r="BC272" s="188"/>
-      <c r="BD272" s="188"/>
+      <c r="BB272" s="193"/>
+      <c r="BC272" s="193"/>
+      <c r="BD272" s="193"/>
       <c r="BE272" s="48"/>
       <c r="BF272" s="62"/>
       <c r="BG272" s="48"/>
@@ -30683,57 +30683,57 @@
       <c r="N275" s="99"/>
       <c r="O275" s="99"/>
       <c r="P275" s="100"/>
-      <c r="W275" s="195" t="s">
+      <c r="W275" s="198" t="s">
         <v>69</v>
       </c>
-      <c r="X275" s="196"/>
-      <c r="Y275" s="197"/>
-      <c r="Z275" s="195" t="s">
+      <c r="X275" s="199"/>
+      <c r="Y275" s="200"/>
+      <c r="Z275" s="198" t="s">
         <v>70</v>
       </c>
-      <c r="AA275" s="196"/>
-      <c r="AB275" s="197"/>
+      <c r="AA275" s="199"/>
+      <c r="AB275" s="200"/>
       <c r="AC275" s="48"/>
       <c r="AD275" s="48"/>
       <c r="AE275" s="48"/>
       <c r="AF275" s="48"/>
-      <c r="AG275" s="195" t="s">
+      <c r="AG275" s="198" t="s">
         <v>69</v>
       </c>
-      <c r="AH275" s="196"/>
-      <c r="AI275" s="197"/>
-      <c r="AJ275" s="195" t="s">
+      <c r="AH275" s="199"/>
+      <c r="AI275" s="200"/>
+      <c r="AJ275" s="198" t="s">
         <v>70</v>
       </c>
-      <c r="AK275" s="196"/>
-      <c r="AL275" s="197"/>
+      <c r="AK275" s="199"/>
+      <c r="AL275" s="200"/>
       <c r="AM275" s="48"/>
       <c r="AN275" s="48"/>
       <c r="AO275" s="62"/>
-      <c r="AQ275" s="195" t="s">
+      <c r="AQ275" s="198" t="s">
         <v>69</v>
       </c>
-      <c r="AR275" s="196"/>
-      <c r="AS275" s="197"/>
-      <c r="AT275" s="195" t="s">
+      <c r="AR275" s="199"/>
+      <c r="AS275" s="200"/>
+      <c r="AT275" s="198" t="s">
         <v>70</v>
       </c>
-      <c r="AU275" s="196"/>
-      <c r="AV275" s="197"/>
+      <c r="AU275" s="199"/>
+      <c r="AV275" s="200"/>
       <c r="AW275" s="48"/>
       <c r="AX275" s="48"/>
       <c r="AY275" s="48"/>
       <c r="AZ275" s="48"/>
-      <c r="BA275" s="195" t="s">
+      <c r="BA275" s="198" t="s">
         <v>69</v>
       </c>
-      <c r="BB275" s="196"/>
-      <c r="BC275" s="197"/>
-      <c r="BD275" s="195" t="s">
+      <c r="BB275" s="199"/>
+      <c r="BC275" s="200"/>
+      <c r="BD275" s="198" t="s">
         <v>70</v>
       </c>
-      <c r="BE275" s="196"/>
-      <c r="BF275" s="197"/>
+      <c r="BE275" s="199"/>
+      <c r="BF275" s="200"/>
       <c r="BG275" s="48"/>
       <c r="BH275" s="48"/>
       <c r="BI275" s="62"/>
@@ -30983,48 +30983,48 @@
       <c r="BK278" s="82"/>
     </row>
     <row r="279" spans="9:63">
-      <c r="W279" s="192" t="s">
+      <c r="W279" s="204" t="s">
         <v>72</v>
       </c>
-      <c r="X279" s="193"/>
-      <c r="Y279" s="193"/>
-      <c r="Z279" s="193"/>
-      <c r="AA279" s="193"/>
+      <c r="X279" s="205"/>
+      <c r="Y279" s="205"/>
+      <c r="Z279" s="205"/>
+      <c r="AA279" s="205"/>
       <c r="AB279" s="62"/>
       <c r="AC279" s="48"/>
       <c r="AD279" s="48"/>
       <c r="AE279" s="48"/>
       <c r="AF279" s="48"/>
-      <c r="AG279" s="192" t="s">
+      <c r="AG279" s="204" t="s">
         <v>72</v>
       </c>
-      <c r="AH279" s="193"/>
-      <c r="AI279" s="193"/>
-      <c r="AJ279" s="193"/>
-      <c r="AK279" s="193"/>
+      <c r="AH279" s="205"/>
+      <c r="AI279" s="205"/>
+      <c r="AJ279" s="205"/>
+      <c r="AK279" s="205"/>
       <c r="AL279" s="62"/>
       <c r="AM279" s="48"/>
       <c r="AN279" s="48"/>
       <c r="AO279" s="62"/>
-      <c r="AQ279" s="192" t="s">
+      <c r="AQ279" s="204" t="s">
         <v>72</v>
       </c>
-      <c r="AR279" s="193"/>
-      <c r="AS279" s="193"/>
-      <c r="AT279" s="193"/>
-      <c r="AU279" s="193"/>
+      <c r="AR279" s="205"/>
+      <c r="AS279" s="205"/>
+      <c r="AT279" s="205"/>
+      <c r="AU279" s="205"/>
       <c r="AV279" s="62"/>
       <c r="AW279" s="48"/>
       <c r="AX279" s="48"/>
       <c r="AY279" s="48"/>
       <c r="AZ279" s="48"/>
-      <c r="BA279" s="192" t="s">
+      <c r="BA279" s="204" t="s">
         <v>72</v>
       </c>
-      <c r="BB279" s="193"/>
-      <c r="BC279" s="193"/>
-      <c r="BD279" s="193"/>
-      <c r="BE279" s="193"/>
+      <c r="BB279" s="205"/>
+      <c r="BC279" s="205"/>
+      <c r="BD279" s="205"/>
+      <c r="BE279" s="205"/>
       <c r="BF279" s="62"/>
       <c r="BG279" s="48"/>
       <c r="BH279" s="48"/>
@@ -31033,11 +31033,11 @@
       <c r="BK279" s="82"/>
     </row>
     <row r="280" spans="9:63">
-      <c r="W280" s="194" t="s">
+      <c r="W280" s="192" t="s">
         <v>73</v>
       </c>
-      <c r="X280" s="188"/>
-      <c r="Y280" s="188"/>
+      <c r="X280" s="193"/>
+      <c r="Y280" s="193"/>
       <c r="Z280" s="48"/>
       <c r="AA280" s="48"/>
       <c r="AB280" s="62"/>
@@ -31045,22 +31045,22 @@
       <c r="AD280" s="48"/>
       <c r="AE280" s="48"/>
       <c r="AF280" s="48"/>
-      <c r="AG280" s="194" t="s">
+      <c r="AG280" s="192" t="s">
         <v>73</v>
       </c>
-      <c r="AH280" s="188"/>
-      <c r="AI280" s="188"/>
+      <c r="AH280" s="193"/>
+      <c r="AI280" s="193"/>
       <c r="AJ280" s="48"/>
       <c r="AK280" s="48"/>
       <c r="AL280" s="62"/>
       <c r="AM280" s="48"/>
       <c r="AN280" s="48"/>
       <c r="AO280" s="62"/>
-      <c r="AQ280" s="194" t="s">
+      <c r="AQ280" s="192" t="s">
         <v>73</v>
       </c>
-      <c r="AR280" s="188"/>
-      <c r="AS280" s="188"/>
+      <c r="AR280" s="193"/>
+      <c r="AS280" s="193"/>
       <c r="AT280" s="48"/>
       <c r="AU280" s="48"/>
       <c r="AV280" s="62"/>
@@ -31068,11 +31068,11 @@
       <c r="AX280" s="48"/>
       <c r="AY280" s="48"/>
       <c r="AZ280" s="48"/>
-      <c r="BA280" s="194" t="s">
+      <c r="BA280" s="192" t="s">
         <v>73</v>
       </c>
-      <c r="BB280" s="188"/>
-      <c r="BC280" s="188"/>
+      <c r="BB280" s="193"/>
+      <c r="BC280" s="193"/>
       <c r="BD280" s="48"/>
       <c r="BE280" s="48"/>
       <c r="BF280" s="62"/>
@@ -31172,11 +31172,11 @@
       </c>
       <c r="X283" s="48"/>
       <c r="Y283" s="48"/>
-      <c r="Z283" s="188" t="s">
+      <c r="Z283" s="193" t="s">
         <v>60</v>
       </c>
-      <c r="AA283" s="188"/>
-      <c r="AB283" s="189"/>
+      <c r="AA283" s="193"/>
+      <c r="AB283" s="203"/>
       <c r="AC283" s="48"/>
       <c r="AD283" s="48"/>
       <c r="AE283" s="48"/>
@@ -31186,11 +31186,11 @@
       </c>
       <c r="AH283" s="48"/>
       <c r="AI283" s="48"/>
-      <c r="AJ283" s="188" t="s">
+      <c r="AJ283" s="193" t="s">
         <v>60</v>
       </c>
-      <c r="AK283" s="188"/>
-      <c r="AL283" s="189"/>
+      <c r="AK283" s="193"/>
+      <c r="AL283" s="203"/>
       <c r="AM283" s="48"/>
       <c r="AN283" s="48"/>
       <c r="AO283" s="62"/>
@@ -31199,11 +31199,11 @@
       </c>
       <c r="AR283" s="48"/>
       <c r="AS283" s="48"/>
-      <c r="AT283" s="188" t="s">
+      <c r="AT283" s="193" t="s">
         <v>60</v>
       </c>
-      <c r="AU283" s="188"/>
-      <c r="AV283" s="189"/>
+      <c r="AU283" s="193"/>
+      <c r="AV283" s="203"/>
       <c r="AW283" s="48"/>
       <c r="AX283" s="48"/>
       <c r="AY283" s="48"/>
@@ -31213,11 +31213,11 @@
       </c>
       <c r="BB283" s="48"/>
       <c r="BC283" s="48"/>
-      <c r="BD283" s="188" t="s">
+      <c r="BD283" s="193" t="s">
         <v>60</v>
       </c>
-      <c r="BE283" s="188"/>
-      <c r="BF283" s="189"/>
+      <c r="BE283" s="193"/>
+      <c r="BF283" s="203"/>
       <c r="BG283" s="48"/>
       <c r="BH283" s="48"/>
       <c r="BI283" s="62"/>
@@ -31645,209 +31645,6 @@
     </row>
   </sheetData>
   <mergeCells count="227">
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="S25:W25"/>
-    <mergeCell ref="Z25:AD25"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="I25:I79"/>
-    <mergeCell ref="S38:V38"/>
-    <mergeCell ref="Z38:AC38"/>
-    <mergeCell ref="V48:X48"/>
-    <mergeCell ref="AC48:AE48"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="AC55:AE55"/>
-    <mergeCell ref="S64:U64"/>
-    <mergeCell ref="V64:X64"/>
-    <mergeCell ref="Z64:AB64"/>
-    <mergeCell ref="AC64:AE64"/>
-    <mergeCell ref="S69:U69"/>
-    <mergeCell ref="Z69:AB69"/>
-    <mergeCell ref="AG25:AK25"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AU25:AY25"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="Z30:AB30"/>
-    <mergeCell ref="AG30:AI30"/>
-    <mergeCell ref="AN30:AP30"/>
-    <mergeCell ref="AU30:AW30"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="AJ32:AL32"/>
-    <mergeCell ref="AQ32:AS32"/>
-    <mergeCell ref="AX32:AZ32"/>
-    <mergeCell ref="AG38:AJ38"/>
-    <mergeCell ref="AN38:AQ38"/>
-    <mergeCell ref="AU38:AX38"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="AC40:AE40"/>
-    <mergeCell ref="AJ40:AL40"/>
-    <mergeCell ref="AQ40:AS40"/>
-    <mergeCell ref="AX40:AZ40"/>
-    <mergeCell ref="S46:V46"/>
-    <mergeCell ref="Z46:AC46"/>
-    <mergeCell ref="AG46:AJ46"/>
-    <mergeCell ref="AN46:AQ46"/>
-    <mergeCell ref="AU46:AX46"/>
-    <mergeCell ref="AJ48:AL48"/>
-    <mergeCell ref="AQ48:AS48"/>
-    <mergeCell ref="AX48:AZ48"/>
-    <mergeCell ref="S53:W53"/>
-    <mergeCell ref="Z53:AD53"/>
-    <mergeCell ref="AG53:AK53"/>
-    <mergeCell ref="AN53:AR53"/>
-    <mergeCell ref="AU53:AY53"/>
-    <mergeCell ref="S54:V54"/>
-    <mergeCell ref="Z54:AC54"/>
-    <mergeCell ref="AG54:AJ54"/>
-    <mergeCell ref="AN54:AQ54"/>
-    <mergeCell ref="AU54:AX54"/>
-    <mergeCell ref="AJ55:AL55"/>
-    <mergeCell ref="AQ55:AS55"/>
-    <mergeCell ref="AX55:AZ55"/>
-    <mergeCell ref="S60:W60"/>
-    <mergeCell ref="Z60:AD60"/>
-    <mergeCell ref="AG60:AK60"/>
-    <mergeCell ref="AN60:AR60"/>
-    <mergeCell ref="AU60:AY60"/>
-    <mergeCell ref="S61:V61"/>
-    <mergeCell ref="Z61:AC61"/>
-    <mergeCell ref="AG61:AJ61"/>
-    <mergeCell ref="AN61:AQ61"/>
-    <mergeCell ref="AU61:AX61"/>
-    <mergeCell ref="AG64:AI64"/>
-    <mergeCell ref="AJ64:AL64"/>
-    <mergeCell ref="AN64:AP64"/>
-    <mergeCell ref="AQ64:AS64"/>
-    <mergeCell ref="AU64:AW64"/>
-    <mergeCell ref="AX64:AZ64"/>
-    <mergeCell ref="S68:W68"/>
-    <mergeCell ref="Z68:AD68"/>
-    <mergeCell ref="AG68:AK68"/>
-    <mergeCell ref="AN68:AR68"/>
-    <mergeCell ref="AU68:AY68"/>
-    <mergeCell ref="AG69:AI69"/>
-    <mergeCell ref="AN69:AP69"/>
-    <mergeCell ref="AU69:AW69"/>
-    <mergeCell ref="V72:X72"/>
-    <mergeCell ref="AC72:AE72"/>
-    <mergeCell ref="AJ72:AL72"/>
-    <mergeCell ref="AQ72:AS72"/>
-    <mergeCell ref="AX72:AZ72"/>
-    <mergeCell ref="Q79:S79"/>
-    <mergeCell ref="Q90:S90"/>
-    <mergeCell ref="K104:O104"/>
-    <mergeCell ref="L105:N105"/>
-    <mergeCell ref="AA113:AB113"/>
-    <mergeCell ref="AP113:AQ113"/>
-    <mergeCell ref="BE113:BF113"/>
-    <mergeCell ref="BT113:BU113"/>
-    <mergeCell ref="AA116:AB116"/>
-    <mergeCell ref="AP116:AQ116"/>
-    <mergeCell ref="BE116:BF116"/>
-    <mergeCell ref="BT116:BU116"/>
-    <mergeCell ref="J117:K117"/>
-    <mergeCell ref="BU123:BW123"/>
-    <mergeCell ref="S143:T143"/>
-    <mergeCell ref="AH143:AI143"/>
-    <mergeCell ref="AW143:AX143"/>
-    <mergeCell ref="BL143:BM143"/>
-    <mergeCell ref="AA119:AB119"/>
-    <mergeCell ref="AP119:AQ119"/>
-    <mergeCell ref="BE119:BF119"/>
-    <mergeCell ref="BT119:BU119"/>
-    <mergeCell ref="T121:X121"/>
-    <mergeCell ref="AI121:AM121"/>
-    <mergeCell ref="AX121:BB121"/>
-    <mergeCell ref="BM121:BQ121"/>
-    <mergeCell ref="AA122:AB122"/>
-    <mergeCell ref="AP122:AQ122"/>
-    <mergeCell ref="BE122:BF122"/>
-    <mergeCell ref="BT122:BU122"/>
-    <mergeCell ref="AH149:AI149"/>
-    <mergeCell ref="AW149:AX149"/>
-    <mergeCell ref="BL149:BM149"/>
-    <mergeCell ref="S154:T154"/>
-    <mergeCell ref="AH154:AI154"/>
-    <mergeCell ref="AW154:AX154"/>
-    <mergeCell ref="BL154:BM154"/>
-    <mergeCell ref="T123:X123"/>
-    <mergeCell ref="AB123:AD123"/>
-    <mergeCell ref="AI123:AM123"/>
-    <mergeCell ref="AQ123:AS123"/>
-    <mergeCell ref="AX123:BB123"/>
-    <mergeCell ref="BF123:BH123"/>
-    <mergeCell ref="BM123:BQ123"/>
-    <mergeCell ref="W249:Z249"/>
-    <mergeCell ref="AG249:AJ249"/>
-    <mergeCell ref="AQ249:AT249"/>
-    <mergeCell ref="BA249:BD249"/>
-    <mergeCell ref="Z251:AB251"/>
-    <mergeCell ref="AJ251:AL251"/>
-    <mergeCell ref="AT251:AV251"/>
-    <mergeCell ref="BD251:BF251"/>
-    <mergeCell ref="P232:Q232"/>
-    <mergeCell ref="W236:AA236"/>
-    <mergeCell ref="AG236:AK236"/>
-    <mergeCell ref="AQ236:AU236"/>
-    <mergeCell ref="BA236:BE236"/>
-    <mergeCell ref="W241:Y241"/>
-    <mergeCell ref="AG241:AI241"/>
-    <mergeCell ref="AQ241:AS241"/>
-    <mergeCell ref="BA241:BC241"/>
-    <mergeCell ref="W257:Z257"/>
-    <mergeCell ref="AG257:AJ257"/>
-    <mergeCell ref="AQ257:AT257"/>
-    <mergeCell ref="BA257:BD257"/>
-    <mergeCell ref="Z259:AB259"/>
-    <mergeCell ref="AJ259:AL259"/>
-    <mergeCell ref="AT259:AV259"/>
-    <mergeCell ref="BD259:BF259"/>
-    <mergeCell ref="W264:AA264"/>
-    <mergeCell ref="AG264:AK264"/>
-    <mergeCell ref="AQ264:AU264"/>
-    <mergeCell ref="BA264:BE264"/>
-    <mergeCell ref="W265:Z265"/>
-    <mergeCell ref="AG265:AJ265"/>
-    <mergeCell ref="AQ265:AT265"/>
-    <mergeCell ref="BA265:BD265"/>
-    <mergeCell ref="Z266:AB266"/>
-    <mergeCell ref="AJ266:AL266"/>
-    <mergeCell ref="AT266:AV266"/>
-    <mergeCell ref="BD266:BF266"/>
-    <mergeCell ref="W271:AA271"/>
-    <mergeCell ref="AG271:AK271"/>
-    <mergeCell ref="AQ271:AU271"/>
-    <mergeCell ref="BA271:BE271"/>
-    <mergeCell ref="W272:Z272"/>
-    <mergeCell ref="AG272:AJ272"/>
-    <mergeCell ref="AQ272:AT272"/>
-    <mergeCell ref="BA272:BD272"/>
-    <mergeCell ref="W275:Y275"/>
-    <mergeCell ref="Z275:AB275"/>
-    <mergeCell ref="AG275:AI275"/>
-    <mergeCell ref="AJ275:AL275"/>
-    <mergeCell ref="AQ275:AS275"/>
-    <mergeCell ref="AT275:AV275"/>
-    <mergeCell ref="BA275:BC275"/>
-    <mergeCell ref="BD275:BF275"/>
-    <mergeCell ref="W279:AA279"/>
-    <mergeCell ref="AG279:AK279"/>
-    <mergeCell ref="AQ279:AU279"/>
-    <mergeCell ref="BA279:BE279"/>
-    <mergeCell ref="W280:Y280"/>
-    <mergeCell ref="AG280:AI280"/>
-    <mergeCell ref="AQ280:AS280"/>
-    <mergeCell ref="BA280:BC280"/>
-    <mergeCell ref="Z283:AB283"/>
-    <mergeCell ref="AJ283:AL283"/>
-    <mergeCell ref="AT283:AV283"/>
-    <mergeCell ref="BD283:BF283"/>
     <mergeCell ref="I80:I82"/>
     <mergeCell ref="I83:I137"/>
     <mergeCell ref="I138:I195"/>
@@ -31872,6 +31669,209 @@
     <mergeCell ref="AW146:AX146"/>
     <mergeCell ref="BL146:BM146"/>
     <mergeCell ref="S149:T149"/>
+    <mergeCell ref="W279:AA279"/>
+    <mergeCell ref="AG279:AK279"/>
+    <mergeCell ref="AQ279:AU279"/>
+    <mergeCell ref="BA279:BE279"/>
+    <mergeCell ref="W280:Y280"/>
+    <mergeCell ref="AG280:AI280"/>
+    <mergeCell ref="AQ280:AS280"/>
+    <mergeCell ref="BA280:BC280"/>
+    <mergeCell ref="Z283:AB283"/>
+    <mergeCell ref="AJ283:AL283"/>
+    <mergeCell ref="AT283:AV283"/>
+    <mergeCell ref="BD283:BF283"/>
+    <mergeCell ref="W272:Z272"/>
+    <mergeCell ref="AG272:AJ272"/>
+    <mergeCell ref="AQ272:AT272"/>
+    <mergeCell ref="BA272:BD272"/>
+    <mergeCell ref="W275:Y275"/>
+    <mergeCell ref="Z275:AB275"/>
+    <mergeCell ref="AG275:AI275"/>
+    <mergeCell ref="AJ275:AL275"/>
+    <mergeCell ref="AQ275:AS275"/>
+    <mergeCell ref="AT275:AV275"/>
+    <mergeCell ref="BA275:BC275"/>
+    <mergeCell ref="BD275:BF275"/>
+    <mergeCell ref="W265:Z265"/>
+    <mergeCell ref="AG265:AJ265"/>
+    <mergeCell ref="AQ265:AT265"/>
+    <mergeCell ref="BA265:BD265"/>
+    <mergeCell ref="Z266:AB266"/>
+    <mergeCell ref="AJ266:AL266"/>
+    <mergeCell ref="AT266:AV266"/>
+    <mergeCell ref="BD266:BF266"/>
+    <mergeCell ref="W271:AA271"/>
+    <mergeCell ref="AG271:AK271"/>
+    <mergeCell ref="AQ271:AU271"/>
+    <mergeCell ref="BA271:BE271"/>
+    <mergeCell ref="W257:Z257"/>
+    <mergeCell ref="AG257:AJ257"/>
+    <mergeCell ref="AQ257:AT257"/>
+    <mergeCell ref="BA257:BD257"/>
+    <mergeCell ref="Z259:AB259"/>
+    <mergeCell ref="AJ259:AL259"/>
+    <mergeCell ref="AT259:AV259"/>
+    <mergeCell ref="BD259:BF259"/>
+    <mergeCell ref="W264:AA264"/>
+    <mergeCell ref="AG264:AK264"/>
+    <mergeCell ref="AQ264:AU264"/>
+    <mergeCell ref="BA264:BE264"/>
+    <mergeCell ref="W249:Z249"/>
+    <mergeCell ref="AG249:AJ249"/>
+    <mergeCell ref="AQ249:AT249"/>
+    <mergeCell ref="BA249:BD249"/>
+    <mergeCell ref="Z251:AB251"/>
+    <mergeCell ref="AJ251:AL251"/>
+    <mergeCell ref="AT251:AV251"/>
+    <mergeCell ref="BD251:BF251"/>
+    <mergeCell ref="P232:Q232"/>
+    <mergeCell ref="W236:AA236"/>
+    <mergeCell ref="AG236:AK236"/>
+    <mergeCell ref="AQ236:AU236"/>
+    <mergeCell ref="BA236:BE236"/>
+    <mergeCell ref="W241:Y241"/>
+    <mergeCell ref="AG241:AI241"/>
+    <mergeCell ref="AQ241:AS241"/>
+    <mergeCell ref="BA241:BC241"/>
+    <mergeCell ref="AH149:AI149"/>
+    <mergeCell ref="AW149:AX149"/>
+    <mergeCell ref="BL149:BM149"/>
+    <mergeCell ref="S154:T154"/>
+    <mergeCell ref="AH154:AI154"/>
+    <mergeCell ref="AW154:AX154"/>
+    <mergeCell ref="BL154:BM154"/>
+    <mergeCell ref="T123:X123"/>
+    <mergeCell ref="AB123:AD123"/>
+    <mergeCell ref="AI123:AM123"/>
+    <mergeCell ref="AQ123:AS123"/>
+    <mergeCell ref="AX123:BB123"/>
+    <mergeCell ref="BF123:BH123"/>
+    <mergeCell ref="BM123:BQ123"/>
+    <mergeCell ref="J117:K117"/>
+    <mergeCell ref="BU123:BW123"/>
+    <mergeCell ref="S143:T143"/>
+    <mergeCell ref="AH143:AI143"/>
+    <mergeCell ref="AW143:AX143"/>
+    <mergeCell ref="BL143:BM143"/>
+    <mergeCell ref="AA119:AB119"/>
+    <mergeCell ref="AP119:AQ119"/>
+    <mergeCell ref="BE119:BF119"/>
+    <mergeCell ref="BT119:BU119"/>
+    <mergeCell ref="T121:X121"/>
+    <mergeCell ref="AI121:AM121"/>
+    <mergeCell ref="AX121:BB121"/>
+    <mergeCell ref="BM121:BQ121"/>
+    <mergeCell ref="AA122:AB122"/>
+    <mergeCell ref="AP122:AQ122"/>
+    <mergeCell ref="BE122:BF122"/>
+    <mergeCell ref="BT122:BU122"/>
+    <mergeCell ref="Q90:S90"/>
+    <mergeCell ref="K104:O104"/>
+    <mergeCell ref="L105:N105"/>
+    <mergeCell ref="AA113:AB113"/>
+    <mergeCell ref="AP113:AQ113"/>
+    <mergeCell ref="BE113:BF113"/>
+    <mergeCell ref="BT113:BU113"/>
+    <mergeCell ref="AA116:AB116"/>
+    <mergeCell ref="AP116:AQ116"/>
+    <mergeCell ref="BE116:BF116"/>
+    <mergeCell ref="BT116:BU116"/>
+    <mergeCell ref="AG69:AI69"/>
+    <mergeCell ref="AN69:AP69"/>
+    <mergeCell ref="AU69:AW69"/>
+    <mergeCell ref="V72:X72"/>
+    <mergeCell ref="AC72:AE72"/>
+    <mergeCell ref="AJ72:AL72"/>
+    <mergeCell ref="AQ72:AS72"/>
+    <mergeCell ref="AX72:AZ72"/>
+    <mergeCell ref="Q79:S79"/>
+    <mergeCell ref="AG64:AI64"/>
+    <mergeCell ref="AJ64:AL64"/>
+    <mergeCell ref="AN64:AP64"/>
+    <mergeCell ref="AQ64:AS64"/>
+    <mergeCell ref="AU64:AW64"/>
+    <mergeCell ref="AX64:AZ64"/>
+    <mergeCell ref="S68:W68"/>
+    <mergeCell ref="Z68:AD68"/>
+    <mergeCell ref="AG68:AK68"/>
+    <mergeCell ref="AN68:AR68"/>
+    <mergeCell ref="AU68:AY68"/>
+    <mergeCell ref="AJ55:AL55"/>
+    <mergeCell ref="AQ55:AS55"/>
+    <mergeCell ref="AX55:AZ55"/>
+    <mergeCell ref="S60:W60"/>
+    <mergeCell ref="Z60:AD60"/>
+    <mergeCell ref="AG60:AK60"/>
+    <mergeCell ref="AN60:AR60"/>
+    <mergeCell ref="AU60:AY60"/>
+    <mergeCell ref="S61:V61"/>
+    <mergeCell ref="Z61:AC61"/>
+    <mergeCell ref="AG61:AJ61"/>
+    <mergeCell ref="AN61:AQ61"/>
+    <mergeCell ref="AU61:AX61"/>
+    <mergeCell ref="AJ48:AL48"/>
+    <mergeCell ref="AQ48:AS48"/>
+    <mergeCell ref="AX48:AZ48"/>
+    <mergeCell ref="S53:W53"/>
+    <mergeCell ref="Z53:AD53"/>
+    <mergeCell ref="AG53:AK53"/>
+    <mergeCell ref="AN53:AR53"/>
+    <mergeCell ref="AU53:AY53"/>
+    <mergeCell ref="S54:V54"/>
+    <mergeCell ref="Z54:AC54"/>
+    <mergeCell ref="AG54:AJ54"/>
+    <mergeCell ref="AN54:AQ54"/>
+    <mergeCell ref="AU54:AX54"/>
+    <mergeCell ref="AG38:AJ38"/>
+    <mergeCell ref="AN38:AQ38"/>
+    <mergeCell ref="AU38:AX38"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="AC40:AE40"/>
+    <mergeCell ref="AJ40:AL40"/>
+    <mergeCell ref="AQ40:AS40"/>
+    <mergeCell ref="AX40:AZ40"/>
+    <mergeCell ref="S46:V46"/>
+    <mergeCell ref="Z46:AC46"/>
+    <mergeCell ref="AG46:AJ46"/>
+    <mergeCell ref="AN46:AQ46"/>
+    <mergeCell ref="AU46:AX46"/>
+    <mergeCell ref="AG25:AK25"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AU25:AY25"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="Z30:AB30"/>
+    <mergeCell ref="AG30:AI30"/>
+    <mergeCell ref="AN30:AP30"/>
+    <mergeCell ref="AU30:AW30"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="AJ32:AL32"/>
+    <mergeCell ref="AQ32:AS32"/>
+    <mergeCell ref="AX32:AZ32"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="S25:W25"/>
+    <mergeCell ref="Z25:AD25"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="I25:I79"/>
+    <mergeCell ref="S38:V38"/>
+    <mergeCell ref="Z38:AC38"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="AC48:AE48"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="AC55:AE55"/>
+    <mergeCell ref="S64:U64"/>
+    <mergeCell ref="V64:X64"/>
+    <mergeCell ref="Z64:AB64"/>
+    <mergeCell ref="AC64:AE64"/>
+    <mergeCell ref="S69:U69"/>
+    <mergeCell ref="Z69:AB69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -31900,10 +31900,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
-      <c r="A1" s="211"/>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
+      <c r="A1" s="179"/>
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
     </row>
     <row r="2" spans="1:35" ht="16.5" customHeight="1">
       <c r="A2" s="2">
